--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>16249.41453870467</v>
+        <v>16954.01825410571</v>
       </c>
       <c r="AB2" t="n">
-        <v>22233.16584543206</v>
+        <v>23197.23573376587</v>
       </c>
       <c r="AC2" t="n">
-        <v>20111.26370158743</v>
+        <v>20983.32411285921</v>
       </c>
       <c r="AD2" t="n">
-        <v>16249414.53870467</v>
+        <v>16954018.25410571</v>
       </c>
       <c r="AE2" t="n">
-        <v>22233165.84543206</v>
+        <v>23197235.73376587</v>
       </c>
       <c r="AF2" t="n">
         <v>1.111596100941105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>142</v>
+        <v>141.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>20111263.70158743</v>
+        <v>20983324.11285921</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5607.572656560624</v>
+        <v>5979.434979607377</v>
       </c>
       <c r="AB3" t="n">
-        <v>7672.528297352479</v>
+        <v>8181.326733152931</v>
       </c>
       <c r="AC3" t="n">
-        <v>6940.272965113965</v>
+        <v>7400.512392304693</v>
       </c>
       <c r="AD3" t="n">
-        <v>5607572.656560624</v>
+        <v>5979434.979607377</v>
       </c>
       <c r="AE3" t="n">
-        <v>7672528.297352479</v>
+        <v>8181326.733152932</v>
       </c>
       <c r="AF3" t="n">
         <v>2.092105979202609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>6940272.965113965</v>
+        <v>7400512.392304693</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4362.289330704865</v>
+        <v>4675.454691548309</v>
       </c>
       <c r="AB4" t="n">
-        <v>5968.676712893525</v>
+        <v>6397.163375480191</v>
       </c>
       <c r="AC4" t="n">
-        <v>5399.034584505121</v>
+        <v>5786.627081399309</v>
       </c>
       <c r="AD4" t="n">
-        <v>4362289.330704865</v>
+        <v>4675454.691548308</v>
       </c>
       <c r="AE4" t="n">
-        <v>5968676.712893525</v>
+        <v>6397163.375480192</v>
       </c>
       <c r="AF4" t="n">
         <v>2.451839722475654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>65</v>
+        <v>64.01666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5399034.58450512</v>
+        <v>5786627.081399309</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3872.012149746935</v>
+        <v>4165.566302630901</v>
       </c>
       <c r="AB5" t="n">
-        <v>5297.857844404157</v>
+        <v>5699.511587075233</v>
       </c>
       <c r="AC5" t="n">
-        <v>4792.237727324208</v>
+        <v>5155.55820051931</v>
       </c>
       <c r="AD5" t="n">
-        <v>3872012.149746935</v>
+        <v>4165566.302630901</v>
       </c>
       <c r="AE5" t="n">
-        <v>5297857.844404157</v>
+        <v>5699511.587075233</v>
       </c>
       <c r="AF5" t="n">
         <v>2.642818788276108e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>60</v>
+        <v>59.3875</v>
       </c>
       <c r="AH5" t="n">
-        <v>4792237.727324208</v>
+        <v>5155558.20051931</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3608.032373921172</v>
+        <v>3901.58551577528</v>
       </c>
       <c r="AB6" t="n">
-        <v>4936.669069153549</v>
+        <v>5338.32142848897</v>
       </c>
       <c r="AC6" t="n">
-        <v>4465.520301851901</v>
+        <v>4828.839523734962</v>
       </c>
       <c r="AD6" t="n">
-        <v>3608032.373921172</v>
+        <v>3901585.51577528</v>
       </c>
       <c r="AE6" t="n">
-        <v>4936669.069153548</v>
+        <v>5338321.42848897</v>
       </c>
       <c r="AF6" t="n">
         <v>2.759967682682304e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.87083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>4465520.301851901</v>
+        <v>4828839.523734963</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3446.139027316239</v>
+        <v>3720.116137659507</v>
       </c>
       <c r="AB7" t="n">
-        <v>4715.159450098287</v>
+        <v>5090.027019487019</v>
       </c>
       <c r="AC7" t="n">
-        <v>4265.15124994858</v>
+        <v>4604.241984644775</v>
       </c>
       <c r="AD7" t="n">
-        <v>3446139.027316239</v>
+        <v>3720116.137659507</v>
       </c>
       <c r="AE7" t="n">
-        <v>4715159.450098287</v>
+        <v>5090027.019487019</v>
       </c>
       <c r="AF7" t="n">
         <v>2.84170822958309e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.23333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4265151.24994858</v>
+        <v>4604241.984644774</v>
       </c>
     </row>
     <row r="8">
@@ -7988,28 +7988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3327.847799875656</v>
+        <v>3592.070554367357</v>
       </c>
       <c r="AB8" t="n">
-        <v>4553.308174073431</v>
+        <v>4914.829403454238</v>
       </c>
       <c r="AC8" t="n">
-        <v>4118.74683254785</v>
+        <v>4445.764983194771</v>
       </c>
       <c r="AD8" t="n">
-        <v>3327847.799875656</v>
+        <v>3592070.554367357</v>
       </c>
       <c r="AE8" t="n">
-        <v>4553308.174073431</v>
+        <v>4914829.403454238</v>
       </c>
       <c r="AF8" t="n">
         <v>2.902354441799802e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.075</v>
       </c>
       <c r="AH8" t="n">
-        <v>4118746.83254785</v>
+        <v>4445764.983194771</v>
       </c>
     </row>
     <row r="9">
@@ -8094,28 +8094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3241.356420764249</v>
+        <v>3505.545009837169</v>
       </c>
       <c r="AB9" t="n">
-        <v>4434.966853442851</v>
+        <v>4796.441336190412</v>
       </c>
       <c r="AC9" t="n">
-        <v>4011.699841465171</v>
+        <v>4338.675706911912</v>
       </c>
       <c r="AD9" t="n">
-        <v>3241356.420764249</v>
+        <v>3505545.009837169</v>
       </c>
       <c r="AE9" t="n">
-        <v>4434966.853442851</v>
+        <v>4796441.336190412</v>
       </c>
       <c r="AF9" t="n">
         <v>2.94529648026381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.2875</v>
       </c>
       <c r="AH9" t="n">
-        <v>4011699.841465171</v>
+        <v>4338675.706911912</v>
       </c>
     </row>
     <row r="10">
@@ -8200,28 +8200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3167.952612191723</v>
+        <v>3432.208521072347</v>
       </c>
       <c r="AB10" t="n">
-        <v>4334.532524206432</v>
+        <v>4696.099116884832</v>
       </c>
       <c r="AC10" t="n">
-        <v>3920.850823650611</v>
+        <v>4247.910008185671</v>
       </c>
       <c r="AD10" t="n">
-        <v>3167952.612191723</v>
+        <v>3432208.521072347</v>
       </c>
       <c r="AE10" t="n">
-        <v>4334532.524206432</v>
+        <v>4696099.116884832</v>
       </c>
       <c r="AF10" t="n">
         <v>2.980704827769219e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.65416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3920850.823650612</v>
+        <v>4247910.008185672</v>
       </c>
     </row>
     <row r="11">
@@ -8306,28 +8306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3115.093494549947</v>
+        <v>3379.247918204087</v>
       </c>
       <c r="AB11" t="n">
-        <v>4262.208347469264</v>
+        <v>4623.636083583575</v>
       </c>
       <c r="AC11" t="n">
-        <v>3855.429164833623</v>
+        <v>4182.362745080184</v>
       </c>
       <c r="AD11" t="n">
-        <v>3115093.494549947</v>
+        <v>3379247.918204087</v>
       </c>
       <c r="AE11" t="n">
-        <v>4262208.347469264</v>
+        <v>4623636.083583575</v>
       </c>
       <c r="AF11" t="n">
         <v>3.008956168863961e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.16666666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>3855429.164833623</v>
+        <v>4182362.745080184</v>
       </c>
     </row>
     <row r="12">
@@ -8412,28 +8412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3061.214564118819</v>
+        <v>3325.436307580663</v>
       </c>
       <c r="AB12" t="n">
-        <v>4188.488817882736</v>
+        <v>4550.00866392789</v>
       </c>
       <c r="AC12" t="n">
-        <v>3788.745323684827</v>
+        <v>4115.762223019708</v>
       </c>
       <c r="AD12" t="n">
-        <v>3061214.564118818</v>
+        <v>3325436.307580663</v>
       </c>
       <c r="AE12" t="n">
-        <v>4188488.817882736</v>
+        <v>4550008.663927889</v>
       </c>
       <c r="AF12" t="n">
         <v>3.033440664479404e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.74166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3788745.323684827</v>
+        <v>4115762.223019707</v>
       </c>
     </row>
     <row r="13">
@@ -8518,28 +8518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3024.365008959001</v>
+        <v>3278.765076761572</v>
       </c>
       <c r="AB13" t="n">
-        <v>4138.069630825432</v>
+        <v>4486.15102693182</v>
       </c>
       <c r="AC13" t="n">
-        <v>3743.138073076499</v>
+        <v>4057.999069273788</v>
       </c>
       <c r="AD13" t="n">
-        <v>3024365.008959</v>
+        <v>3278765.076761572</v>
       </c>
       <c r="AE13" t="n">
-        <v>4138069.630825432</v>
+        <v>4486151.02693182</v>
       </c>
       <c r="AF13" t="n">
         <v>3.052274891875899e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.42083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>3743138.0730765</v>
+        <v>4057999.069273788</v>
       </c>
     </row>
     <row r="14">
@@ -8624,28 +8624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2989.274383035437</v>
+        <v>3243.674450838009</v>
       </c>
       <c r="AB14" t="n">
-        <v>4090.057088347653</v>
+        <v>4438.13848445404</v>
       </c>
       <c r="AC14" t="n">
-        <v>3699.707780266775</v>
+        <v>4014.568776464063</v>
       </c>
       <c r="AD14" t="n">
-        <v>2989274.383035437</v>
+        <v>3243674.450838009</v>
       </c>
       <c r="AE14" t="n">
-        <v>4090057.088347652</v>
+        <v>4438138.484454039</v>
       </c>
       <c r="AF14" t="n">
         <v>3.068849011984814e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>52</v>
+        <v>51.14166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>3699707.780266775</v>
+        <v>4014568.776464063</v>
       </c>
     </row>
     <row r="15">
@@ -8730,28 +8730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2947.24531824582</v>
+        <v>3211.432896288884</v>
       </c>
       <c r="AB15" t="n">
-        <v>4032.55106771102</v>
+        <v>4394.024167122925</v>
       </c>
       <c r="AC15" t="n">
-        <v>3647.690053529497</v>
+        <v>3974.664667664197</v>
       </c>
       <c r="AD15" t="n">
-        <v>2947245.31824582</v>
+        <v>3211432.896288883</v>
       </c>
       <c r="AE15" t="n">
-        <v>4032551.067711019</v>
+        <v>4394024.167122925</v>
       </c>
       <c r="AF15" t="n">
         <v>3.084293078449939e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.8875</v>
       </c>
       <c r="AH15" t="n">
-        <v>3647690.053529497</v>
+        <v>3974664.667664197</v>
       </c>
     </row>
     <row r="16">
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2916.932597653929</v>
+        <v>3171.399985264206</v>
       </c>
       <c r="AB16" t="n">
-        <v>3991.075866094342</v>
+        <v>4339.249372131571</v>
       </c>
       <c r="AC16" t="n">
-        <v>3610.173186944307</v>
+        <v>3925.117502229913</v>
       </c>
       <c r="AD16" t="n">
-        <v>2916932.59765393</v>
+        <v>3171399.985264206</v>
       </c>
       <c r="AE16" t="n">
-        <v>3991075.866094342</v>
+        <v>4339249.372131571</v>
       </c>
       <c r="AF16" t="n">
         <v>3.096723668531626e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.68333333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>3610173.186944306</v>
+        <v>3925117.502229913</v>
       </c>
     </row>
     <row r="17">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2890.538824114863</v>
+        <v>3145.006211725139</v>
       </c>
       <c r="AB17" t="n">
-        <v>3954.96274072708</v>
+        <v>4303.136246764308</v>
       </c>
       <c r="AC17" t="n">
-        <v>3577.506647577007</v>
+        <v>3892.450962862615</v>
       </c>
       <c r="AD17" t="n">
-        <v>2890538.824114862</v>
+        <v>3145006.211725139</v>
       </c>
       <c r="AE17" t="n">
-        <v>3954962.74072708</v>
+        <v>4303136.246764308</v>
       </c>
       <c r="AF17" t="n">
         <v>3.107647520421592e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.50833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>3577506.647577007</v>
+        <v>3892450.962862615</v>
       </c>
     </row>
     <row r="18">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2867.250247355369</v>
+        <v>3121.61614973916</v>
       </c>
       <c r="AB18" t="n">
-        <v>3923.098282585244</v>
+        <v>4271.132932058383</v>
       </c>
       <c r="AC18" t="n">
-        <v>3548.683288598181</v>
+        <v>3863.501999595289</v>
       </c>
       <c r="AD18" t="n">
-        <v>2867250.247355368</v>
+        <v>3121616.14973916</v>
       </c>
       <c r="AE18" t="n">
-        <v>3923098.282585244</v>
+        <v>4271132.932058383</v>
       </c>
       <c r="AF18" t="n">
         <v>3.11631126502398e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.36666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>3548683.288598181</v>
+        <v>3863501.999595289</v>
       </c>
     </row>
     <row r="19">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2842.341970458238</v>
+        <v>3096.707872842029</v>
       </c>
       <c r="AB19" t="n">
-        <v>3889.017679258966</v>
+        <v>4237.052328732105</v>
       </c>
       <c r="AC19" t="n">
-        <v>3517.855290220938</v>
+        <v>3832.674001218046</v>
       </c>
       <c r="AD19" t="n">
-        <v>2842341.970458238</v>
+        <v>3096707.872842029</v>
       </c>
       <c r="AE19" t="n">
-        <v>3889017.679258966</v>
+        <v>4237052.328732105</v>
       </c>
       <c r="AF19" t="n">
         <v>3.125728378722227e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.21250000000001</v>
       </c>
       <c r="AH19" t="n">
-        <v>3517855.290220938</v>
+        <v>3832674.001218046</v>
       </c>
     </row>
     <row r="20">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2818.924238304498</v>
+        <v>3063.569950255502</v>
       </c>
       <c r="AB20" t="n">
-        <v>3856.976505008788</v>
+        <v>4191.71156110725</v>
       </c>
       <c r="AC20" t="n">
-        <v>3488.872080671127</v>
+        <v>3791.660492819141</v>
       </c>
       <c r="AD20" t="n">
-        <v>2818924.238304498</v>
+        <v>3063569.950255502</v>
       </c>
       <c r="AE20" t="n">
-        <v>3856976.505008788</v>
+        <v>4191711.56110725</v>
       </c>
       <c r="AF20" t="n">
         <v>3.133638754228755e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>51</v>
+        <v>50.0875</v>
       </c>
       <c r="AH20" t="n">
-        <v>3488872.080671127</v>
+        <v>3791660.492819142</v>
       </c>
     </row>
     <row r="21">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2790.099932176554</v>
+        <v>3044.53315436805</v>
       </c>
       <c r="AB21" t="n">
-        <v>3817.537817725894</v>
+        <v>4165.664577129875</v>
       </c>
       <c r="AC21" t="n">
-        <v>3453.197366349969</v>
+        <v>3768.099396435396</v>
       </c>
       <c r="AD21" t="n">
-        <v>2790099.932176555</v>
+        <v>3044533.15436805</v>
       </c>
       <c r="AE21" t="n">
-        <v>3817537.817725894</v>
+        <v>4165664.577129876</v>
       </c>
       <c r="AF21" t="n">
         <v>3.140419076091493e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>50</v>
+        <v>49.97916666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>3453197.366349969</v>
+        <v>3768099.396435396</v>
       </c>
     </row>
     <row r="22">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2761.720982596304</v>
+        <v>3016.1542047878</v>
       </c>
       <c r="AB22" t="n">
-        <v>3778.7084869193</v>
+        <v>4126.835246323281</v>
       </c>
       <c r="AC22" t="n">
-        <v>3418.07385237825</v>
+        <v>3732.975882463676</v>
       </c>
       <c r="AD22" t="n">
-        <v>2761720.982596304</v>
+        <v>3016154.2047878</v>
       </c>
       <c r="AE22" t="n">
-        <v>3778708.4869193</v>
+        <v>4126835.246323281</v>
       </c>
       <c r="AF22" t="n">
         <v>3.147952767050091e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>50</v>
+        <v>49.8625</v>
       </c>
       <c r="AH22" t="n">
-        <v>3418073.85237825</v>
+        <v>3732975.882463676</v>
       </c>
     </row>
     <row r="23">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2749.634491213292</v>
+        <v>3004.067713404789</v>
       </c>
       <c r="AB23" t="n">
-        <v>3762.171216190696</v>
+        <v>4110.297975594676</v>
       </c>
       <c r="AC23" t="n">
-        <v>3403.114875557778</v>
+        <v>3718.016905643206</v>
       </c>
       <c r="AD23" t="n">
-        <v>2749634.491213292</v>
+        <v>3004067.713404789</v>
       </c>
       <c r="AE23" t="n">
-        <v>3762171.216190696</v>
+        <v>4110297.975594676</v>
       </c>
       <c r="AF23" t="n">
         <v>3.15096624343353e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>50</v>
+        <v>49.80833333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>3403114.875557778</v>
+        <v>3718016.905643206</v>
       </c>
     </row>
     <row r="24">
@@ -9684,28 +9684,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2721.903729854706</v>
+        <v>2976.336952046202</v>
       </c>
       <c r="AB24" t="n">
-        <v>3724.228765105027</v>
+        <v>4072.355524509007</v>
       </c>
       <c r="AC24" t="n">
-        <v>3368.793598751163</v>
+        <v>3683.69562883659</v>
       </c>
       <c r="AD24" t="n">
-        <v>2721903.729854706</v>
+        <v>2976336.952046202</v>
       </c>
       <c r="AE24" t="n">
-        <v>3724228.765105027</v>
+        <v>4072355.524509007</v>
       </c>
       <c r="AF24" t="n">
         <v>3.158499934392128e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>50</v>
+        <v>49.69166666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>3368793.598751163</v>
+        <v>3683695.628836589</v>
       </c>
     </row>
     <row r="25">
@@ -9790,28 +9790,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2709.208520183099</v>
+        <v>2963.641742374595</v>
       </c>
       <c r="AB25" t="n">
-        <v>3706.858619159209</v>
+        <v>4054.98537856319</v>
       </c>
       <c r="AC25" t="n">
-        <v>3353.081235155262</v>
+        <v>3667.983265240689</v>
       </c>
       <c r="AD25" t="n">
-        <v>2709208.520183099</v>
+        <v>2963641.742374595</v>
       </c>
       <c r="AE25" t="n">
-        <v>3706858.61915921</v>
+        <v>4054985.37856319</v>
       </c>
       <c r="AF25" t="n">
         <v>3.162643464419356e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>50</v>
+        <v>49.62916666666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>3353081.235155262</v>
+        <v>3667983.265240689</v>
       </c>
     </row>
     <row r="26">
@@ -9896,28 +9896,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2692.871591417959</v>
+        <v>2947.304813609455</v>
       </c>
       <c r="AB26" t="n">
-        <v>3684.505712488313</v>
+        <v>4032.632471892294</v>
       </c>
       <c r="AC26" t="n">
-        <v>3332.861658524535</v>
+        <v>3647.763688609963</v>
       </c>
       <c r="AD26" t="n">
-        <v>2692871.591417959</v>
+        <v>2947304.813609455</v>
       </c>
       <c r="AE26" t="n">
-        <v>3684505.712488313</v>
+        <v>4032632.471892294</v>
       </c>
       <c r="AF26" t="n">
         <v>3.164903571706936e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>50</v>
+        <v>49.59166666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>3332861.658524536</v>
+        <v>3647763.688609963</v>
       </c>
     </row>
     <row r="27">
@@ -10002,28 +10002,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2681.750090757009</v>
+        <v>2936.183312948505</v>
       </c>
       <c r="AB27" t="n">
-        <v>3669.28878463802</v>
+        <v>4017.415544042</v>
       </c>
       <c r="AC27" t="n">
-        <v>3319.097012911182</v>
+        <v>3633.999042996609</v>
       </c>
       <c r="AD27" t="n">
-        <v>2681750.090757009</v>
+        <v>2936183.312948505</v>
       </c>
       <c r="AE27" t="n">
-        <v>3669288.78463802</v>
+        <v>4017415.544042</v>
       </c>
       <c r="AF27" t="n">
         <v>3.169423786282094e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>50</v>
+        <v>49.52083333333334</v>
       </c>
       <c r="AH27" t="n">
-        <v>3319097.012911182</v>
+        <v>3633999.042996609</v>
       </c>
     </row>
     <row r="28">
@@ -10108,28 +10108,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2687.194937624059</v>
+        <v>2941.628159815555</v>
       </c>
       <c r="AB28" t="n">
-        <v>3676.73866433121</v>
+        <v>4024.86542373519</v>
       </c>
       <c r="AC28" t="n">
-        <v>3325.835886542425</v>
+        <v>3640.737916627853</v>
       </c>
       <c r="AD28" t="n">
-        <v>2687194.937624059</v>
+        <v>2941628.159815555</v>
       </c>
       <c r="AE28" t="n">
-        <v>3676738.66433121</v>
+        <v>4024865.42373519</v>
       </c>
       <c r="AF28" t="n">
         <v>3.169047101734165e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>50</v>
+        <v>49.525</v>
       </c>
       <c r="AH28" t="n">
-        <v>3325835.886542425</v>
+        <v>3640737.916627853</v>
       </c>
     </row>
     <row r="29">
@@ -10214,28 +10214,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>2692.23520163853</v>
+        <v>2946.668423830026</v>
       </c>
       <c r="AB29" t="n">
-        <v>3683.634975916564</v>
+        <v>4031.761735320544</v>
       </c>
       <c r="AC29" t="n">
-        <v>3332.074023829107</v>
+        <v>3646.976053914534</v>
       </c>
       <c r="AD29" t="n">
-        <v>2692235.20163853</v>
+        <v>2946668.423830026</v>
       </c>
       <c r="AE29" t="n">
-        <v>3683634.975916564</v>
+        <v>4031761.735320544</v>
       </c>
       <c r="AF29" t="n">
         <v>3.169047101734165e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>50</v>
+        <v>49.52916666666667</v>
       </c>
       <c r="AH29" t="n">
-        <v>3332074.023829107</v>
+        <v>3646976.053914534</v>
       </c>
     </row>
     <row r="30">
@@ -10320,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>2697.196267662952</v>
+        <v>2941.807814195176</v>
       </c>
       <c r="AB30" t="n">
-        <v>3690.422925317965</v>
+        <v>4025.111234783179</v>
       </c>
       <c r="AC30" t="n">
-        <v>3338.214140866585</v>
+        <v>3640.960267814419</v>
       </c>
       <c r="AD30" t="n">
-        <v>2697196.267662952</v>
+        <v>2941807.814195176</v>
       </c>
       <c r="AE30" t="n">
-        <v>3690422.925317965</v>
+        <v>4025111.234783179</v>
       </c>
       <c r="AF30" t="n">
         <v>3.171307209021744e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>50</v>
+        <v>49.49166666666667</v>
       </c>
       <c r="AH30" t="n">
-        <v>3338214.140866585</v>
+        <v>3640960.267814419</v>
       </c>
     </row>
     <row r="31">
@@ -10426,28 +10426,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>2706.462916673038</v>
+        <v>2951.074463205262</v>
       </c>
       <c r="AB31" t="n">
-        <v>3703.101963309266</v>
+        <v>4037.790272774481</v>
       </c>
       <c r="AC31" t="n">
-        <v>3349.683109267138</v>
+        <v>3652.429236214973</v>
       </c>
       <c r="AD31" t="n">
-        <v>2706462.916673038</v>
+        <v>2951074.463205262</v>
       </c>
       <c r="AE31" t="n">
-        <v>3703101.963309267</v>
+        <v>4037790.272774481</v>
       </c>
       <c r="AF31" t="n">
         <v>3.171307209021744e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>50</v>
+        <v>49.49166666666667</v>
       </c>
       <c r="AH31" t="n">
-        <v>3349683.109267138</v>
+        <v>3652429.236214973</v>
       </c>
     </row>
   </sheetData>
@@ -10723,28 +10723,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9981.857021029493</v>
+        <v>10533.47850652161</v>
       </c>
       <c r="AB2" t="n">
-        <v>13657.61714462546</v>
+        <v>14412.36999689821</v>
       </c>
       <c r="AC2" t="n">
-        <v>12354.15333292794</v>
+        <v>13036.87363228204</v>
       </c>
       <c r="AD2" t="n">
-        <v>9981857.021029493</v>
+        <v>10533478.50652161</v>
       </c>
       <c r="AE2" t="n">
-        <v>13657617.14462546</v>
+        <v>14412369.99689821</v>
       </c>
       <c r="AF2" t="n">
         <v>1.543959760917453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>112</v>
+        <v>111.2208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12354153.33292794</v>
+        <v>13036873.63228204</v>
       </c>
     </row>
     <row r="3">
@@ -10829,28 +10829,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4470.503158557824</v>
+        <v>4818.900431705375</v>
       </c>
       <c r="AB3" t="n">
-        <v>6116.739646219102</v>
+        <v>6593.432165542525</v>
       </c>
       <c r="AC3" t="n">
-        <v>5532.966599281731</v>
+        <v>5964.16425360306</v>
       </c>
       <c r="AD3" t="n">
-        <v>4470503.158557825</v>
+        <v>4818900.431705375</v>
       </c>
       <c r="AE3" t="n">
-        <v>6116739.646219102</v>
+        <v>6593432.165542524</v>
       </c>
       <c r="AF3" t="n">
         <v>2.496466703651098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>69</v>
+        <v>68.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5532966.599281731</v>
+        <v>5964164.253603061</v>
       </c>
     </row>
     <row r="4">
@@ -10935,28 +10935,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3636.225044293874</v>
+        <v>3936.287902528445</v>
       </c>
       <c r="AB4" t="n">
-        <v>4975.243524530318</v>
+        <v>5385.802765005906</v>
       </c>
       <c r="AC4" t="n">
-        <v>4500.413265347099</v>
+        <v>4871.789308135195</v>
       </c>
       <c r="AD4" t="n">
-        <v>3636225.044293874</v>
+        <v>3936287.902528445</v>
       </c>
       <c r="AE4" t="n">
-        <v>4975243.524530318</v>
+        <v>5385802.765005906</v>
       </c>
       <c r="AF4" t="n">
         <v>2.838561365039642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.50416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4500413.265347099</v>
+        <v>4871789.308135195</v>
       </c>
     </row>
     <row r="5">
@@ -11041,28 +11041,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3282.975877233462</v>
+        <v>3573.289855480362</v>
       </c>
       <c r="AB5" t="n">
-        <v>4491.912429904864</v>
+        <v>4889.132822691091</v>
       </c>
       <c r="AC5" t="n">
-        <v>4063.210612033265</v>
+        <v>4422.520848034284</v>
       </c>
       <c r="AD5" t="n">
-        <v>3282975.877233461</v>
+        <v>3573289.855480362</v>
       </c>
       <c r="AE5" t="n">
-        <v>4491912.429904863</v>
+        <v>4889132.822691091</v>
       </c>
       <c r="AF5" t="n">
         <v>3.01908842731456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.88333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4063210.612033265</v>
+        <v>4422520.848034283</v>
       </c>
     </row>
     <row r="6">
@@ -11147,28 +11147,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3089.89385774289</v>
+        <v>3370.527286839683</v>
       </c>
       <c r="AB6" t="n">
-        <v>4227.729092660331</v>
+        <v>4611.704131023695</v>
       </c>
       <c r="AC6" t="n">
-        <v>3824.240561711718</v>
+        <v>4171.569561326018</v>
       </c>
       <c r="AD6" t="n">
-        <v>3089893.85774289</v>
+        <v>3370527.286839683</v>
       </c>
       <c r="AE6" t="n">
-        <v>4227729.092660331</v>
+        <v>4611704.131023695</v>
       </c>
       <c r="AF6" t="n">
         <v>3.129135746098585e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.88333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3824240.561711718</v>
+        <v>4171569.561326018</v>
       </c>
     </row>
     <row r="7">
@@ -11253,28 +11253,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2965.957794510913</v>
+        <v>3236.944839876379</v>
       </c>
       <c r="AB7" t="n">
-        <v>4058.154303273111</v>
+        <v>4428.930733846854</v>
       </c>
       <c r="AC7" t="n">
-        <v>3670.849752223909</v>
+        <v>4006.23980065167</v>
       </c>
       <c r="AD7" t="n">
-        <v>2965957.794510913</v>
+        <v>3236944.839876379</v>
       </c>
       <c r="AE7" t="n">
-        <v>4058154.303273111</v>
+        <v>4428930.733846854</v>
       </c>
       <c r="AF7" t="n">
         <v>3.203737112015847e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.60416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3670849.752223908</v>
+        <v>4006239.80065167</v>
       </c>
     </row>
     <row r="8">
@@ -11359,28 +11359,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2873.498277821788</v>
+        <v>3134.838939455926</v>
       </c>
       <c r="AB8" t="n">
-        <v>3931.647113513049</v>
+        <v>4289.224936297175</v>
       </c>
       <c r="AC8" t="n">
-        <v>3556.416231100596</v>
+        <v>3879.867328341818</v>
       </c>
       <c r="AD8" t="n">
-        <v>2873498.277821788</v>
+        <v>3134838.939455926</v>
       </c>
       <c r="AE8" t="n">
-        <v>3931647.113513049</v>
+        <v>4289224.936297175</v>
       </c>
       <c r="AF8" t="n">
         <v>3.257730365801267e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.71666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3556416.231100596</v>
+        <v>3879867.328341818</v>
       </c>
     </row>
     <row r="9">
@@ -11465,28 +11465,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2808.664911931677</v>
+        <v>3060.291870026784</v>
       </c>
       <c r="AB9" t="n">
-        <v>3842.939242055957</v>
+        <v>4187.226347119624</v>
       </c>
       <c r="AC9" t="n">
-        <v>3476.174514393093</v>
+        <v>3787.603341359457</v>
       </c>
       <c r="AD9" t="n">
-        <v>2808664.911931677</v>
+        <v>3060291.870026784</v>
       </c>
       <c r="AE9" t="n">
-        <v>3842939.242055957</v>
+        <v>4187226.347119624</v>
       </c>
       <c r="AF9" t="n">
         <v>3.298122265579674e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.06666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3476174.514393093</v>
+        <v>3787603.341359457</v>
       </c>
     </row>
     <row r="10">
@@ -11571,28 +11571,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2745.949086749788</v>
+        <v>3007.255582965146</v>
       </c>
       <c r="AB10" t="n">
-        <v>3757.128683215158</v>
+        <v>4114.659759366036</v>
       </c>
       <c r="AC10" t="n">
-        <v>3398.553594852186</v>
+        <v>3721.962406893228</v>
       </c>
       <c r="AD10" t="n">
-        <v>2745949.086749788</v>
+        <v>3007255.582965145</v>
       </c>
       <c r="AE10" t="n">
-        <v>3757128.683215158</v>
+        <v>4114659.759366036</v>
       </c>
       <c r="AF10" t="n">
         <v>3.328622271534797e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.59166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3398553.594852186</v>
+        <v>3721962.406893228</v>
       </c>
     </row>
     <row r="11">
@@ -11677,28 +11677,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2696.388473734234</v>
+        <v>2947.98126641056</v>
       </c>
       <c r="AB11" t="n">
-        <v>3689.317666027339</v>
+        <v>4033.558024457758</v>
       </c>
       <c r="AC11" t="n">
-        <v>3337.214365971415</v>
+        <v>3648.6009077376</v>
       </c>
       <c r="AD11" t="n">
-        <v>2696388.473734234</v>
+        <v>2947981.26641056</v>
       </c>
       <c r="AE11" t="n">
-        <v>3689317.666027339</v>
+        <v>4033558.024457758</v>
       </c>
       <c r="AF11" t="n">
         <v>3.358297953004646e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.1375</v>
       </c>
       <c r="AH11" t="n">
-        <v>3337214.365971415</v>
+        <v>3648600.9077376</v>
       </c>
     </row>
     <row r="12">
@@ -11783,28 +11783,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2649.251902405294</v>
+        <v>2910.524233201871</v>
       </c>
       <c r="AB12" t="n">
-        <v>3624.823329616318</v>
+        <v>3982.307659133948</v>
       </c>
       <c r="AC12" t="n">
-        <v>3278.875278509094</v>
+        <v>3602.241805349956</v>
       </c>
       <c r="AD12" t="n">
-        <v>2649251.902405294</v>
+        <v>2910524.233201871</v>
       </c>
       <c r="AE12" t="n">
-        <v>3624823.329616318</v>
+        <v>3982307.659133948</v>
       </c>
       <c r="AF12" t="n">
         <v>3.376433091680666e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.85833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3278875.278509094</v>
+        <v>3602241.805349956</v>
       </c>
     </row>
     <row r="13">
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2610.666129435333</v>
+        <v>2862.326241919362</v>
       </c>
       <c r="AB13" t="n">
-        <v>3572.028572754651</v>
+        <v>3916.361041115912</v>
       </c>
       <c r="AC13" t="n">
-        <v>3231.119179144401</v>
+        <v>3542.589039998904</v>
       </c>
       <c r="AD13" t="n">
-        <v>2610666.129435332</v>
+        <v>2862326.241919362</v>
       </c>
       <c r="AE13" t="n">
-        <v>3572028.572754651</v>
+        <v>3916361.041115912</v>
       </c>
       <c r="AF13" t="n">
         <v>3.396629041569869e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.55833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>3231119.179144401</v>
+        <v>3542589.039998904</v>
       </c>
     </row>
     <row r="14">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2574.758327509165</v>
+        <v>2826.316954766709</v>
       </c>
       <c r="AB14" t="n">
-        <v>3522.897934018848</v>
+        <v>3867.091545816019</v>
       </c>
       <c r="AC14" t="n">
-        <v>3186.67749961426</v>
+        <v>3498.021756180265</v>
       </c>
       <c r="AD14" t="n">
-        <v>2574758.327509165</v>
+        <v>2826316.954766709</v>
       </c>
       <c r="AE14" t="n">
-        <v>3522897.934018848</v>
+        <v>3867091.545816019</v>
       </c>
       <c r="AF14" t="n">
         <v>3.41187904454743e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.3375</v>
       </c>
       <c r="AH14" t="n">
-        <v>3186677.49961426</v>
+        <v>3498021.756180265</v>
       </c>
     </row>
     <row r="15">
@@ -12101,28 +12101,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2541.132123125162</v>
+        <v>2783.078532070161</v>
       </c>
       <c r="AB15" t="n">
-        <v>3476.889077697215</v>
+        <v>3807.930828338017</v>
       </c>
       <c r="AC15" t="n">
-        <v>3145.05966396613</v>
+        <v>3444.507254545777</v>
       </c>
       <c r="AD15" t="n">
-        <v>2541132.123125162</v>
+        <v>2783078.532070161</v>
       </c>
       <c r="AE15" t="n">
-        <v>3476889.077697215</v>
+        <v>3807930.828338017</v>
       </c>
       <c r="AF15" t="n">
         <v>3.425068236311808e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.14166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>3145059.66396613</v>
+        <v>3444507.254545777</v>
       </c>
     </row>
     <row r="16">
@@ -12207,28 +12207,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2501.20034629693</v>
+        <v>2752.82629336218</v>
       </c>
       <c r="AB16" t="n">
-        <v>3422.252658975161</v>
+        <v>3766.538380703175</v>
       </c>
       <c r="AC16" t="n">
-        <v>3095.637668364217</v>
+        <v>3407.06524401854</v>
       </c>
       <c r="AD16" t="n">
-        <v>2501200.34629693</v>
+        <v>2752826.29336218</v>
       </c>
       <c r="AE16" t="n">
-        <v>3422252.658975162</v>
+        <v>3766538.380703175</v>
       </c>
       <c r="AF16" t="n">
         <v>3.435784454620365e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>50</v>
+        <v>49.98333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>3095637.668364217</v>
+        <v>3407065.24401854</v>
       </c>
     </row>
     <row r="17">
@@ -12313,28 +12313,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2465.042679592734</v>
+        <v>2716.668626657984</v>
       </c>
       <c r="AB17" t="n">
-        <v>3372.780144226805</v>
+        <v>3717.065865954818</v>
       </c>
       <c r="AC17" t="n">
-        <v>3050.886740988334</v>
+        <v>3362.314316642658</v>
       </c>
       <c r="AD17" t="n">
-        <v>2465042.679592734</v>
+        <v>2716668.626657984</v>
       </c>
       <c r="AE17" t="n">
-        <v>3372780.144226805</v>
+        <v>3717065.865954818</v>
       </c>
       <c r="AF17" t="n">
         <v>3.447324997414195e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>49.81666666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>3050886.740988334</v>
+        <v>3362314.316642658</v>
       </c>
     </row>
     <row r="18">
@@ -12419,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2444.762330910275</v>
+        <v>2696.388277975524</v>
       </c>
       <c r="AB18" t="n">
-        <v>3345.031676453623</v>
+        <v>3689.317398181637</v>
       </c>
       <c r="AC18" t="n">
-        <v>3025.786548034207</v>
+        <v>3337.21412368853</v>
       </c>
       <c r="AD18" t="n">
-        <v>2444762.330910275</v>
+        <v>2696388.277975524</v>
       </c>
       <c r="AE18" t="n">
-        <v>3345031.676453623</v>
+        <v>3689317.398181637</v>
       </c>
       <c r="AF18" t="n">
         <v>3.453095268811111e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>50</v>
+        <v>49.73333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>3025786.548034207</v>
+        <v>3337214.123688531</v>
       </c>
     </row>
     <row r="19">
@@ -12525,28 +12525,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2428.311250650976</v>
+        <v>2679.937197716226</v>
       </c>
       <c r="AB19" t="n">
-        <v>3322.522582672412</v>
+        <v>3666.808304400425</v>
       </c>
       <c r="AC19" t="n">
-        <v>3005.425690571764</v>
+        <v>3316.853266226088</v>
       </c>
       <c r="AD19" t="n">
-        <v>2428311.250650976</v>
+        <v>2679937.197716226</v>
       </c>
       <c r="AE19" t="n">
-        <v>3322522.582672412</v>
+        <v>3666808.304400425</v>
       </c>
       <c r="AF19" t="n">
         <v>3.457629053480115e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>50</v>
+        <v>49.67083333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>3005425.690571764</v>
+        <v>3316853.266226088</v>
       </c>
     </row>
     <row r="20">
@@ -12631,28 +12631,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2429.443675504888</v>
+        <v>2681.069622570138</v>
       </c>
       <c r="AB20" t="n">
-        <v>3324.072016316592</v>
+        <v>3668.357738044605</v>
       </c>
       <c r="AC20" t="n">
-        <v>3006.827248443587</v>
+        <v>3318.254824097911</v>
       </c>
       <c r="AD20" t="n">
-        <v>2429443.675504888</v>
+        <v>2681069.622570138</v>
       </c>
       <c r="AE20" t="n">
-        <v>3324072.016316592</v>
+        <v>3668357.738044606</v>
       </c>
       <c r="AF20" t="n">
         <v>3.4596898646933e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>50</v>
+        <v>49.64166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>3006827.248443587</v>
+        <v>3318254.824097911</v>
       </c>
     </row>
     <row r="21">
@@ -12737,28 +12737,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2435.626010136114</v>
+        <v>2687.251957201364</v>
       </c>
       <c r="AB21" t="n">
-        <v>3332.530959304391</v>
+        <v>3676.816681032404</v>
       </c>
       <c r="AC21" t="n">
-        <v>3014.478881784831</v>
+        <v>3325.906457439155</v>
       </c>
       <c r="AD21" t="n">
-        <v>2435626.010136114</v>
+        <v>2687251.957201364</v>
       </c>
       <c r="AE21" t="n">
-        <v>3332530.959304391</v>
+        <v>3676816.681032404</v>
       </c>
       <c r="AF21" t="n">
         <v>3.4596898646933e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>50</v>
+        <v>49.64166666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>3014478.881784831</v>
+        <v>3325906.457439155</v>
       </c>
     </row>
     <row r="22">
@@ -12843,28 +12843,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2441.441379502384</v>
+        <v>2693.067326567634</v>
       </c>
       <c r="AB22" t="n">
-        <v>3340.487804227311</v>
+        <v>3684.773525955324</v>
       </c>
       <c r="AC22" t="n">
-        <v>3021.67633659581</v>
+        <v>3333.103912250134</v>
       </c>
       <c r="AD22" t="n">
-        <v>2441441.379502384</v>
+        <v>2693067.326567634</v>
       </c>
       <c r="AE22" t="n">
-        <v>3340487.804227311</v>
+        <v>3684773.525955324</v>
       </c>
       <c r="AF22" t="n">
         <v>3.46216283814912e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>50</v>
+        <v>49.60416666666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>3021676.33659581</v>
+        <v>3333103.912250134</v>
       </c>
     </row>
   </sheetData>
@@ -13140,28 +13140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3497.662855586667</v>
+        <v>3834.358712990338</v>
       </c>
       <c r="AB2" t="n">
-        <v>4785.65662500877</v>
+        <v>5246.338751081386</v>
       </c>
       <c r="AC2" t="n">
-        <v>4328.920273429011</v>
+        <v>4745.635543960663</v>
       </c>
       <c r="AD2" t="n">
-        <v>3497662.855586668</v>
+        <v>3834358.712990338</v>
       </c>
       <c r="AE2" t="n">
-        <v>4785656.62500877</v>
+        <v>5246338.751081387</v>
       </c>
       <c r="AF2" t="n">
         <v>3.364866144347794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.23333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4328920.273429011</v>
+        <v>4745635.543960663</v>
       </c>
     </row>
     <row r="3">
@@ -13246,28 +13246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2394.876093482235</v>
+        <v>2666.083578707819</v>
       </c>
       <c r="AB3" t="n">
-        <v>3276.775125579107</v>
+        <v>3647.853171694585</v>
       </c>
       <c r="AC3" t="n">
-        <v>2964.044306576487</v>
+        <v>3299.707184781999</v>
       </c>
       <c r="AD3" t="n">
-        <v>2394876.093482235</v>
+        <v>2666083.578707819</v>
       </c>
       <c r="AE3" t="n">
-        <v>3276775.125579107</v>
+        <v>3647853.171694585</v>
       </c>
       <c r="AF3" t="n">
         <v>4.199035388544119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.08333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2964044.306576487</v>
+        <v>3299707.184781999</v>
       </c>
     </row>
     <row r="4">
@@ -13352,28 +13352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2112.198684103911</v>
+        <v>2364.695205850045</v>
       </c>
       <c r="AB4" t="n">
-        <v>2890.003423220342</v>
+        <v>3235.480303633952</v>
       </c>
       <c r="AC4" t="n">
-        <v>2614.185552653472</v>
+        <v>2926.690604480131</v>
       </c>
       <c r="AD4" t="n">
-        <v>2112198.684103911</v>
+        <v>2364695.205850045</v>
       </c>
       <c r="AE4" t="n">
-        <v>2890003.423220342</v>
+        <v>3235480.303633952</v>
       </c>
       <c r="AF4" t="n">
         <v>4.484954088106583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.44583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2614185.552653472</v>
+        <v>2926690.604480131</v>
       </c>
     </row>
     <row r="5">
@@ -13458,28 +13458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1958.436500576987</v>
+        <v>2210.966176712045</v>
       </c>
       <c r="AB5" t="n">
-        <v>2679.619220210025</v>
+        <v>3025.141463921215</v>
       </c>
       <c r="AC5" t="n">
-        <v>2423.880122702376</v>
+        <v>2736.42620841717</v>
       </c>
       <c r="AD5" t="n">
-        <v>1958436.500576987</v>
+        <v>2210966.176712045</v>
       </c>
       <c r="AE5" t="n">
-        <v>2679619.220210025</v>
+        <v>3025141.463921215</v>
       </c>
       <c r="AF5" t="n">
         <v>4.63165281725835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.75416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2423880.122702376</v>
+        <v>2736426.20841717</v>
       </c>
     </row>
     <row r="6">
@@ -13564,28 +13564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1863.260999630457</v>
+        <v>2115.756510346731</v>
       </c>
       <c r="AB6" t="n">
-        <v>2549.395900968221</v>
+        <v>2894.871398045986</v>
       </c>
       <c r="AC6" t="n">
-        <v>2306.085134279433</v>
+        <v>2618.588934794001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1863260.999630457</v>
+        <v>2115756.510346731</v>
       </c>
       <c r="AE6" t="n">
-        <v>2549395.900968221</v>
+        <v>2894871.398045985</v>
       </c>
       <c r="AF6" t="n">
         <v>4.711618006874411e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2306085.134279433</v>
+        <v>2618588.934794001</v>
       </c>
     </row>
     <row r="7">
@@ -13670,28 +13670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1848.67268011469</v>
+        <v>2091.881039928799</v>
       </c>
       <c r="AB7" t="n">
-        <v>2529.435518615513</v>
+        <v>2862.203926108755</v>
       </c>
       <c r="AC7" t="n">
-        <v>2288.029742803895</v>
+        <v>2589.039200529375</v>
       </c>
       <c r="AD7" t="n">
-        <v>1848672.68011469</v>
+        <v>2091881.039928799</v>
       </c>
       <c r="AE7" t="n">
-        <v>2529435.518615513</v>
+        <v>2862203.926108755</v>
       </c>
       <c r="AF7" t="n">
         <v>4.728876680892266e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2288029.742803895</v>
+        <v>2589039.200529375</v>
       </c>
     </row>
     <row r="8">
@@ -13776,28 +13776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1858.678798900864</v>
+        <v>2101.887158714972</v>
       </c>
       <c r="AB8" t="n">
-        <v>2543.126331777561</v>
+        <v>2875.894739270803</v>
       </c>
       <c r="AC8" t="n">
-        <v>2300.413923972934</v>
+        <v>2601.423381698414</v>
       </c>
       <c r="AD8" t="n">
-        <v>1858678.798900864</v>
+        <v>2101887.158714972</v>
       </c>
       <c r="AE8" t="n">
-        <v>2543126.331777561</v>
+        <v>2875894.739270803</v>
       </c>
       <c r="AF8" t="n">
         <v>4.729451970026196e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.68333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2300413.923972934</v>
+        <v>2601423.381698414</v>
       </c>
     </row>
   </sheetData>
@@ -14073,28 +14073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5066.920705027384</v>
+        <v>5465.052999778232</v>
       </c>
       <c r="AB2" t="n">
-        <v>6932.784445383936</v>
+        <v>7477.526615419292</v>
       </c>
       <c r="AC2" t="n">
-        <v>6271.129228140313</v>
+        <v>6763.881970017911</v>
       </c>
       <c r="AD2" t="n">
-        <v>5066920.705027384</v>
+        <v>5465052.999778233</v>
       </c>
       <c r="AE2" t="n">
-        <v>6932784.445383936</v>
+        <v>7477526.615419292</v>
       </c>
       <c r="AF2" t="n">
         <v>2.526870123736787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6271129.228140313</v>
+        <v>6763881.970017911</v>
       </c>
     </row>
     <row r="3">
@@ -14179,28 +14179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3048.774703536647</v>
+        <v>3352.11445139163</v>
       </c>
       <c r="AB3" t="n">
-        <v>4171.468051826294</v>
+        <v>4586.510877246697</v>
       </c>
       <c r="AC3" t="n">
-        <v>3773.348995652016</v>
+        <v>4148.780716330544</v>
       </c>
       <c r="AD3" t="n">
-        <v>3048774.703536647</v>
+        <v>3352114.45139163</v>
       </c>
       <c r="AE3" t="n">
-        <v>4171468.051826294</v>
+        <v>4586510.877246697</v>
       </c>
       <c r="AF3" t="n">
         <v>3.416655226456405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.75416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3773348.995652016</v>
+        <v>4148780.716330544</v>
       </c>
     </row>
     <row r="4">
@@ -14285,28 +14285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2627.042203434297</v>
+        <v>2901.968406322624</v>
       </c>
       <c r="AB4" t="n">
-        <v>3594.435039661432</v>
+        <v>3970.601199341319</v>
       </c>
       <c r="AC4" t="n">
-        <v>3251.387204297272</v>
+        <v>3591.652593649818</v>
       </c>
       <c r="AD4" t="n">
-        <v>2627042.203434297</v>
+        <v>2901968.406322624</v>
       </c>
       <c r="AE4" t="n">
-        <v>3594435.039661432</v>
+        <v>3970601.19934132</v>
       </c>
       <c r="AF4" t="n">
         <v>3.725040992740528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.725</v>
       </c>
       <c r="AH4" t="n">
-        <v>3251387.204297272</v>
+        <v>3591652.593649818</v>
       </c>
     </row>
     <row r="5">
@@ -14391,28 +14391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2435.50121840127</v>
+        <v>2700.843365934632</v>
       </c>
       <c r="AB5" t="n">
-        <v>3332.360213747354</v>
+        <v>3695.413046071897</v>
       </c>
       <c r="AC5" t="n">
-        <v>3014.324431944115</v>
+        <v>3342.728011499441</v>
       </c>
       <c r="AD5" t="n">
-        <v>2435501.21840127</v>
+        <v>2700843.365934632</v>
       </c>
       <c r="AE5" t="n">
-        <v>3332360.213747354</v>
+        <v>3695413.046071897</v>
       </c>
       <c r="AF5" t="n">
         <v>3.881475775637482e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.48333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>3014324.431944115</v>
+        <v>3342728.011499441</v>
       </c>
     </row>
     <row r="6">
@@ -14497,28 +14497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2319.576764054676</v>
+        <v>2575.47050687834</v>
       </c>
       <c r="AB6" t="n">
-        <v>3173.747261084353</v>
+        <v>3523.87236925089</v>
       </c>
       <c r="AC6" t="n">
-        <v>2870.8492768686</v>
+        <v>3187.558936115384</v>
       </c>
       <c r="AD6" t="n">
-        <v>2319576.764054676</v>
+        <v>2575470.50687834</v>
       </c>
       <c r="AE6" t="n">
-        <v>3173747.261084353</v>
+        <v>3523872.36925089</v>
       </c>
       <c r="AF6" t="n">
         <v>3.975137365397442e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.21666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2870849.2768686</v>
+        <v>3187558.936115384</v>
       </c>
     </row>
     <row r="7">
@@ -14603,28 +14603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2225.887654744619</v>
+        <v>2472.332992858585</v>
       </c>
       <c r="AB7" t="n">
-        <v>3045.557688454536</v>
+        <v>3382.755072463066</v>
       </c>
       <c r="AC7" t="n">
-        <v>2754.893937135382</v>
+        <v>3059.909676073626</v>
       </c>
       <c r="AD7" t="n">
-        <v>2225887.65474462</v>
+        <v>2472332.992858585</v>
       </c>
       <c r="AE7" t="n">
-        <v>3045557.688454536</v>
+        <v>3382755.072463066</v>
       </c>
       <c r="AF7" t="n">
         <v>4.04189615809869e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.35833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2754893.937135382</v>
+        <v>3059909.676073626</v>
       </c>
     </row>
     <row r="8">
@@ -14709,28 +14709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2150.580566683859</v>
+        <v>2397.093224605531</v>
       </c>
       <c r="AB8" t="n">
-        <v>2942.51920825538</v>
+        <v>3279.808702194924</v>
       </c>
       <c r="AC8" t="n">
-        <v>2661.689304871133</v>
+        <v>2966.788362897741</v>
       </c>
       <c r="AD8" t="n">
-        <v>2150580.566683859</v>
+        <v>2397093.224605531</v>
       </c>
       <c r="AE8" t="n">
-        <v>2942519.20825538</v>
+        <v>3279808.702194924</v>
       </c>
       <c r="AF8" t="n">
         <v>4.088228753033138e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.775</v>
       </c>
       <c r="AH8" t="n">
-        <v>2661689.304871133</v>
+        <v>2966788.362897741</v>
       </c>
     </row>
     <row r="9">
@@ -14815,28 +14815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2089.534115997135</v>
+        <v>2335.945288692323</v>
       </c>
       <c r="AB9" t="n">
-        <v>2858.992761246475</v>
+        <v>3196.143398621924</v>
       </c>
       <c r="AC9" t="n">
-        <v>2586.134504734653</v>
+        <v>2891.107958472761</v>
       </c>
       <c r="AD9" t="n">
-        <v>2089534.115997135</v>
+        <v>2335945.288692323</v>
       </c>
       <c r="AE9" t="n">
-        <v>2858992.761246475</v>
+        <v>3196143.398621924</v>
       </c>
       <c r="AF9" t="n">
         <v>4.124099149111421e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.33333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2586134.504734653</v>
+        <v>2891107.958472761</v>
       </c>
     </row>
     <row r="10">
@@ -14921,28 +14921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2064.176928431511</v>
+        <v>2301.173861835782</v>
       </c>
       <c r="AB10" t="n">
-        <v>2824.297938539027</v>
+        <v>3148.567598389715</v>
       </c>
       <c r="AC10" t="n">
-        <v>2554.750907211914</v>
+        <v>2848.07272584166</v>
       </c>
       <c r="AD10" t="n">
-        <v>2064176.928431511</v>
+        <v>2301173.861835782</v>
       </c>
       <c r="AE10" t="n">
-        <v>2824297.938539027</v>
+        <v>3148567.598389715</v>
       </c>
       <c r="AF10" t="n">
         <v>4.141037947259498e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.12916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2554750.907211914</v>
+        <v>2848072.72584166</v>
       </c>
     </row>
     <row r="11">
@@ -15027,28 +15027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2062.708581282357</v>
+        <v>2299.705514686628</v>
       </c>
       <c r="AB11" t="n">
-        <v>2822.28888119065</v>
+        <v>3146.558541041338</v>
       </c>
       <c r="AC11" t="n">
-        <v>2552.933591477137</v>
+        <v>2846.255410106883</v>
       </c>
       <c r="AD11" t="n">
-        <v>2062708.581282357</v>
+        <v>2299705.514686628</v>
       </c>
       <c r="AE11" t="n">
-        <v>2822288.88119065</v>
+        <v>3146558.541041338</v>
       </c>
       <c r="AF11" t="n">
         <v>4.146019946714815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.07083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2552933.591477137</v>
+        <v>2846255.410106883</v>
       </c>
     </row>
     <row r="12">
@@ -15133,28 +15133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2072.104166561144</v>
+        <v>2309.101099965415</v>
       </c>
       <c r="AB12" t="n">
-        <v>2835.144335473054</v>
+        <v>3159.413995323742</v>
       </c>
       <c r="AC12" t="n">
-        <v>2564.562139245571</v>
+        <v>2857.883957875317</v>
       </c>
       <c r="AD12" t="n">
-        <v>2072104.166561144</v>
+        <v>2309101.099965414</v>
       </c>
       <c r="AE12" t="n">
-        <v>2835144.335473054</v>
+        <v>3159413.995323742</v>
       </c>
       <c r="AF12" t="n">
         <v>4.146019946714815e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.07083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2564562.139245571</v>
+        <v>2857883.957875317</v>
       </c>
     </row>
   </sheetData>
@@ -15430,28 +15430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2601.992027970848</v>
+        <v>2907.248887860914</v>
       </c>
       <c r="AB2" t="n">
-        <v>3560.160284456594</v>
+        <v>3977.826187140412</v>
       </c>
       <c r="AC2" t="n">
-        <v>3220.383583624264</v>
+        <v>3598.188038753699</v>
       </c>
       <c r="AD2" t="n">
-        <v>2601992.027970848</v>
+        <v>2907248.887860914</v>
       </c>
       <c r="AE2" t="n">
-        <v>3560160.284456594</v>
+        <v>3977826.187140413</v>
       </c>
       <c r="AF2" t="n">
         <v>4.253956728155611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.53333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3220383.583624264</v>
+        <v>3598188.038753699</v>
       </c>
     </row>
     <row r="3">
@@ -15536,28 +15536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1922.736929044987</v>
+        <v>2181.737572979167</v>
       </c>
       <c r="AB3" t="n">
-        <v>2630.773491486001</v>
+        <v>2985.149598818728</v>
       </c>
       <c r="AC3" t="n">
-        <v>2379.696161772361</v>
+        <v>2700.251110791244</v>
       </c>
       <c r="AD3" t="n">
-        <v>1922736.929044987</v>
+        <v>2181737.572979167</v>
       </c>
       <c r="AE3" t="n">
-        <v>2630773.491486001</v>
+        <v>2985149.598818728</v>
       </c>
       <c r="AF3" t="n">
         <v>5.033453445845836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.54166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2379696.161772361</v>
+        <v>2700251.110791244</v>
       </c>
     </row>
     <row r="4">
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1715.582567380752</v>
+        <v>1965.297802704975</v>
       </c>
       <c r="AB4" t="n">
-        <v>2347.335754851557</v>
+        <v>2689.007156480824</v>
       </c>
       <c r="AC4" t="n">
-        <v>2123.309324914947</v>
+        <v>2432.37208751154</v>
       </c>
       <c r="AD4" t="n">
-        <v>1715582.567380752</v>
+        <v>1965297.802704975</v>
       </c>
       <c r="AE4" t="n">
-        <v>2347335.754851557</v>
+        <v>2689007.156480824</v>
       </c>
       <c r="AF4" t="n">
         <v>5.291748216204727e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.87916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2123309.324914948</v>
+        <v>2432372.08751154</v>
       </c>
     </row>
     <row r="5">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1696.346660035744</v>
+        <v>1946.061895359966</v>
       </c>
       <c r="AB5" t="n">
-        <v>2321.016337793778</v>
+        <v>2662.687739423044</v>
       </c>
       <c r="AC5" t="n">
-        <v>2099.501796081629</v>
+        <v>2408.564558678222</v>
       </c>
       <c r="AD5" t="n">
-        <v>1696346.660035744</v>
+        <v>1946061.895359966</v>
       </c>
       <c r="AE5" t="n">
-        <v>2321016.337793778</v>
+        <v>2662687.739423044</v>
       </c>
       <c r="AF5" t="n">
         <v>5.327988553882632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.52916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2099501.796081629</v>
+        <v>2408564.558678222</v>
       </c>
     </row>
     <row r="6">
@@ -15854,28 +15854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1707.771577338294</v>
+        <v>1957.486812662517</v>
       </c>
       <c r="AB6" t="n">
-        <v>2336.648413678906</v>
+        <v>2678.319815308172</v>
       </c>
       <c r="AC6" t="n">
-        <v>2113.641968584036</v>
+        <v>2422.70473118063</v>
       </c>
       <c r="AD6" t="n">
-        <v>1707771.577338295</v>
+        <v>1957486.812662517</v>
       </c>
       <c r="AE6" t="n">
-        <v>2336648.413678906</v>
+        <v>2678319.815308172</v>
       </c>
       <c r="AF6" t="n">
         <v>5.327988553882632e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.53333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2113641.968584036</v>
+        <v>2422704.73118063</v>
       </c>
     </row>
   </sheetData>
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11206.86783044962</v>
+        <v>11798.97581940293</v>
       </c>
       <c r="AB2" t="n">
-        <v>15333.73097773686</v>
+        <v>16143.87925018371</v>
       </c>
       <c r="AC2" t="n">
-        <v>13870.30121424767</v>
+        <v>14603.1300726224</v>
       </c>
       <c r="AD2" t="n">
-        <v>11206867.83044962</v>
+        <v>11798975.81940293</v>
       </c>
       <c r="AE2" t="n">
-        <v>15333730.97773686</v>
+        <v>16143879.25018371</v>
       </c>
       <c r="AF2" t="n">
         <v>1.425013914811649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>118</v>
+        <v>117.5958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>13870301.21424767</v>
+        <v>14603130.0726224</v>
       </c>
     </row>
     <row r="3">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4743.988904806861</v>
+        <v>5093.374687319359</v>
       </c>
       <c r="AB3" t="n">
-        <v>6490.934909576648</v>
+        <v>6968.979951023148</v>
       </c>
       <c r="AC3" t="n">
-        <v>5871.449191890771</v>
+        <v>6303.870285522027</v>
       </c>
       <c r="AD3" t="n">
-        <v>4743988.904806861</v>
+        <v>5093374.687319359</v>
       </c>
       <c r="AE3" t="n">
-        <v>6490934.909576648</v>
+        <v>6968979.951023147</v>
       </c>
       <c r="AF3" t="n">
         <v>2.383871711286661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>5871449.191890771</v>
+        <v>6303870.285522027</v>
       </c>
     </row>
     <row r="4">
@@ -16363,28 +16363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3810.302496141921</v>
+        <v>4111.177800579066</v>
       </c>
       <c r="AB4" t="n">
-        <v>5213.423973903993</v>
+        <v>5625.094839116542</v>
       </c>
       <c r="AC4" t="n">
-        <v>4715.862106920903</v>
+        <v>5088.243682541237</v>
       </c>
       <c r="AD4" t="n">
-        <v>3810302.496141921</v>
+        <v>4111177.800579065</v>
       </c>
       <c r="AE4" t="n">
-        <v>5213423.973903993</v>
+        <v>5625094.839116542</v>
       </c>
       <c r="AF4" t="n">
         <v>2.732181632321628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.33333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>4715862.106920903</v>
+        <v>5088243.682541237</v>
       </c>
     </row>
     <row r="5">
@@ -16469,28 +16469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3431.683191992982</v>
+        <v>3722.882722120224</v>
       </c>
       <c r="AB5" t="n">
-        <v>4695.380338462562</v>
+        <v>5093.812382399263</v>
       </c>
       <c r="AC5" t="n">
-        <v>4247.259828967211</v>
+        <v>4607.666077833464</v>
       </c>
       <c r="AD5" t="n">
-        <v>3431683.191992982</v>
+        <v>3722882.722120224</v>
       </c>
       <c r="AE5" t="n">
-        <v>4695380.338462561</v>
+        <v>5093812.382399263</v>
       </c>
       <c r="AF5" t="n">
         <v>2.914380701869942e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.50416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4247259.828967211</v>
+        <v>4607666.077833464</v>
       </c>
     </row>
     <row r="6">
@@ -16575,28 +16575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3224.575488160491</v>
+        <v>3496.324006501156</v>
       </c>
       <c r="AB6" t="n">
-        <v>4412.006441131892</v>
+        <v>4783.824752624118</v>
       </c>
       <c r="AC6" t="n">
-        <v>3990.930738680028</v>
+        <v>4327.263232373703</v>
       </c>
       <c r="AD6" t="n">
-        <v>3224575.488160491</v>
+        <v>3496324.006501155</v>
       </c>
       <c r="AE6" t="n">
-        <v>4412006.441131892</v>
+        <v>4783824.752624119</v>
       </c>
       <c r="AF6" t="n">
         <v>3.025791611946946e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.38750000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>3990930.738680028</v>
+        <v>4327263.232373702</v>
       </c>
     </row>
     <row r="7">
@@ -16681,28 +16681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3091.088603587876</v>
+        <v>3353.162358648494</v>
       </c>
       <c r="AB7" t="n">
-        <v>4229.363796633907</v>
+        <v>4587.944670185944</v>
       </c>
       <c r="AC7" t="n">
-        <v>3825.719251832378</v>
+        <v>4150.077670084011</v>
       </c>
       <c r="AD7" t="n">
-        <v>3091088.603587876</v>
+        <v>3353162.358648494</v>
       </c>
       <c r="AE7" t="n">
-        <v>4229363.796633908</v>
+        <v>4587944.670185944</v>
       </c>
       <c r="AF7" t="n">
         <v>3.103015058642921e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.00833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3825719.251832378</v>
+        <v>4150077.670084011</v>
       </c>
     </row>
     <row r="8">
@@ -16787,28 +16787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2993.403884368702</v>
+        <v>3255.443474010539</v>
       </c>
       <c r="AB8" t="n">
-        <v>4095.707254252567</v>
+        <v>4454.241381171355</v>
       </c>
       <c r="AC8" t="n">
-        <v>3704.818702267782</v>
+        <v>4029.134835319234</v>
       </c>
       <c r="AD8" t="n">
-        <v>2993403.884368702</v>
+        <v>3255443.474010539</v>
       </c>
       <c r="AE8" t="n">
-        <v>4095707.254252566</v>
+        <v>4454241.381171355</v>
       </c>
       <c r="AF8" t="n">
         <v>3.157715000052569e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.07083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3704818.702267782</v>
+        <v>4029134.835319234</v>
       </c>
     </row>
     <row r="9">
@@ -16893,28 +16893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2912.686097732966</v>
+        <v>3174.691521956023</v>
       </c>
       <c r="AB9" t="n">
-        <v>3985.265617560125</v>
+        <v>4343.752997845666</v>
       </c>
       <c r="AC9" t="n">
-        <v>3604.917460375461</v>
+        <v>3929.191308226732</v>
       </c>
       <c r="AD9" t="n">
-        <v>2912686.097732966</v>
+        <v>3174691.521956023</v>
       </c>
       <c r="AE9" t="n">
-        <v>3985265.617560125</v>
+        <v>4343752.997845666</v>
       </c>
       <c r="AF9" t="n">
         <v>3.201153188819055e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.35416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3604917.460375461</v>
+        <v>3929191.308226733</v>
       </c>
     </row>
     <row r="10">
@@ -16999,28 +16999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2849.156764373344</v>
+        <v>3111.229508404106</v>
       </c>
       <c r="AB10" t="n">
-        <v>3898.341980941103</v>
+        <v>4256.921471157485</v>
       </c>
       <c r="AC10" t="n">
-        <v>3526.289693637271</v>
+        <v>3850.646860576863</v>
       </c>
       <c r="AD10" t="n">
-        <v>2849156.764373344</v>
+        <v>3111229.508404106</v>
       </c>
       <c r="AE10" t="n">
-        <v>3898341.980941103</v>
+        <v>4256921.471157485</v>
       </c>
       <c r="AF10" t="n">
         <v>3.233731830393919e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.825</v>
       </c>
       <c r="AH10" t="n">
-        <v>3526289.693637271</v>
+        <v>3850646.860576863</v>
       </c>
     </row>
     <row r="11">
@@ -17105,28 +17105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2801.253251882513</v>
+        <v>3053.583912825523</v>
       </c>
       <c r="AB11" t="n">
-        <v>3832.798281797326</v>
+        <v>4178.048224142674</v>
       </c>
       <c r="AC11" t="n">
-        <v>3467.001393148619</v>
+        <v>3779.301165557851</v>
       </c>
       <c r="AD11" t="n">
-        <v>2801253.251882513</v>
+        <v>3053583.912825523</v>
       </c>
       <c r="AE11" t="n">
-        <v>3832798.281797326</v>
+        <v>4178048.224142674</v>
       </c>
       <c r="AF11" t="n">
         <v>3.259875184744119e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.40833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3467001.393148619</v>
+        <v>3779301.165557851</v>
       </c>
     </row>
     <row r="12">
@@ -17211,28 +17211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2762.784015435083</v>
+        <v>3015.114676378093</v>
       </c>
       <c r="AB12" t="n">
-        <v>3780.162975347015</v>
+        <v>4125.412917692363</v>
       </c>
       <c r="AC12" t="n">
-        <v>3419.389526471811</v>
+        <v>3731.689298881043</v>
       </c>
       <c r="AD12" t="n">
-        <v>2762784.015435083</v>
+        <v>3015114.676378093</v>
       </c>
       <c r="AE12" t="n">
-        <v>3780162.975347015</v>
+        <v>4125412.917692363</v>
       </c>
       <c r="AF12" t="n">
         <v>3.281594279127361e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.06666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>3419389.526471811</v>
+        <v>3731689.298881043</v>
       </c>
     </row>
     <row r="13">
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2713.971035511835</v>
+        <v>2966.369016262551</v>
       </c>
       <c r="AB13" t="n">
-        <v>3713.374902739335</v>
+        <v>4058.716955015524</v>
       </c>
       <c r="AC13" t="n">
-        <v>3358.975613776161</v>
+        <v>3671.358705273713</v>
       </c>
       <c r="AD13" t="n">
-        <v>2713971.035511835</v>
+        <v>2966369.016262551</v>
       </c>
       <c r="AE13" t="n">
-        <v>3713374.902739335</v>
+        <v>4058716.955015524</v>
       </c>
       <c r="AF13" t="n">
         <v>3.301704551704438e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.75833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>3358975.613776161</v>
+        <v>3671358.705273713</v>
       </c>
     </row>
     <row r="14">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2678.228211466733</v>
+        <v>2930.626192217449</v>
       </c>
       <c r="AB14" t="n">
-        <v>3664.469994018717</v>
+        <v>4009.812046294905</v>
       </c>
       <c r="AC14" t="n">
-        <v>3314.73812090537</v>
+        <v>3627.121212402922</v>
       </c>
       <c r="AD14" t="n">
-        <v>2678228.211466733</v>
+        <v>2930626.192217449</v>
       </c>
       <c r="AE14" t="n">
-        <v>3664469.994018717</v>
+        <v>4009812.046294906</v>
       </c>
       <c r="AF14" t="n">
         <v>3.316586153411474e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.53333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3314738.12090537</v>
+        <v>3627121.212402922</v>
       </c>
     </row>
     <row r="15">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2648.056854130927</v>
+        <v>2900.353349655157</v>
       </c>
       <c r="AB15" t="n">
-        <v>3623.18821184552</v>
+        <v>3968.39140755762</v>
       </c>
       <c r="AC15" t="n">
-        <v>3277.39621408344</v>
+        <v>3589.653701292492</v>
       </c>
       <c r="AD15" t="n">
-        <v>2648056.854130927</v>
+        <v>2900353.349655157</v>
       </c>
       <c r="AE15" t="n">
-        <v>3623188.211845519</v>
+        <v>3968391.40755762</v>
       </c>
       <c r="AF15" t="n">
         <v>3.329054522409262e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.34166666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>3277396.21408344</v>
+        <v>3589653.701292492</v>
       </c>
     </row>
     <row r="16">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2620.066509589394</v>
+        <v>2872.363005113624</v>
       </c>
       <c r="AB16" t="n">
-        <v>3584.890587596941</v>
+        <v>3930.093783309042</v>
       </c>
       <c r="AC16" t="n">
-        <v>3242.753661342094</v>
+        <v>3555.011148551147</v>
       </c>
       <c r="AD16" t="n">
-        <v>2620066.509589394</v>
+        <v>2872363.005113624</v>
       </c>
       <c r="AE16" t="n">
-        <v>3584890.587596941</v>
+        <v>3930093.783309042</v>
       </c>
       <c r="AF16" t="n">
         <v>3.340316275052425e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.17083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>3242753.661342094</v>
+        <v>3555011.148551146</v>
       </c>
     </row>
     <row r="17">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2579.141977260466</v>
+        <v>2831.505792592401</v>
       </c>
       <c r="AB17" t="n">
-        <v>3528.895837001557</v>
+        <v>3874.191142644499</v>
       </c>
       <c r="AC17" t="n">
-        <v>3192.102971154408</v>
+        <v>3504.44377745178</v>
       </c>
       <c r="AD17" t="n">
-        <v>2579141.977260466</v>
+        <v>2831505.792592401</v>
       </c>
       <c r="AE17" t="n">
-        <v>3528895.837001557</v>
+        <v>3874191.142644498</v>
       </c>
       <c r="AF17" t="n">
         <v>3.351980233147129e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>49.99583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>3192102.971154408</v>
+        <v>3504443.77745178</v>
       </c>
     </row>
     <row r="18">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2548.056401828284</v>
+        <v>2800.420217160219</v>
       </c>
       <c r="AB18" t="n">
-        <v>3486.363181296443</v>
+        <v>3831.658486939385</v>
       </c>
       <c r="AC18" t="n">
-        <v>3153.629572414835</v>
+        <v>3465.970378712207</v>
       </c>
       <c r="AD18" t="n">
-        <v>2548056.401828284</v>
+        <v>2800420.217160219</v>
       </c>
       <c r="AE18" t="n">
-        <v>3486363.181296443</v>
+        <v>3831658.486939385</v>
       </c>
       <c r="AF18" t="n">
         <v>3.360828753081043e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>50</v>
+        <v>49.86666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>3153629.572414835</v>
+        <v>3465970.378712207</v>
       </c>
     </row>
     <row r="19">
@@ -17953,28 +17953,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2521.12896617023</v>
+        <v>2773.492781502165</v>
       </c>
       <c r="AB19" t="n">
-        <v>3449.519875874472</v>
+        <v>3794.815181517414</v>
       </c>
       <c r="AC19" t="n">
-        <v>3120.302540352435</v>
+        <v>3432.643346649807</v>
       </c>
       <c r="AD19" t="n">
-        <v>2521128.96617023</v>
+        <v>2773492.781502165</v>
       </c>
       <c r="AE19" t="n">
-        <v>3449519.875874472</v>
+        <v>3794815.181517414</v>
       </c>
       <c r="AF19" t="n">
         <v>3.369275067563415e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>50</v>
+        <v>49.74166666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>3120302.540352435</v>
+        <v>3432643.346649806</v>
       </c>
     </row>
     <row r="20">
@@ -18059,28 +18059,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2505.478103632183</v>
+        <v>2757.841918964117</v>
       </c>
       <c r="AB20" t="n">
-        <v>3428.10567528259</v>
+        <v>3773.400980925531</v>
       </c>
       <c r="AC20" t="n">
-        <v>3100.932081010023</v>
+        <v>3413.272887307394</v>
       </c>
       <c r="AD20" t="n">
-        <v>2505478.103632183</v>
+        <v>2757841.918964117</v>
       </c>
       <c r="AE20" t="n">
-        <v>3428105.67528259</v>
+        <v>3773400.980925531</v>
       </c>
       <c r="AF20" t="n">
         <v>3.372492711175747e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>50</v>
+        <v>49.69166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>3100932.081010023</v>
+        <v>3413272.887307394</v>
       </c>
     </row>
     <row r="21">
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2493.257830857769</v>
+        <v>2745.621646189704</v>
       </c>
       <c r="AB21" t="n">
-        <v>3411.385358952251</v>
+        <v>3756.680664595193</v>
       </c>
       <c r="AC21" t="n">
-        <v>3085.807528203142</v>
+        <v>3398.148334500513</v>
       </c>
       <c r="AD21" t="n">
-        <v>2493257.83085777</v>
+        <v>2745621.646189704</v>
       </c>
       <c r="AE21" t="n">
-        <v>3411385.358952251</v>
+        <v>3756680.664595193</v>
       </c>
       <c r="AF21" t="n">
         <v>3.377319176594246e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>50</v>
+        <v>49.62083333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>3085807.528203142</v>
+        <v>3398148.334500513</v>
       </c>
     </row>
     <row r="22">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2493.267140963796</v>
+        <v>2745.63095629573</v>
       </c>
       <c r="AB22" t="n">
-        <v>3411.39809745005</v>
+        <v>3756.693403092992</v>
       </c>
       <c r="AC22" t="n">
-        <v>3085.819050956589</v>
+        <v>3398.15985725396</v>
       </c>
       <c r="AD22" t="n">
-        <v>2493267.140963796</v>
+        <v>2745630.956295731</v>
       </c>
       <c r="AE22" t="n">
-        <v>3411398.09745005</v>
+        <v>3756693.403092992</v>
       </c>
       <c r="AF22" t="n">
         <v>3.379732409303495e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>50</v>
+        <v>49.58750000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>3085819.050956589</v>
+        <v>3398159.85725396</v>
       </c>
     </row>
     <row r="23">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2500.253361890386</v>
+        <v>2752.617177222321</v>
       </c>
       <c r="AB23" t="n">
-        <v>3420.956953132126</v>
+        <v>3766.252258775068</v>
       </c>
       <c r="AC23" t="n">
-        <v>3094.465622868305</v>
+        <v>3406.806429165676</v>
       </c>
       <c r="AD23" t="n">
-        <v>2500253.361890386</v>
+        <v>2752617.177222321</v>
       </c>
       <c r="AE23" t="n">
-        <v>3420956.953132126</v>
+        <v>3766252.258775068</v>
       </c>
       <c r="AF23" t="n">
         <v>3.378927998400412e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>3094465.622868305</v>
+        <v>3406806.429165677</v>
       </c>
     </row>
     <row r="24">
@@ -18483,28 +18483,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2509.197840392061</v>
+        <v>2761.561655723995</v>
       </c>
       <c r="AB24" t="n">
-        <v>3433.19518322066</v>
+        <v>3778.490488863601</v>
       </c>
       <c r="AC24" t="n">
-        <v>3105.535853453653</v>
+        <v>3417.876659751023</v>
       </c>
       <c r="AD24" t="n">
-        <v>2509197.840392061</v>
+        <v>2761561.655723995</v>
       </c>
       <c r="AE24" t="n">
-        <v>3433195.183220659</v>
+        <v>3778490.4888636</v>
       </c>
       <c r="AF24" t="n">
         <v>3.378927998400412e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="AH24" t="n">
-        <v>3105535.853453652</v>
+        <v>3417876.659751024</v>
       </c>
     </row>
   </sheetData>
@@ -18780,28 +18780,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2176.873782491112</v>
+        <v>2461.647366521613</v>
       </c>
       <c r="AB2" t="n">
-        <v>2978.494746097678</v>
+        <v>3368.134527092256</v>
       </c>
       <c r="AC2" t="n">
-        <v>2694.231387873746</v>
+        <v>3046.684495032942</v>
       </c>
       <c r="AD2" t="n">
-        <v>2176873.782491112</v>
+        <v>2461647.366521613</v>
       </c>
       <c r="AE2" t="n">
-        <v>2978494.746097678</v>
+        <v>3368134.527092256</v>
       </c>
       <c r="AF2" t="n">
         <v>4.909836806225765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.18333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2694231.387873746</v>
+        <v>3046684.495032942</v>
       </c>
     </row>
     <row r="3">
@@ -18886,28 +18886,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1665.466515298669</v>
+        <v>1913.482025876653</v>
       </c>
       <c r="AB3" t="n">
-        <v>2278.764761428674</v>
+        <v>2618.110524673574</v>
       </c>
       <c r="AC3" t="n">
-        <v>2061.28265086435</v>
+        <v>2368.241730739927</v>
       </c>
       <c r="AD3" t="n">
-        <v>1665466.515298669</v>
+        <v>1913482.025876653</v>
       </c>
       <c r="AE3" t="n">
-        <v>2278764.761428674</v>
+        <v>2618110.524673574</v>
       </c>
       <c r="AF3" t="n">
         <v>5.650998661849859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2061282.65086435</v>
+        <v>2368241.730739927</v>
       </c>
     </row>
     <row r="4">
@@ -18992,28 +18992,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1607.691856255573</v>
+        <v>1855.673201414776</v>
       </c>
       <c r="AB4" t="n">
-        <v>2199.714924087842</v>
+        <v>2539.013940699494</v>
       </c>
       <c r="AC4" t="n">
-        <v>1989.777219052184</v>
+        <v>2296.694013727581</v>
       </c>
       <c r="AD4" t="n">
-        <v>1607691.856255573</v>
+        <v>1855673.201414777</v>
       </c>
       <c r="AE4" t="n">
-        <v>2199714.924087842</v>
+        <v>2539013.940699494</v>
       </c>
       <c r="AF4" t="n">
         <v>5.745446330222191e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.28749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1989777.219052184</v>
+        <v>2296694.013727581</v>
       </c>
     </row>
   </sheetData>
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7114.357434652681</v>
+        <v>7584.021363984694</v>
       </c>
       <c r="AB2" t="n">
-        <v>9734.177705391012</v>
+        <v>10376.79261361332</v>
       </c>
       <c r="AC2" t="n">
-        <v>8805.16144719234</v>
+        <v>9386.446090489575</v>
       </c>
       <c r="AD2" t="n">
-        <v>7114357.434652681</v>
+        <v>7584021.363984695</v>
       </c>
       <c r="AE2" t="n">
-        <v>9734177.705391012</v>
+        <v>10376792.61361332</v>
       </c>
       <c r="AF2" t="n">
         <v>1.964328161997329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.05833333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>8805161.447192341</v>
+        <v>9386446.090489576</v>
       </c>
     </row>
     <row r="3">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3733.972900164999</v>
+        <v>4050.357379604789</v>
       </c>
       <c r="AB3" t="n">
-        <v>5108.986453264251</v>
+        <v>5541.877655931929</v>
       </c>
       <c r="AC3" t="n">
-        <v>4621.39195667204</v>
+        <v>5012.968630523718</v>
       </c>
       <c r="AD3" t="n">
-        <v>3733972.900164999</v>
+        <v>4050357.379604789</v>
       </c>
       <c r="AE3" t="n">
-        <v>5108986.453264251</v>
+        <v>5541877.655931929</v>
       </c>
       <c r="AF3" t="n">
         <v>2.888902425789363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.6375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4621391.95667204</v>
+        <v>5012968.630523718</v>
       </c>
     </row>
     <row r="4">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3133.321853889298</v>
+        <v>3411.319403805792</v>
       </c>
       <c r="AB4" t="n">
-        <v>4287.149192895822</v>
+        <v>4667.517705077918</v>
       </c>
       <c r="AC4" t="n">
-        <v>3877.989690977366</v>
+        <v>4222.056366207347</v>
       </c>
       <c r="AD4" t="n">
-        <v>3133321.853889298</v>
+        <v>3411319.403805792</v>
       </c>
       <c r="AE4" t="n">
-        <v>4287149.192895822</v>
+        <v>4667517.705077917</v>
       </c>
       <c r="AF4" t="n">
         <v>3.215618198113355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>58.06666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3877989.690977366</v>
+        <v>4222056.366207347</v>
       </c>
     </row>
     <row r="5">
@@ -19607,28 +19607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2870.233781517394</v>
+        <v>3138.608722231515</v>
       </c>
       <c r="AB5" t="n">
-        <v>3927.180485649965</v>
+        <v>4294.382919401814</v>
       </c>
       <c r="AC5" t="n">
-        <v>3552.375891931813</v>
+        <v>3884.533040778224</v>
       </c>
       <c r="AD5" t="n">
-        <v>2870233.781517394</v>
+        <v>3138608.722231515</v>
       </c>
       <c r="AE5" t="n">
-        <v>3927180.485649965</v>
+        <v>4294382.919401814</v>
       </c>
       <c r="AF5" t="n">
         <v>3.384578206571715e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.17499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>3552375.891931813</v>
+        <v>3884533.040778224</v>
       </c>
     </row>
     <row r="6">
@@ -19713,28 +19713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2711.4973959723</v>
+        <v>2979.905491075345</v>
       </c>
       <c r="AB6" t="n">
-        <v>3709.990359992069</v>
+        <v>4077.238157041511</v>
       </c>
       <c r="AC6" t="n">
-        <v>3355.91408703846</v>
+        <v>3688.112269773009</v>
       </c>
       <c r="AD6" t="n">
-        <v>2711497.3959723</v>
+        <v>2979905.491075345</v>
       </c>
       <c r="AE6" t="n">
-        <v>3709990.359992069</v>
+        <v>4077238.157041511</v>
       </c>
       <c r="AF6" t="n">
         <v>3.488553596392244e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.52500000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>3355914.08703846</v>
+        <v>3688112.269773009</v>
       </c>
     </row>
     <row r="7">
@@ -19819,28 +19819,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2610.742478410556</v>
+        <v>2869.494809922302</v>
       </c>
       <c r="AB7" t="n">
-        <v>3572.13303679083</v>
+        <v>3926.169392112434</v>
       </c>
       <c r="AC7" t="n">
-        <v>3231.213673279584</v>
+        <v>3551.461295742426</v>
       </c>
       <c r="AD7" t="n">
-        <v>2610742.478410556</v>
+        <v>2869494.809922302</v>
       </c>
       <c r="AE7" t="n">
-        <v>3572133.036790831</v>
+        <v>3926169.392112434</v>
       </c>
       <c r="AF7" t="n">
         <v>3.557123573299749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.49166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3231213.673279584</v>
+        <v>3551461.295742426</v>
       </c>
     </row>
     <row r="8">
@@ -19925,28 +19925,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2523.348681754951</v>
+        <v>2782.168333074402</v>
       </c>
       <c r="AB8" t="n">
-        <v>3452.556988664428</v>
+        <v>3806.685453916873</v>
       </c>
       <c r="AC8" t="n">
-        <v>3123.049795360332</v>
+        <v>3443.380736911492</v>
       </c>
       <c r="AD8" t="n">
-        <v>2523348.681754951</v>
+        <v>2782168.333074402</v>
       </c>
       <c r="AE8" t="n">
-        <v>3452556.988664428</v>
+        <v>3806685.453916873</v>
       </c>
       <c r="AF8" t="n">
         <v>3.611352117128559e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.70833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3123049.795360332</v>
+        <v>3443380.736911492</v>
       </c>
     </row>
     <row r="9">
@@ -20031,28 +20031,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2466.043203503548</v>
+        <v>2715.241256650482</v>
       </c>
       <c r="AB9" t="n">
-        <v>3374.149105181581</v>
+        <v>3715.112875339434</v>
       </c>
       <c r="AC9" t="n">
-        <v>3052.125050230935</v>
+        <v>3360.547716710566</v>
       </c>
       <c r="AD9" t="n">
-        <v>2466043.203503548</v>
+        <v>2715241.256650482</v>
       </c>
       <c r="AE9" t="n">
-        <v>3374149.10518158</v>
+        <v>3715112.875339434</v>
       </c>
       <c r="AF9" t="n">
         <v>3.646309360257875e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.20833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>3052125.050230935</v>
+        <v>3360547.716710567</v>
       </c>
     </row>
     <row r="10">
@@ -20137,28 +20137,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2408.542009800228</v>
+        <v>2657.807382754866</v>
       </c>
       <c r="AB10" t="n">
-        <v>3295.473435183063</v>
+        <v>3636.529315271759</v>
       </c>
       <c r="AC10" t="n">
-        <v>2980.958075755083</v>
+        <v>3289.464061323034</v>
       </c>
       <c r="AD10" t="n">
-        <v>2408542.009800228</v>
+        <v>2657807.382754866</v>
       </c>
       <c r="AE10" t="n">
-        <v>3295473.435183063</v>
+        <v>3636529.315271758</v>
       </c>
       <c r="AF10" t="n">
         <v>3.677681245117517e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.775</v>
       </c>
       <c r="AH10" t="n">
-        <v>2980958.075755083</v>
+        <v>3289464.061323034</v>
       </c>
     </row>
     <row r="11">
@@ -20243,28 +20243,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2359.92883216275</v>
+        <v>2609.092719890903</v>
       </c>
       <c r="AB11" t="n">
-        <v>3228.958740877428</v>
+        <v>3569.875764402034</v>
       </c>
       <c r="AC11" t="n">
-        <v>2920.79145052002</v>
+        <v>3229.171831799472</v>
       </c>
       <c r="AD11" t="n">
-        <v>2359928.83216275</v>
+        <v>2609092.719890904</v>
       </c>
       <c r="AE11" t="n">
-        <v>3228958.740877428</v>
+        <v>3569875.764402034</v>
       </c>
       <c r="AF11" t="n">
         <v>3.702778753005232e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.43333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2920791.45052002</v>
+        <v>3229171.831799472</v>
       </c>
     </row>
     <row r="12">
@@ -20349,28 +20349,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2318.186092744917</v>
+        <v>2567.349980473071</v>
       </c>
       <c r="AB12" t="n">
-        <v>3171.844483246254</v>
+        <v>3512.761506770859</v>
       </c>
       <c r="AC12" t="n">
-        <v>2869.128097476804</v>
+        <v>3177.508478756255</v>
       </c>
       <c r="AD12" t="n">
-        <v>2318186.092744918</v>
+        <v>2567349.980473071</v>
       </c>
       <c r="AE12" t="n">
-        <v>3171844.483246254</v>
+        <v>3512761.506770859</v>
       </c>
       <c r="AF12" t="n">
         <v>3.722498223488436e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.1625</v>
       </c>
       <c r="AH12" t="n">
-        <v>2869128.097476804</v>
+        <v>3177508.478756255</v>
       </c>
     </row>
     <row r="13">
@@ -20455,28 +20455,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2269.900317242415</v>
+        <v>2519.131524778274</v>
       </c>
       <c r="AB13" t="n">
-        <v>3105.777754985655</v>
+        <v>3446.786888441102</v>
       </c>
       <c r="AC13" t="n">
-        <v>2809.366685036163</v>
+        <v>3117.830385403935</v>
       </c>
       <c r="AD13" t="n">
-        <v>2269900.317242416</v>
+        <v>2519131.524778273</v>
       </c>
       <c r="AE13" t="n">
-        <v>3105777.754985655</v>
+        <v>3446786.888441102</v>
       </c>
       <c r="AF13" t="n">
         <v>3.737735996134547e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>50</v>
+        <v>49.95833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2809366.685036163</v>
+        <v>3117830.385403934</v>
       </c>
     </row>
     <row r="14">
@@ -20561,28 +20561,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2244.871363545422</v>
+        <v>2494.10257108128</v>
       </c>
       <c r="AB14" t="n">
-        <v>3071.53203633792</v>
+        <v>3412.541169793366</v>
       </c>
       <c r="AC14" t="n">
-        <v>2778.389329712001</v>
+        <v>3086.853030079772</v>
       </c>
       <c r="AD14" t="n">
-        <v>2244871.363545422</v>
+        <v>2494102.57108128</v>
       </c>
       <c r="AE14" t="n">
-        <v>3071532.03633792</v>
+        <v>3412541.169793366</v>
       </c>
       <c r="AF14" t="n">
         <v>3.749388410510986e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>50</v>
+        <v>49.80416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2778389.329712001</v>
+        <v>3086853.030079772</v>
       </c>
     </row>
     <row r="15">
@@ -20667,28 +20667,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2242.963130589883</v>
+        <v>2492.194338125741</v>
       </c>
       <c r="AB15" t="n">
-        <v>3068.921107822855</v>
+        <v>3409.930241278301</v>
       </c>
       <c r="AC15" t="n">
-        <v>2776.027584549952</v>
+        <v>3084.491284917724</v>
       </c>
       <c r="AD15" t="n">
-        <v>2242963.130589883</v>
+        <v>2492194.338125741</v>
       </c>
       <c r="AE15" t="n">
-        <v>3068921.107822855</v>
+        <v>3409930.241278301</v>
       </c>
       <c r="AF15" t="n">
         <v>3.751181089645822e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>50</v>
+        <v>49.77916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2776027.584549952</v>
+        <v>3084491.284917724</v>
       </c>
     </row>
     <row r="16">
@@ -20773,28 +20773,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2251.129472254083</v>
+        <v>2500.360679789941</v>
       </c>
       <c r="AB16" t="n">
-        <v>3080.094656761381</v>
+        <v>3421.103790216828</v>
       </c>
       <c r="AC16" t="n">
-        <v>2786.13474565996</v>
+        <v>3094.598446027731</v>
       </c>
       <c r="AD16" t="n">
-        <v>2251129.472254083</v>
+        <v>2500360.679789941</v>
       </c>
       <c r="AE16" t="n">
-        <v>3080094.656761381</v>
+        <v>3421103.790216828</v>
       </c>
       <c r="AF16" t="n">
         <v>3.750732919862114e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>50</v>
+        <v>49.78749999999999</v>
       </c>
       <c r="AH16" t="n">
-        <v>2786134.74565996</v>
+        <v>3094598.446027731</v>
       </c>
     </row>
     <row r="17">
@@ -20879,28 +20879,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2260.370889661199</v>
+        <v>2509.602097197057</v>
       </c>
       <c r="AB17" t="n">
-        <v>3092.73917176036</v>
+        <v>3433.748305215807</v>
       </c>
       <c r="AC17" t="n">
-        <v>2797.572485894124</v>
+        <v>3106.036186261895</v>
       </c>
       <c r="AD17" t="n">
-        <v>2260370.889661199</v>
+        <v>2509602.097197057</v>
       </c>
       <c r="AE17" t="n">
-        <v>3092739.17176036</v>
+        <v>3433748.305215807</v>
       </c>
       <c r="AF17" t="n">
         <v>3.750284750078404e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2797572.485894124</v>
+        <v>3106036.186261895</v>
       </c>
     </row>
   </sheetData>
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8905.976942560706</v>
+        <v>9426.966009901877</v>
       </c>
       <c r="AB2" t="n">
-        <v>12185.55055678519</v>
+        <v>12898.39078313691</v>
       </c>
       <c r="AC2" t="n">
-        <v>11022.57871417277</v>
+        <v>11667.386469799</v>
       </c>
       <c r="AD2" t="n">
-        <v>8905976.942560706</v>
+        <v>9426966.009901876</v>
       </c>
       <c r="AE2" t="n">
-        <v>12185550.55678519</v>
+        <v>12898390.78313691</v>
       </c>
       <c r="AF2" t="n">
         <v>1.6722488625847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>106</v>
+        <v>105.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>11022578.71417277</v>
+        <v>11667386.469799</v>
       </c>
     </row>
     <row r="3">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4217.509336664112</v>
+        <v>4555.127685770114</v>
       </c>
       <c r="AB3" t="n">
-        <v>5770.582337804407</v>
+        <v>6232.526657721614</v>
       </c>
       <c r="AC3" t="n">
-        <v>5219.846058547315</v>
+        <v>5637.703060914531</v>
       </c>
       <c r="AD3" t="n">
-        <v>4217509.336664112</v>
+        <v>4555127.685770114</v>
       </c>
       <c r="AE3" t="n">
-        <v>5770582.337804407</v>
+        <v>6232526.657721614</v>
       </c>
       <c r="AF3" t="n">
         <v>2.617727286029377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>68</v>
+        <v>67.34166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5219846.058547315</v>
+        <v>5637703.060914531</v>
       </c>
     </row>
     <row r="4">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3458.682953056413</v>
+        <v>3757.79842565518</v>
       </c>
       <c r="AB4" t="n">
-        <v>4732.322602694941</v>
+        <v>5141.585588347919</v>
       </c>
       <c r="AC4" t="n">
-        <v>4280.676375350046</v>
+        <v>4650.879876056495</v>
       </c>
       <c r="AD4" t="n">
-        <v>3458682.953056413</v>
+        <v>3757798.42565518</v>
       </c>
       <c r="AE4" t="n">
-        <v>4732322.602694942</v>
+        <v>5141585.588347919</v>
       </c>
       <c r="AF4" t="n">
         <v>2.956153567351856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>59.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>4280676.375350046</v>
+        <v>4650879.876056495</v>
       </c>
     </row>
     <row r="5">
@@ -21494,28 +21494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3150.274677969017</v>
+        <v>3430.020649893221</v>
       </c>
       <c r="AB5" t="n">
-        <v>4310.344794707511</v>
+        <v>4693.105575015487</v>
       </c>
       <c r="AC5" t="n">
-        <v>3898.971537107377</v>
+        <v>4245.202165750875</v>
       </c>
       <c r="AD5" t="n">
-        <v>3150274.677969017</v>
+        <v>3430020.649893221</v>
       </c>
       <c r="AE5" t="n">
-        <v>4310344.794707511</v>
+        <v>4693105.575015487</v>
       </c>
       <c r="AF5" t="n">
         <v>3.129174003677974e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.32916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3898971.537107377</v>
+        <v>4245202.165750875</v>
       </c>
     </row>
     <row r="6">
@@ -21600,28 +21600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2970.041393490731</v>
+        <v>3240.136274981504</v>
       </c>
       <c r="AB6" t="n">
-        <v>4063.741663552971</v>
+        <v>4433.297396153867</v>
       </c>
       <c r="AC6" t="n">
-        <v>3675.903862680568</v>
+        <v>4010.18971483675</v>
       </c>
       <c r="AD6" t="n">
-        <v>2970041.393490731</v>
+        <v>3240136.274981504</v>
       </c>
       <c r="AE6" t="n">
-        <v>4063741.663552971</v>
+        <v>4433297.396153867</v>
       </c>
       <c r="AF6" t="n">
         <v>3.237470413701167e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.44583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3675903.862680568</v>
+        <v>4010189.71483675</v>
       </c>
     </row>
     <row r="7">
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2853.104795902587</v>
+        <v>3113.582752378711</v>
       </c>
       <c r="AB7" t="n">
-        <v>3903.743851854272</v>
+        <v>4260.141283381337</v>
       </c>
       <c r="AC7" t="n">
-        <v>3531.17601757206</v>
+        <v>3853.559378441106</v>
       </c>
       <c r="AD7" t="n">
-        <v>2853104.795902587</v>
+        <v>3113582.752378711</v>
       </c>
       <c r="AE7" t="n">
-        <v>3903743.851854272</v>
+        <v>4260141.283381337</v>
       </c>
       <c r="AF7" t="n">
         <v>3.3102320641855e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.24583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>3531176.01757206</v>
+        <v>3853559.378441106</v>
       </c>
     </row>
     <row r="8">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2766.234395513548</v>
+        <v>3026.678186570891</v>
       </c>
       <c r="AB8" t="n">
-        <v>3784.883937590398</v>
+        <v>4141.234622484215</v>
       </c>
       <c r="AC8" t="n">
-        <v>3423.659926704598</v>
+        <v>3746.001002373463</v>
       </c>
       <c r="AD8" t="n">
-        <v>2766234.395513549</v>
+        <v>3026678.186570891</v>
       </c>
       <c r="AE8" t="n">
-        <v>3784883.937590398</v>
+        <v>4141234.622484215</v>
       </c>
       <c r="AF8" t="n">
         <v>3.361842072087178e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.42916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3423659.926704598</v>
+        <v>3746001.002373463</v>
       </c>
     </row>
     <row r="9">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2690.706084122555</v>
+        <v>2951.217194987602</v>
       </c>
       <c r="AB9" t="n">
-        <v>3681.542769871302</v>
+        <v>4037.985564695961</v>
       </c>
       <c r="AC9" t="n">
-        <v>3330.181494992376</v>
+        <v>3652.60588974956</v>
       </c>
       <c r="AD9" t="n">
-        <v>2690706.084122555</v>
+        <v>2951217.194987603</v>
       </c>
       <c r="AE9" t="n">
-        <v>3681542.769871302</v>
+        <v>4037985.564695961</v>
       </c>
       <c r="AF9" t="n">
         <v>3.405414455807447e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.7625</v>
       </c>
       <c r="AH9" t="n">
-        <v>3330181.494992376</v>
+        <v>3652605.889749561</v>
       </c>
     </row>
     <row r="10">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2638.808751696218</v>
+        <v>2889.635617738912</v>
       </c>
       <c r="AB10" t="n">
-        <v>3610.534550096866</v>
+        <v>3953.726933916851</v>
       </c>
       <c r="AC10" t="n">
-        <v>3265.950200052553</v>
+        <v>3576.388784434281</v>
       </c>
       <c r="AD10" t="n">
-        <v>2638808.751696218</v>
+        <v>2889635.617738912</v>
       </c>
       <c r="AE10" t="n">
-        <v>3610534.550096867</v>
+        <v>3953726.933916851</v>
       </c>
       <c r="AF10" t="n">
         <v>3.43587282112647e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.3</v>
       </c>
       <c r="AH10" t="n">
-        <v>3265950.200052553</v>
+        <v>3576388.784434281</v>
       </c>
     </row>
     <row r="11">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2583.751342023889</v>
+        <v>2844.228287470155</v>
       </c>
       <c r="AB11" t="n">
-        <v>3535.202573221694</v>
+        <v>3891.598621413105</v>
       </c>
       <c r="AC11" t="n">
-        <v>3197.807801321256</v>
+        <v>3520.18991087826</v>
       </c>
       <c r="AD11" t="n">
-        <v>2583751.342023889</v>
+        <v>2844228.287470155</v>
       </c>
       <c r="AE11" t="n">
-        <v>3535202.573221694</v>
+        <v>3891598.621413105</v>
       </c>
       <c r="AF11" t="n">
         <v>3.459562660819044e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.95416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3197807.801321256</v>
+        <v>3520189.910878261</v>
       </c>
     </row>
     <row r="12">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2542.664996041151</v>
+        <v>2793.559181891549</v>
       </c>
       <c r="AB12" t="n">
-        <v>3478.986422046451</v>
+        <v>3822.270915797277</v>
       </c>
       <c r="AC12" t="n">
-        <v>3146.956840714316</v>
+        <v>3457.478744184364</v>
       </c>
       <c r="AD12" t="n">
-        <v>2542664.996041151</v>
+        <v>2793559.181891548</v>
       </c>
       <c r="AE12" t="n">
-        <v>3478986.42204645</v>
+        <v>3822270.915797277</v>
       </c>
       <c r="AF12" t="n">
         <v>3.482406434808311e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.61666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3146956.840714316</v>
+        <v>3457478.744184364</v>
       </c>
     </row>
     <row r="13">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2504.239123787496</v>
+        <v>2755.031824411409</v>
       </c>
       <c r="AB13" t="n">
-        <v>3426.410448399156</v>
+        <v>3769.556085585893</v>
       </c>
       <c r="AC13" t="n">
-        <v>3099.39864420108</v>
+        <v>3409.794943382628</v>
       </c>
       <c r="AD13" t="n">
-        <v>2504239.123787496</v>
+        <v>2755031.824411409</v>
       </c>
       <c r="AE13" t="n">
-        <v>3426410.448399156</v>
+        <v>3769556.085585894</v>
       </c>
       <c r="AF13" t="n">
         <v>3.499327748874435e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.37083333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>3099398.644201079</v>
+        <v>3409794.943382628</v>
       </c>
     </row>
     <row r="14">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2468.753907097389</v>
+        <v>2709.963848125434</v>
       </c>
       <c r="AB14" t="n">
-        <v>3377.858009426477</v>
+        <v>3707.89209217263</v>
       </c>
       <c r="AC14" t="n">
-        <v>3055.479981860178</v>
+        <v>3354.01607495477</v>
       </c>
       <c r="AD14" t="n">
-        <v>2468753.907097389</v>
+        <v>2709963.848125434</v>
       </c>
       <c r="AE14" t="n">
-        <v>3377858.009426477</v>
+        <v>3707892.09217263</v>
       </c>
       <c r="AF14" t="n">
         <v>3.515826030088905e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.13333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3055479.981860178</v>
+        <v>3354016.07495477</v>
       </c>
     </row>
     <row r="15">
@@ -22554,28 +22554,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2423.970264489585</v>
+        <v>2674.830284921202</v>
       </c>
       <c r="AB15" t="n">
-        <v>3316.583053895602</v>
+        <v>3659.820801013181</v>
       </c>
       <c r="AC15" t="n">
-        <v>3000.053022085231</v>
+        <v>3310.532640355099</v>
       </c>
       <c r="AD15" t="n">
-        <v>2423970.264489585</v>
+        <v>2674830.284921202</v>
       </c>
       <c r="AE15" t="n">
-        <v>3316583.053895602</v>
+        <v>3659820.801013181</v>
       </c>
       <c r="AF15" t="n">
         <v>3.528093982786845e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>50</v>
+        <v>49.95833333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>3000053.022085231</v>
+        <v>3310532.640355099</v>
       </c>
     </row>
     <row r="16">
@@ -22660,28 +22660,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2387.834983377219</v>
+        <v>2638.695003808837</v>
       </c>
       <c r="AB16" t="n">
-        <v>3267.141168101569</v>
+        <v>3610.378915219147</v>
       </c>
       <c r="AC16" t="n">
-        <v>2955.329800479261</v>
+        <v>3265.809418749128</v>
       </c>
       <c r="AD16" t="n">
-        <v>2387834.983377219</v>
+        <v>2638695.003808836</v>
       </c>
       <c r="AE16" t="n">
-        <v>3267141.168101569</v>
+        <v>3610378.915219147</v>
       </c>
       <c r="AF16" t="n">
         <v>3.539515869781479e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>50</v>
+        <v>49.79583333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2955329.800479261</v>
+        <v>3265809.418749128</v>
       </c>
     </row>
     <row r="17">
@@ -22766,28 +22766,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2370.793253645636</v>
+        <v>2621.653274077254</v>
       </c>
       <c r="AB17" t="n">
-        <v>3243.823921654762</v>
+        <v>3587.06166877234</v>
       </c>
       <c r="AC17" t="n">
-        <v>2934.237919307376</v>
+        <v>3244.717537577244</v>
       </c>
       <c r="AD17" t="n">
-        <v>2370793.253645636</v>
+        <v>2621653.274077253</v>
       </c>
       <c r="AE17" t="n">
-        <v>3243823.921654762</v>
+        <v>3587061.66877234</v>
       </c>
       <c r="AF17" t="n">
         <v>3.545438329704623e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>49.71666666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>2934237.919307376</v>
+        <v>3244717.537577244</v>
       </c>
     </row>
     <row r="18">
@@ -22872,28 +22872,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2368.478315566417</v>
+        <v>2619.338335998034</v>
       </c>
       <c r="AB18" t="n">
-        <v>3240.656521246914</v>
+        <v>3583.894268364493</v>
       </c>
       <c r="AC18" t="n">
-        <v>2931.37281114898</v>
+        <v>3241.852429418847</v>
       </c>
       <c r="AD18" t="n">
-        <v>2368478.315566417</v>
+        <v>2619338.335998035</v>
       </c>
       <c r="AE18" t="n">
-        <v>3240656.521246914</v>
+        <v>3583894.268364493</v>
       </c>
       <c r="AF18" t="n">
         <v>3.547553493962888e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>50</v>
+        <v>49.6875</v>
       </c>
       <c r="AH18" t="n">
-        <v>2931372.81114898</v>
+        <v>3241852.429418847</v>
       </c>
     </row>
     <row r="19">
@@ -22978,28 +22978,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2374.883579414841</v>
+        <v>2625.743599846458</v>
       </c>
       <c r="AB19" t="n">
-        <v>3249.420485824625</v>
+        <v>3592.658232942204</v>
       </c>
       <c r="AC19" t="n">
-        <v>2939.300355247695</v>
+        <v>3249.779973517563</v>
       </c>
       <c r="AD19" t="n">
-        <v>2374883.579414841</v>
+        <v>2625743.599846458</v>
       </c>
       <c r="AE19" t="n">
-        <v>3249420.485824625</v>
+        <v>3592658.232942204</v>
       </c>
       <c r="AF19" t="n">
         <v>3.547976526814542e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>50</v>
+        <v>49.67916666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2939300.355247695</v>
+        <v>3249779.973517563</v>
       </c>
     </row>
     <row r="20">
@@ -23084,28 +23084,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2379.706871246647</v>
+        <v>2630.566891678264</v>
       </c>
       <c r="AB20" t="n">
-        <v>3256.01992649752</v>
+        <v>3599.257673615099</v>
       </c>
       <c r="AC20" t="n">
-        <v>2945.269954565142</v>
+        <v>3255.74957283501</v>
       </c>
       <c r="AD20" t="n">
-        <v>2379706.871246647</v>
+        <v>2630566.891678264</v>
       </c>
       <c r="AE20" t="n">
-        <v>3256019.92649752</v>
+        <v>3599257.673615099</v>
       </c>
       <c r="AF20" t="n">
         <v>3.55051472392446e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>50</v>
+        <v>49.64583333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>2945269.954565142</v>
+        <v>3255749.57283501</v>
       </c>
     </row>
   </sheetData>
@@ -23381,28 +23381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>14302.67551491749</v>
+        <v>14966.44579708159</v>
       </c>
       <c r="AB2" t="n">
-        <v>19569.55162902194</v>
+        <v>20477.75141255704</v>
       </c>
       <c r="AC2" t="n">
-        <v>17701.86108758556</v>
+        <v>18523.38355844644</v>
       </c>
       <c r="AD2" t="n">
-        <v>14302675.51491749</v>
+        <v>14966445.79708159</v>
       </c>
       <c r="AE2" t="n">
-        <v>19569551.62902194</v>
+        <v>20477751.41255704</v>
       </c>
       <c r="AF2" t="n">
         <v>1.209054638789398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>133</v>
+        <v>132.5291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>17701861.08758556</v>
+        <v>18523383.55844644</v>
       </c>
     </row>
     <row r="3">
@@ -23487,28 +23487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5310.027649278401</v>
+        <v>5680.845562331659</v>
       </c>
       <c r="AB3" t="n">
-        <v>7265.414091629635</v>
+        <v>7772.783519600872</v>
       </c>
       <c r="AC3" t="n">
-        <v>6572.01316779695</v>
+        <v>7030.959969660059</v>
       </c>
       <c r="AD3" t="n">
-        <v>5310027.6492784</v>
+        <v>5680845.562331659</v>
       </c>
       <c r="AE3" t="n">
-        <v>7265414.091629635</v>
+        <v>7772783.519600872</v>
       </c>
       <c r="AF3" t="n">
         <v>2.18198982840046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.44166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>6572013.16779695</v>
+        <v>7030959.969660059</v>
       </c>
     </row>
     <row r="4">
@@ -23593,28 +23593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4174.413725383355</v>
+        <v>4486.722959413549</v>
       </c>
       <c r="AB4" t="n">
-        <v>5711.617021205885</v>
+        <v>6138.932293317015</v>
       </c>
       <c r="AC4" t="n">
-        <v>5166.508309006616</v>
+        <v>5553.041211288196</v>
       </c>
       <c r="AD4" t="n">
-        <v>4174413.725383355</v>
+        <v>4486722.959413549</v>
       </c>
       <c r="AE4" t="n">
-        <v>5711617.021205885</v>
+        <v>6138932.293317015</v>
       </c>
       <c r="AF4" t="n">
         <v>2.539245477075826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>64</v>
+        <v>63.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>5166508.309006616</v>
+        <v>5553041.211288196</v>
       </c>
     </row>
     <row r="5">
@@ -23699,28 +23699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3716.518365066766</v>
+        <v>4009.369248951121</v>
       </c>
       <c r="AB5" t="n">
-        <v>5085.104388303103</v>
+        <v>5485.795887302875</v>
       </c>
       <c r="AC5" t="n">
-        <v>4599.789162472097</v>
+        <v>4962.239227181366</v>
       </c>
       <c r="AD5" t="n">
-        <v>3716518.365066766</v>
+        <v>4009369.248951121</v>
       </c>
       <c r="AE5" t="n">
-        <v>5085104.388303104</v>
+        <v>5485795.887302875</v>
       </c>
       <c r="AF5" t="n">
         <v>2.728833243272764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.71666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4599789.162472097</v>
+        <v>4962239.227181366</v>
       </c>
     </row>
     <row r="6">
@@ -23805,28 +23805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3475.900147374046</v>
+        <v>3758.886711055145</v>
       </c>
       <c r="AB6" t="n">
-        <v>4755.879927529335</v>
+        <v>5143.074628443916</v>
       </c>
       <c r="AC6" t="n">
-        <v>4301.985422165157</v>
+        <v>4652.226804255611</v>
       </c>
       <c r="AD6" t="n">
-        <v>3475900.147374047</v>
+        <v>3758886.711055146</v>
       </c>
       <c r="AE6" t="n">
-        <v>4755879.927529335</v>
+        <v>5143074.628443915</v>
       </c>
       <c r="AF6" t="n">
         <v>2.846123849134967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.29583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>4301985.422165156</v>
+        <v>4652226.80425561</v>
       </c>
     </row>
     <row r="7">
@@ -23911,28 +23911,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3318.640323258549</v>
+        <v>3601.660041328572</v>
       </c>
       <c r="AB7" t="n">
-        <v>4540.710098360705</v>
+        <v>4927.950162572879</v>
       </c>
       <c r="AC7" t="n">
-        <v>4107.351099499637</v>
+        <v>4457.63351547823</v>
       </c>
       <c r="AD7" t="n">
-        <v>3318640.323258549</v>
+        <v>3601660.041328572</v>
       </c>
       <c r="AE7" t="n">
-        <v>4540710.098360705</v>
+        <v>4927950.162572879</v>
       </c>
       <c r="AF7" t="n">
         <v>2.923804840558459e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.80416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4107351.099499637</v>
+        <v>4457633.51547823</v>
       </c>
     </row>
     <row r="8">
@@ -24017,28 +24017,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3208.856875438449</v>
+        <v>3482.147923950482</v>
       </c>
       <c r="AB8" t="n">
-        <v>4390.499541749341</v>
+        <v>4764.428411073663</v>
       </c>
       <c r="AC8" t="n">
-        <v>3971.476427589427</v>
+        <v>4309.718050437886</v>
       </c>
       <c r="AD8" t="n">
-        <v>3208856.875438449</v>
+        <v>3482147.923950482</v>
       </c>
       <c r="AE8" t="n">
-        <v>4390499.541749341</v>
+        <v>4764428.411073662</v>
       </c>
       <c r="AF8" t="n">
         <v>2.981873304444336e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.7375</v>
       </c>
       <c r="AH8" t="n">
-        <v>3971476.427589427</v>
+        <v>4309718.050437885</v>
       </c>
     </row>
     <row r="9">
@@ -24123,28 +24123,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3125.705876828117</v>
+        <v>3398.962759921369</v>
       </c>
       <c r="AB9" t="n">
-        <v>4276.72867708752</v>
+        <v>4650.610799778594</v>
       </c>
       <c r="AC9" t="n">
-        <v>3868.563694572523</v>
+        <v>4206.763032220802</v>
       </c>
       <c r="AD9" t="n">
-        <v>3125705.876828117</v>
+        <v>3398962.759921369</v>
       </c>
       <c r="AE9" t="n">
-        <v>4276728.67708752</v>
+        <v>4650610.799778594</v>
       </c>
       <c r="AF9" t="n">
         <v>3.024943953154391e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.97083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3868563.694572523</v>
+        <v>4206763.032220801</v>
       </c>
     </row>
     <row r="10">
@@ -24229,28 +24229,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3066.272011164747</v>
+        <v>3329.732904892303</v>
       </c>
       <c r="AB10" t="n">
-        <v>4195.408640049793</v>
+        <v>4555.887457922173</v>
       </c>
       <c r="AC10" t="n">
-        <v>3795.004727736291</v>
+        <v>4121.079953166115</v>
       </c>
       <c r="AD10" t="n">
-        <v>3066272.011164747</v>
+        <v>3329732.904892304</v>
       </c>
       <c r="AE10" t="n">
-        <v>4195408.640049793</v>
+        <v>4555887.457922173</v>
       </c>
       <c r="AF10" t="n">
         <v>3.05840061777738e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.39166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3795004.727736291</v>
+        <v>4121079.953166115</v>
       </c>
     </row>
     <row r="11">
@@ -24335,28 +24335,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3002.286166983833</v>
+        <v>3265.814380519093</v>
       </c>
       <c r="AB11" t="n">
-        <v>4107.860385185242</v>
+        <v>4468.431312988463</v>
       </c>
       <c r="AC11" t="n">
-        <v>3715.811955441268</v>
+        <v>4041.970499959411</v>
       </c>
       <c r="AD11" t="n">
-        <v>3002286.166983833</v>
+        <v>3265814.380519093</v>
       </c>
       <c r="AE11" t="n">
-        <v>4107860.385185243</v>
+        <v>4468431.312988463</v>
       </c>
       <c r="AF11" t="n">
         <v>3.088011688765543e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.8875</v>
       </c>
       <c r="AH11" t="n">
-        <v>3715811.955441268</v>
+        <v>4041970.499959412</v>
       </c>
     </row>
     <row r="12">
@@ -24441,28 +24441,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2960.167758792565</v>
+        <v>3223.59448710134</v>
       </c>
       <c r="AB12" t="n">
-        <v>4050.232120964917</v>
+        <v>4410.664192204048</v>
       </c>
       <c r="AC12" t="n">
-        <v>3663.683651876357</v>
+        <v>3989.716592106</v>
       </c>
       <c r="AD12" t="n">
-        <v>2960167.758792565</v>
+        <v>3223594.48710134</v>
       </c>
       <c r="AE12" t="n">
-        <v>4050232.120964917</v>
+        <v>4410664.192204048</v>
       </c>
       <c r="AF12" t="n">
         <v>3.111469809937984e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.49583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>3663683.651876357</v>
+        <v>3989716.592106001</v>
       </c>
     </row>
     <row r="13">
@@ -24547,28 +24547,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2924.457040138128</v>
+        <v>3178.189264307694</v>
       </c>
       <c r="AB13" t="n">
-        <v>4001.371140256197</v>
+        <v>4348.538763240724</v>
       </c>
       <c r="AC13" t="n">
-        <v>3619.485894589662</v>
+        <v>3933.520326889351</v>
       </c>
       <c r="AD13" t="n">
-        <v>2924457.040138128</v>
+        <v>3178189.264307694</v>
       </c>
       <c r="AE13" t="n">
-        <v>4001371.140256197</v>
+        <v>4348538.763240724</v>
       </c>
       <c r="AF13" t="n">
         <v>3.128774981294702e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>52</v>
+        <v>51.2125</v>
       </c>
       <c r="AH13" t="n">
-        <v>3619485.894589662</v>
+        <v>3933520.326889351</v>
       </c>
     </row>
     <row r="14">
@@ -24653,28 +24653,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2882.48412526502</v>
+        <v>3145.9781733815</v>
       </c>
       <c r="AB14" t="n">
-        <v>3943.941946412491</v>
+        <v>4304.466127582463</v>
       </c>
       <c r="AC14" t="n">
-        <v>3567.53766240402</v>
+        <v>3893.653921721984</v>
       </c>
       <c r="AD14" t="n">
-        <v>2882484.12526502</v>
+        <v>3145978.1733815</v>
       </c>
       <c r="AE14" t="n">
-        <v>3943941.946412491</v>
+        <v>4304466.127582463</v>
       </c>
       <c r="AF14" t="n">
         <v>3.144926474560972e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.95</v>
       </c>
       <c r="AH14" t="n">
-        <v>3567537.66240402</v>
+        <v>3893653.921721984</v>
       </c>
     </row>
     <row r="15">
@@ -24759,28 +24759,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2852.783035134416</v>
+        <v>3106.582579111686</v>
       </c>
       <c r="AB15" t="n">
-        <v>3903.303604576177</v>
+        <v>4250.563337491545</v>
       </c>
       <c r="AC15" t="n">
-        <v>3530.777786876295</v>
+        <v>3844.895538264304</v>
       </c>
       <c r="AD15" t="n">
-        <v>2852783.035134416</v>
+        <v>3106582.579111686</v>
       </c>
       <c r="AE15" t="n">
-        <v>3903303.604576177</v>
+        <v>4250563.337491545</v>
       </c>
       <c r="AF15" t="n">
         <v>3.158770611646347e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.72499999999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>3530777.786876295</v>
+        <v>3844895.538264304</v>
       </c>
     </row>
     <row r="16">
@@ -24865,28 +24865,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2818.964774747415</v>
+        <v>3072.764318724685</v>
       </c>
       <c r="AB16" t="n">
-        <v>3857.031968758329</v>
+        <v>4204.291701673696</v>
       </c>
       <c r="AC16" t="n">
-        <v>3488.922251038256</v>
+        <v>3803.040002426264</v>
       </c>
       <c r="AD16" t="n">
-        <v>2818964.774747415</v>
+        <v>3072764.318724685</v>
       </c>
       <c r="AE16" t="n">
-        <v>3857031.968758329</v>
+        <v>4204291.701673697</v>
       </c>
       <c r="AF16" t="n">
         <v>3.171845630004757e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.5125</v>
       </c>
       <c r="AH16" t="n">
-        <v>3488922.251038256</v>
+        <v>3803040.002426264</v>
       </c>
     </row>
     <row r="17">
@@ -24971,28 +24971,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2791.408010956283</v>
+        <v>3045.106069707069</v>
       </c>
       <c r="AB17" t="n">
-        <v>3819.327588820683</v>
+        <v>4166.448465171961</v>
       </c>
       <c r="AC17" t="n">
-        <v>3454.81632420343</v>
+        <v>3768.80847130294</v>
       </c>
       <c r="AD17" t="n">
-        <v>2791408.010956283</v>
+        <v>3045106.069707069</v>
       </c>
       <c r="AE17" t="n">
-        <v>3819327.588820683</v>
+        <v>4166448.465171961</v>
       </c>
       <c r="AF17" t="n">
         <v>3.183766970272719e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.32916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>3454816.32420343</v>
+        <v>3768808.47130294</v>
       </c>
     </row>
     <row r="18">
@@ -25077,28 +25077,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2767.962236902444</v>
+        <v>3021.660295653229</v>
       </c>
       <c r="AB18" t="n">
-        <v>3787.248046405668</v>
+        <v>4134.368922756946</v>
       </c>
       <c r="AC18" t="n">
-        <v>3425.798408292584</v>
+        <v>3739.790555392094</v>
       </c>
       <c r="AD18" t="n">
-        <v>2767962.236902444</v>
+        <v>3021660.295653229</v>
       </c>
       <c r="AE18" t="n">
-        <v>3787248.046405667</v>
+        <v>4134368.922756946</v>
       </c>
       <c r="AF18" t="n">
         <v>3.191842716905853e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.2</v>
       </c>
       <c r="AH18" t="n">
-        <v>3425798.408292584</v>
+        <v>3739790.555392094</v>
       </c>
     </row>
     <row r="19">
@@ -25183,28 +25183,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2743.809707337612</v>
+        <v>2987.813261949188</v>
       </c>
       <c r="AB19" t="n">
-        <v>3754.20148992066</v>
+        <v>4088.057918017334</v>
       </c>
       <c r="AC19" t="n">
-        <v>3395.905768777375</v>
+        <v>3697.899407946929</v>
       </c>
       <c r="AD19" t="n">
-        <v>2743809.707337612</v>
+        <v>2987813.261949188</v>
       </c>
       <c r="AE19" t="n">
-        <v>3754201.48992066</v>
+        <v>4088057.918017333</v>
       </c>
       <c r="AF19" t="n">
         <v>3.201072141629437e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>51</v>
+        <v>50.05416666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>3395905.768777375</v>
+        <v>3697899.407946929</v>
       </c>
     </row>
     <row r="20">
@@ -25289,28 +25289,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2701.801223975337</v>
+        <v>2955.566602533827</v>
       </c>
       <c r="AB20" t="n">
-        <v>3696.723629700906</v>
+        <v>4043.936615983025</v>
       </c>
       <c r="AC20" t="n">
-        <v>3343.913514866311</v>
+        <v>3657.98898105414</v>
       </c>
       <c r="AD20" t="n">
-        <v>2701801.223975337</v>
+        <v>2955566.602533828</v>
       </c>
       <c r="AE20" t="n">
-        <v>3696723.629700906</v>
+        <v>4043936.615983025</v>
       </c>
       <c r="AF20" t="n">
         <v>3.209532447626055e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>50</v>
+        <v>49.92499999999999</v>
       </c>
       <c r="AH20" t="n">
-        <v>3343913.514866311</v>
+        <v>3657988.98105414</v>
       </c>
     </row>
     <row r="21">
@@ -25395,28 +25395,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2687.251328105178</v>
+        <v>2941.016706663667</v>
       </c>
       <c r="AB21" t="n">
-        <v>3676.815820275248</v>
+        <v>4024.028806557369</v>
       </c>
       <c r="AC21" t="n">
-        <v>3325.905678831453</v>
+        <v>3639.981145019282</v>
       </c>
       <c r="AD21" t="n">
-        <v>2687251.328105178</v>
+        <v>2941016.706663667</v>
       </c>
       <c r="AE21" t="n">
-        <v>3676815.820275248</v>
+        <v>4024028.806557368</v>
       </c>
       <c r="AF21" t="n">
         <v>3.214147159987847e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>50</v>
+        <v>49.85</v>
       </c>
       <c r="AH21" t="n">
-        <v>3325905.678831453</v>
+        <v>3639981.145019282</v>
       </c>
     </row>
     <row r="22">
@@ -25501,28 +25501,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2668.004536137656</v>
+        <v>2921.769914696145</v>
       </c>
       <c r="AB22" t="n">
-        <v>3650.481510396749</v>
+        <v>3997.694496678868</v>
       </c>
       <c r="AC22" t="n">
-        <v>3302.084678527323</v>
+        <v>3616.160144715152</v>
       </c>
       <c r="AD22" t="n">
-        <v>2668004.536137655</v>
+        <v>2921769.914696145</v>
       </c>
       <c r="AE22" t="n">
-        <v>3650481.510396749</v>
+        <v>3997694.496678868</v>
       </c>
       <c r="AF22" t="n">
         <v>3.220684669167052e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>50</v>
+        <v>49.75416666666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>3302084.678527324</v>
+        <v>3616160.144715152</v>
       </c>
     </row>
     <row r="23">
@@ -25607,28 +25607,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2638.83389014634</v>
+        <v>2892.59926870483</v>
       </c>
       <c r="AB23" t="n">
-        <v>3610.568945633353</v>
+        <v>3957.781931915473</v>
       </c>
       <c r="AC23" t="n">
-        <v>3265.981312927311</v>
+        <v>3580.05677911514</v>
       </c>
       <c r="AD23" t="n">
-        <v>2638833.89014634</v>
+        <v>2892599.26870483</v>
       </c>
       <c r="AE23" t="n">
-        <v>3610568.945633353</v>
+        <v>3957781.931915473</v>
       </c>
       <c r="AF23" t="n">
         <v>3.227606737709739e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>50</v>
+        <v>49.64166666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>3265981.312927311</v>
+        <v>3580056.77911514</v>
       </c>
     </row>
     <row r="24">
@@ -25713,28 +25713,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2627.278488949702</v>
+        <v>2881.043867508193</v>
       </c>
       <c r="AB24" t="n">
-        <v>3594.758335927791</v>
+        <v>3941.971322209911</v>
       </c>
       <c r="AC24" t="n">
-        <v>3251.67964562172</v>
+        <v>3565.755111809548</v>
       </c>
       <c r="AD24" t="n">
-        <v>2627278.488949703</v>
+        <v>2881043.867508193</v>
       </c>
       <c r="AE24" t="n">
-        <v>3594758.335927791</v>
+        <v>3941971.322209911</v>
       </c>
       <c r="AF24" t="n">
         <v>3.231067771981082e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>50</v>
+        <v>49.59166666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>3251679.64562172</v>
+        <v>3565755.111809548</v>
       </c>
     </row>
     <row r="25">
@@ -25819,28 +25819,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2620.520860577198</v>
+        <v>2874.286239135688</v>
       </c>
       <c r="AB25" t="n">
-        <v>3585.512250663007</v>
+        <v>3932.725236945127</v>
       </c>
       <c r="AC25" t="n">
-        <v>3243.315993757644</v>
+        <v>3557.391459945472</v>
       </c>
       <c r="AD25" t="n">
-        <v>2620520.860577198</v>
+        <v>2874286.239135688</v>
       </c>
       <c r="AE25" t="n">
-        <v>3585512.250663007</v>
+        <v>3932725.236945127</v>
       </c>
       <c r="AF25" t="n">
         <v>3.234144246888943e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>50</v>
+        <v>49.54166666666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>3243315.993757644</v>
+        <v>3557391.459945472</v>
       </c>
     </row>
     <row r="26">
@@ -25925,28 +25925,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2616.17247037863</v>
+        <v>2869.937848937119</v>
       </c>
       <c r="AB26" t="n">
-        <v>3579.562591355889</v>
+        <v>3926.775577638008</v>
       </c>
       <c r="AC26" t="n">
-        <v>3237.934161584398</v>
+        <v>3552.009627772226</v>
       </c>
       <c r="AD26" t="n">
-        <v>2616172.47037863</v>
+        <v>2869937.848937119</v>
       </c>
       <c r="AE26" t="n">
-        <v>3579562.591355889</v>
+        <v>3926775.577638008</v>
       </c>
       <c r="AF26" t="n">
         <v>3.234144246888943e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>50</v>
+        <v>49.54583333333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>3237934.161584398</v>
+        <v>3552009.627772226</v>
       </c>
     </row>
     <row r="27">
@@ -26031,28 +26031,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2622.068143549775</v>
+        <v>2875.833522108264</v>
       </c>
       <c r="AB27" t="n">
-        <v>3587.629311487393</v>
+        <v>3934.842297769513</v>
       </c>
       <c r="AC27" t="n">
-        <v>3245.231005268265</v>
+        <v>3559.306471456093</v>
       </c>
       <c r="AD27" t="n">
-        <v>2622068.143549774</v>
+        <v>2875833.522108264</v>
       </c>
       <c r="AE27" t="n">
-        <v>3587629.311487393</v>
+        <v>3934842.297769513</v>
       </c>
       <c r="AF27" t="n">
         <v>3.236067043706357e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>50</v>
+        <v>49.5125</v>
       </c>
       <c r="AH27" t="n">
-        <v>3245231.005268265</v>
+        <v>3559306.471456093</v>
       </c>
     </row>
     <row r="28">
@@ -26137,28 +26137,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2631.337519383199</v>
+        <v>2885.102897941689</v>
       </c>
       <c r="AB28" t="n">
-        <v>3600.312080438687</v>
+        <v>3947.525066720806</v>
       </c>
       <c r="AC28" t="n">
-        <v>3256.703348551223</v>
+        <v>3570.778814739052</v>
       </c>
       <c r="AD28" t="n">
-        <v>2631337.519383199</v>
+        <v>2885102.897941689</v>
       </c>
       <c r="AE28" t="n">
-        <v>3600312.080438687</v>
+        <v>3947525.066720806</v>
       </c>
       <c r="AF28" t="n">
         <v>3.236067043706357e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>50</v>
+        <v>49.51666666666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>3256703.348551223</v>
+        <v>3570778.814739052</v>
       </c>
     </row>
   </sheetData>
@@ -26434,28 +26434,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5678.376991525505</v>
+        <v>6097.109988405307</v>
       </c>
       <c r="AB2" t="n">
-        <v>7769.405912118235</v>
+        <v>8342.334871645262</v>
       </c>
       <c r="AC2" t="n">
-        <v>7027.904716295062</v>
+        <v>7546.154140035653</v>
       </c>
       <c r="AD2" t="n">
-        <v>5678376.991525506</v>
+        <v>6097109.988405308</v>
       </c>
       <c r="AE2" t="n">
-        <v>7769405.912118236</v>
+        <v>8342334.871645262</v>
       </c>
       <c r="AF2" t="n">
         <v>2.318906714246176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.14166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7027904.716295062</v>
+        <v>7546154.140035653</v>
       </c>
     </row>
     <row r="3">
@@ -26540,28 +26540,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3278.650728038031</v>
+        <v>3573.695409895714</v>
       </c>
       <c r="AB3" t="n">
-        <v>4485.994569963559</v>
+        <v>4889.687720133974</v>
       </c>
       <c r="AC3" t="n">
-        <v>4057.85754433899</v>
+        <v>4423.02278684402</v>
       </c>
       <c r="AD3" t="n">
-        <v>3278650.728038031</v>
+        <v>3573695.409895714</v>
       </c>
       <c r="AE3" t="n">
-        <v>4485994.56996356</v>
+        <v>4889687.720133974</v>
       </c>
       <c r="AF3" t="n">
         <v>3.221156546003733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.01666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4057857.54433899</v>
+        <v>4423022.78684402</v>
       </c>
     </row>
     <row r="4">
@@ -26646,28 +26646,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2795.766786707439</v>
+        <v>3071.703653749149</v>
       </c>
       <c r="AB4" t="n">
-        <v>3825.291458099028</v>
+        <v>4202.840453060931</v>
       </c>
       <c r="AC4" t="n">
-        <v>3460.211010168194</v>
+        <v>3801.727258944261</v>
       </c>
       <c r="AD4" t="n">
-        <v>2795766.786707439</v>
+        <v>3071703.653749149</v>
       </c>
       <c r="AE4" t="n">
-        <v>3825291.458099028</v>
+        <v>4202840.453060932</v>
       </c>
       <c r="AF4" t="n">
         <v>3.535649579815081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>57</v>
+        <v>56.49583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3460211.010168194</v>
+        <v>3801727.258944261</v>
       </c>
     </row>
     <row r="5">
@@ -26752,28 +26752,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2583.701047672245</v>
+        <v>2840.666761573104</v>
       </c>
       <c r="AB5" t="n">
-        <v>3535.133758270944</v>
+        <v>3886.725584557325</v>
       </c>
       <c r="AC5" t="n">
-        <v>3197.745553972823</v>
+        <v>3515.781949820646</v>
       </c>
       <c r="AD5" t="n">
-        <v>2583701.047672245</v>
+        <v>2840666.761573104</v>
       </c>
       <c r="AE5" t="n">
-        <v>3535133.758270944</v>
+        <v>3886725.584557326</v>
       </c>
       <c r="AF5" t="n">
         <v>3.698169607958445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.0125</v>
       </c>
       <c r="AH5" t="n">
-        <v>3197745.553972824</v>
+        <v>3515781.949820647</v>
       </c>
     </row>
     <row r="6">
@@ -26858,28 +26858,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2446.342690958364</v>
+        <v>2703.341559248146</v>
       </c>
       <c r="AB6" t="n">
-        <v>3347.193994791984</v>
+        <v>3698.831184375959</v>
       </c>
       <c r="AC6" t="n">
-        <v>3027.742497745187</v>
+        <v>3345.81992748115</v>
       </c>
       <c r="AD6" t="n">
-        <v>2446342.690958364</v>
+        <v>2703341.559248147</v>
       </c>
       <c r="AE6" t="n">
-        <v>3347193.994791984</v>
+        <v>3698831.184375959</v>
       </c>
       <c r="AF6" t="n">
         <v>3.796928091137009e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.6125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3027742.497745187</v>
+        <v>3345819.92748115</v>
       </c>
     </row>
     <row r="7">
@@ -26964,28 +26964,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2354.372349094479</v>
+        <v>2611.337051965481</v>
       </c>
       <c r="AB7" t="n">
-        <v>3221.356115608686</v>
+        <v>3572.946558559413</v>
       </c>
       <c r="AC7" t="n">
-        <v>2913.914409136576</v>
+        <v>3231.949553672358</v>
       </c>
       <c r="AD7" t="n">
-        <v>2354372.349094478</v>
+        <v>2611337.051965481</v>
       </c>
       <c r="AE7" t="n">
-        <v>3221356.115608686</v>
+        <v>3572946.558559413</v>
       </c>
       <c r="AF7" t="n">
         <v>3.862127866439362e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.71666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2913914.409136576</v>
+        <v>3231949.553672357</v>
       </c>
     </row>
     <row r="8">
@@ -27070,28 +27070,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2286.582289370478</v>
+        <v>2533.994095863351</v>
       </c>
       <c r="AB8" t="n">
-        <v>3128.60276520794</v>
+        <v>3467.122513890065</v>
       </c>
       <c r="AC8" t="n">
-        <v>2830.013308317935</v>
+        <v>3136.225207301277</v>
       </c>
       <c r="AD8" t="n">
-        <v>2286582.289370478</v>
+        <v>2533994.095863351</v>
       </c>
       <c r="AE8" t="n">
-        <v>3128602.76520794</v>
+        <v>3467122.513890065</v>
       </c>
       <c r="AF8" t="n">
         <v>3.910548287803609e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.07916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2830013.308317935</v>
+        <v>3136225.207301277</v>
       </c>
     </row>
     <row r="9">
@@ -27176,28 +27176,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2220.46222669087</v>
+        <v>2467.941352991447</v>
       </c>
       <c r="AB9" t="n">
-        <v>3038.134378438402</v>
+        <v>3376.746237051369</v>
       </c>
       <c r="AC9" t="n">
-        <v>2748.179097408507</v>
+        <v>3054.474315480168</v>
       </c>
       <c r="AD9" t="n">
-        <v>2220462.22669087</v>
+        <v>2467941.352991447</v>
       </c>
       <c r="AE9" t="n">
-        <v>3038134.378438402</v>
+        <v>3376746.237051369</v>
       </c>
       <c r="AF9" t="n">
         <v>3.946983456354924e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.6125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2748179.097408507</v>
+        <v>3054474.315480168</v>
       </c>
     </row>
     <row r="10">
@@ -27282,28 +27282,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2169.692447987291</v>
+        <v>2417.070089061385</v>
       </c>
       <c r="AB10" t="n">
-        <v>2968.668927411432</v>
+        <v>3307.141929460483</v>
       </c>
       <c r="AC10" t="n">
-        <v>2685.343331532293</v>
+        <v>2991.5129453155</v>
       </c>
       <c r="AD10" t="n">
-        <v>2169692.447987291</v>
+        <v>2417070.089061385</v>
       </c>
       <c r="AE10" t="n">
-        <v>2968668.927411432</v>
+        <v>3307141.929460483</v>
       </c>
       <c r="AF10" t="n">
         <v>3.973830422655892e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.26666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2685343.331532293</v>
+        <v>2991512.9453155</v>
       </c>
     </row>
     <row r="11">
@@ -27388,28 +27388,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2127.941989047691</v>
+        <v>2365.868218970141</v>
       </c>
       <c r="AB11" t="n">
-        <v>2911.544107590018</v>
+        <v>3237.085271934554</v>
       </c>
       <c r="AC11" t="n">
-        <v>2633.670424339446</v>
+        <v>2928.142396858711</v>
       </c>
       <c r="AD11" t="n">
-        <v>2127941.989047691</v>
+        <v>2365868.218970141</v>
       </c>
       <c r="AE11" t="n">
-        <v>2911544.107590018</v>
+        <v>3237085.271934554</v>
       </c>
       <c r="AF11" t="n">
         <v>3.994445057494137e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.0125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2633670.424339446</v>
+        <v>2928142.396858711</v>
       </c>
     </row>
     <row r="12">
@@ -27494,28 +27494,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2116.747999339838</v>
+        <v>2364.192960221637</v>
       </c>
       <c r="AB12" t="n">
-        <v>2896.227997027762</v>
+        <v>3234.79310900765</v>
       </c>
       <c r="AC12" t="n">
-        <v>2619.816061872955</v>
+        <v>2926.06899474448</v>
       </c>
       <c r="AD12" t="n">
-        <v>2116747.999339838</v>
+        <v>2364192.960221637</v>
       </c>
       <c r="AE12" t="n">
-        <v>2896227.997027762</v>
+        <v>3234793.109007651</v>
       </c>
       <c r="AF12" t="n">
         <v>3.99732151816924e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>49.97083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2619816.061872955</v>
+        <v>2926068.99474448</v>
       </c>
     </row>
     <row r="13">
@@ -27600,28 +27600,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2123.974356410282</v>
+        <v>2371.419317292081</v>
       </c>
       <c r="AB13" t="n">
-        <v>2906.115417575917</v>
+        <v>3244.680529555806</v>
       </c>
       <c r="AC13" t="n">
-        <v>2628.759840881077</v>
+        <v>2935.012773752602</v>
       </c>
       <c r="AD13" t="n">
-        <v>2123974.356410282</v>
+        <v>2371419.317292081</v>
       </c>
       <c r="AE13" t="n">
-        <v>2906115.417575917</v>
+        <v>3244680.529555806</v>
       </c>
       <c r="AF13" t="n">
         <v>3.99732151816924e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>50</v>
+        <v>49.975</v>
       </c>
       <c r="AH13" t="n">
-        <v>2628759.840881077</v>
+        <v>2935012.773752602</v>
       </c>
     </row>
   </sheetData>
@@ -27897,28 +27897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3977.671250603186</v>
+        <v>4344.20515572407</v>
       </c>
       <c r="AB2" t="n">
-        <v>5442.425287546236</v>
+        <v>5943.933146867306</v>
       </c>
       <c r="AC2" t="n">
-        <v>4923.007856594483</v>
+        <v>5376.652509692633</v>
       </c>
       <c r="AD2" t="n">
-        <v>3977671.250603186</v>
+        <v>4344205.15572407</v>
       </c>
       <c r="AE2" t="n">
-        <v>5442425.287546236</v>
+        <v>5943933.146867306</v>
       </c>
       <c r="AF2" t="n">
         <v>3.040147950837965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.71666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>4923007.856594483</v>
+        <v>5376652.509692633</v>
       </c>
     </row>
     <row r="3">
@@ -28003,28 +28003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2614.904271067227</v>
+        <v>2896.796621481365</v>
       </c>
       <c r="AB3" t="n">
-        <v>3577.827385109021</v>
+        <v>3963.524935158465</v>
       </c>
       <c r="AC3" t="n">
-        <v>3236.364560986354</v>
+        <v>3585.251678188975</v>
       </c>
       <c r="AD3" t="n">
-        <v>2614904.271067227</v>
+        <v>2896796.621481365</v>
       </c>
       <c r="AE3" t="n">
-        <v>3577827.385109021</v>
+        <v>3963524.935158465</v>
       </c>
       <c r="AF3" t="n">
         <v>3.895445088163547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.30833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3236364.560986354</v>
+        <v>3585251.678188975</v>
       </c>
     </row>
     <row r="4">
@@ -28109,28 +28109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2293.157838715912</v>
+        <v>2556.248322392757</v>
       </c>
       <c r="AB4" t="n">
-        <v>3137.599721915126</v>
+        <v>3497.571728414784</v>
       </c>
       <c r="AC4" t="n">
-        <v>2838.151608104295</v>
+        <v>3163.768391527496</v>
       </c>
       <c r="AD4" t="n">
-        <v>2293157.838715911</v>
+        <v>2556248.322392757</v>
       </c>
       <c r="AE4" t="n">
-        <v>3137599.721915126</v>
+        <v>3497571.728414784</v>
       </c>
       <c r="AF4" t="n">
         <v>4.188175848357197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.23333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2838151.608104295</v>
+        <v>3163768.391527496</v>
       </c>
     </row>
     <row r="5">
@@ -28215,28 +28215,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2130.138056180073</v>
+        <v>2383.827606488273</v>
       </c>
       <c r="AB5" t="n">
-        <v>2914.548863524187</v>
+        <v>3261.658098249122</v>
       </c>
       <c r="AC5" t="n">
-        <v>2636.388410584459</v>
+        <v>2950.370027117996</v>
       </c>
       <c r="AD5" t="n">
-        <v>2130138.056180073</v>
+        <v>2383827.606488273</v>
       </c>
       <c r="AE5" t="n">
-        <v>2914548.863524187</v>
+        <v>3261658.098249123</v>
       </c>
       <c r="AF5" t="n">
         <v>4.337539401975558e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.36666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2636388.410584459</v>
+        <v>2950370.027117996</v>
       </c>
     </row>
     <row r="6">
@@ -28321,28 +28321,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2020.409676852897</v>
+        <v>2264.732459211232</v>
       </c>
       <c r="AB6" t="n">
-        <v>2764.413654054301</v>
+        <v>3098.706863637583</v>
       </c>
       <c r="AC6" t="n">
-        <v>2500.58189479029</v>
+        <v>2802.970629634293</v>
       </c>
       <c r="AD6" t="n">
-        <v>2020409.676852897</v>
+        <v>2264732.459211232</v>
       </c>
       <c r="AE6" t="n">
-        <v>2764413.654054301</v>
+        <v>3098706.863637583</v>
       </c>
       <c r="AF6" t="n">
         <v>4.430210219913958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2500581.89479029</v>
+        <v>2802970.629634293</v>
       </c>
     </row>
     <row r="7">
@@ -28427,28 +28427,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1939.049316304029</v>
+        <v>2183.439418470065</v>
       </c>
       <c r="AB7" t="n">
-        <v>2653.092819385558</v>
+        <v>2987.478138899499</v>
       </c>
       <c r="AC7" t="n">
-        <v>2399.885364342558</v>
+        <v>2702.357418274833</v>
       </c>
       <c r="AD7" t="n">
-        <v>1939049.316304029</v>
+        <v>2183439.418470065</v>
       </c>
       <c r="AE7" t="n">
-        <v>2653092.819385557</v>
+        <v>2987478.138899499</v>
       </c>
       <c r="AF7" t="n">
         <v>4.484722465760075e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.64583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2399885.364342558</v>
+        <v>2702357.418274833</v>
       </c>
     </row>
     <row r="8">
@@ -28533,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1921.237124123169</v>
+        <v>2165.52574106272</v>
       </c>
       <c r="AB8" t="n">
-        <v>2628.721392225246</v>
+        <v>2962.967855175099</v>
       </c>
       <c r="AC8" t="n">
-        <v>2377.839911984914</v>
+        <v>2680.18636162869</v>
       </c>
       <c r="AD8" t="n">
-        <v>1921237.124123169</v>
+        <v>2165525.74106272</v>
       </c>
       <c r="AE8" t="n">
-        <v>2628721.392225246</v>
+        <v>2962967.855175098</v>
       </c>
       <c r="AF8" t="n">
         <v>4.502711506889294e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.44583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2377839.911984914</v>
+        <v>2680186.36162869</v>
       </c>
     </row>
     <row r="9">
@@ -28639,28 +28639,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1928.464146184146</v>
+        <v>2172.752763123697</v>
       </c>
       <c r="AB9" t="n">
-        <v>2638.609722642786</v>
+        <v>2972.856185592638</v>
       </c>
       <c r="AC9" t="n">
-        <v>2386.784514025763</v>
+        <v>2689.130963669539</v>
       </c>
       <c r="AD9" t="n">
-        <v>1928464.146184146</v>
+        <v>2172752.763123697</v>
       </c>
       <c r="AE9" t="n">
-        <v>2638609.722642786</v>
+        <v>2972856.185592638</v>
       </c>
       <c r="AF9" t="n">
         <v>4.504891996723139e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2386784.514025763</v>
+        <v>2689130.963669538</v>
       </c>
     </row>
   </sheetData>
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3034.935308327572</v>
+        <v>3360.575837107842</v>
       </c>
       <c r="AB2" t="n">
-        <v>4152.53238075021</v>
+        <v>4598.088118473611</v>
       </c>
       <c r="AC2" t="n">
-        <v>3756.220518447053</v>
+        <v>4159.253041903522</v>
       </c>
       <c r="AD2" t="n">
-        <v>3034935.308327572</v>
+        <v>3360575.837107842</v>
       </c>
       <c r="AE2" t="n">
-        <v>4152532.38075021</v>
+        <v>4598088.118473611</v>
       </c>
       <c r="AF2" t="n">
         <v>3.759494569774516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.84583333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>3756220.518447053</v>
+        <v>4159253.041903522</v>
       </c>
     </row>
     <row r="3">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2160.728739682364</v>
+        <v>2430.533463956723</v>
       </c>
       <c r="AB3" t="n">
-        <v>2956.404386257731</v>
+        <v>3325.563112954465</v>
       </c>
       <c r="AC3" t="n">
-        <v>2674.249300972909</v>
+        <v>3008.176036911109</v>
       </c>
       <c r="AD3" t="n">
-        <v>2160728.739682364</v>
+        <v>2430533.463956723</v>
       </c>
       <c r="AE3" t="n">
-        <v>2956404.386257731</v>
+        <v>3325563.112954465</v>
       </c>
       <c r="AF3" t="n">
         <v>4.568205256417105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.84166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2674249.300972909</v>
+        <v>3008176.036911109</v>
       </c>
     </row>
     <row r="4">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1918.560490929267</v>
+        <v>2169.787445787099</v>
       </c>
       <c r="AB4" t="n">
-        <v>2625.059104604627</v>
+        <v>2968.798907592136</v>
       </c>
       <c r="AC4" t="n">
-        <v>2374.527147954754</v>
+        <v>2685.460906586979</v>
       </c>
       <c r="AD4" t="n">
-        <v>1918560.490929267</v>
+        <v>2169787.445787099</v>
       </c>
       <c r="AE4" t="n">
-        <v>2625059.104604627</v>
+        <v>2968798.907592136</v>
       </c>
       <c r="AF4" t="n">
         <v>4.845529965765396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.64166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2374527.147954754</v>
+        <v>2685460.906586979</v>
       </c>
     </row>
     <row r="5">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1794.186214192437</v>
+        <v>2036.039881824911</v>
       </c>
       <c r="AB5" t="n">
-        <v>2454.884732167458</v>
+        <v>2785.799590052987</v>
       </c>
       <c r="AC5" t="n">
-        <v>2220.593978781757</v>
+        <v>2519.926787072611</v>
       </c>
       <c r="AD5" t="n">
-        <v>1794186.214192437</v>
+        <v>2036039.881824911</v>
       </c>
       <c r="AE5" t="n">
-        <v>2454884.732167459</v>
+        <v>2785799.590052987</v>
       </c>
       <c r="AF5" t="n">
         <v>4.977152068436217e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>2220593.978781757</v>
+        <v>2519926.787072611</v>
       </c>
     </row>
     <row r="6">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1779.767903399669</v>
+        <v>2021.621571032144</v>
       </c>
       <c r="AB6" t="n">
-        <v>2435.156963249816</v>
+        <v>2766.071821135345</v>
       </c>
       <c r="AC6" t="n">
-        <v>2202.749000441516</v>
+        <v>2502.081808732371</v>
       </c>
       <c r="AD6" t="n">
-        <v>1779767.903399669</v>
+        <v>2021621.571032144</v>
       </c>
       <c r="AE6" t="n">
-        <v>2435156.963249816</v>
+        <v>2766071.821135345</v>
       </c>
       <c r="AF6" t="n">
         <v>4.997966726532999e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.03749999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>2202749.000441516</v>
+        <v>2502081.80873237</v>
       </c>
     </row>
   </sheetData>
@@ -54750,28 +54750,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1730.218334351801</v>
+        <v>2003.681467079908</v>
       </c>
       <c r="AB2" t="n">
-        <v>2367.361056905814</v>
+        <v>2741.525379446367</v>
       </c>
       <c r="AC2" t="n">
-        <v>2141.423440246834</v>
+        <v>2479.878044987042</v>
       </c>
       <c r="AD2" t="n">
-        <v>1730218.334351801</v>
+        <v>2003681.467079908</v>
       </c>
       <c r="AE2" t="n">
-        <v>2367361.056905814</v>
+        <v>2741525.379446367</v>
       </c>
       <c r="AF2" t="n">
         <v>5.853214768080252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2141423.440246834</v>
+        <v>2479878.044987042</v>
       </c>
     </row>
     <row r="3">
@@ -54856,28 +54856,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1504.732066429472</v>
+        <v>1759.959768253201</v>
       </c>
       <c r="AB3" t="n">
-        <v>2058.840797382421</v>
+        <v>2408.05459886917</v>
       </c>
       <c r="AC3" t="n">
-        <v>1862.34792128145</v>
+        <v>2178.233247678952</v>
       </c>
       <c r="AD3" t="n">
-        <v>1504732.066429472</v>
+        <v>1759959.768253201</v>
       </c>
       <c r="AE3" t="n">
-        <v>2058840.797382421</v>
+        <v>2408054.59886917</v>
       </c>
       <c r="AF3" t="n">
         <v>6.290444810238688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.63333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1862347.921281449</v>
+        <v>2178233.247678952</v>
       </c>
     </row>
     <row r="4">
@@ -54962,28 +54962,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1519.223058125787</v>
+        <v>1774.450759949515</v>
       </c>
       <c r="AB4" t="n">
-        <v>2078.668011518753</v>
+        <v>2427.881813005502</v>
       </c>
       <c r="AC4" t="n">
-        <v>1880.28285392828</v>
+        <v>2196.168180325783</v>
       </c>
       <c r="AD4" t="n">
-        <v>1519223.058125787</v>
+        <v>1774450.759949516</v>
       </c>
       <c r="AE4" t="n">
-        <v>2078668.011518753</v>
+        <v>2427881.813005502</v>
       </c>
       <c r="AF4" t="n">
         <v>6.289635124975432e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.64166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1880282.85392828</v>
+        <v>2196168.180325783</v>
       </c>
     </row>
   </sheetData>
@@ -55259,28 +55259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7961.215587906987</v>
+        <v>8451.722132064797</v>
       </c>
       <c r="AB2" t="n">
-        <v>10892.88639141855</v>
+        <v>11564.01908475679</v>
       </c>
       <c r="AC2" t="n">
-        <v>9853.284602483222</v>
+        <v>10460.36533350988</v>
       </c>
       <c r="AD2" t="n">
-        <v>7961215.587906986</v>
+        <v>8451722.132064797</v>
       </c>
       <c r="AE2" t="n">
-        <v>10892886.39141855</v>
+        <v>11564019.08475679</v>
       </c>
       <c r="AF2" t="n">
         <v>1.811654205260197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>100.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>9853284.602483222</v>
+        <v>10460365.33350988</v>
       </c>
     </row>
     <row r="3">
@@ -55365,28 +55365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3969.483206149891</v>
+        <v>4296.509671847714</v>
       </c>
       <c r="AB3" t="n">
-        <v>5431.222043894209</v>
+        <v>5878.67408165143</v>
       </c>
       <c r="AC3" t="n">
-        <v>4912.873834792756</v>
+        <v>5317.621678069288</v>
       </c>
       <c r="AD3" t="n">
-        <v>3969483.206149891</v>
+        <v>4296509.671847714</v>
       </c>
       <c r="AE3" t="n">
-        <v>5431222.04389421</v>
+        <v>5878674.081651431</v>
       </c>
       <c r="AF3" t="n">
         <v>2.746406879234786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.9875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4912873.834792756</v>
+        <v>5317621.678069288</v>
       </c>
     </row>
     <row r="4">
@@ -55471,28 +55471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3289.870312961843</v>
+        <v>3588.001307664234</v>
       </c>
       <c r="AB4" t="n">
-        <v>4501.345701029475</v>
+        <v>4909.261680592529</v>
       </c>
       <c r="AC4" t="n">
-        <v>4071.743585001421</v>
+        <v>4440.728635988637</v>
       </c>
       <c r="AD4" t="n">
-        <v>3289870.312961843</v>
+        <v>3588001.307664234</v>
       </c>
       <c r="AE4" t="n">
-        <v>4501345.701029475</v>
+        <v>4909261.680592529</v>
       </c>
       <c r="AF4" t="n">
         <v>3.080464605438827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>58.83333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>4071743.585001421</v>
+        <v>4440728.635988637</v>
       </c>
     </row>
     <row r="5">
@@ -55577,28 +55577,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3001.595975800546</v>
+        <v>3280.520265537283</v>
       </c>
       <c r="AB5" t="n">
-        <v>4106.916035159185</v>
+        <v>4488.552553648211</v>
       </c>
       <c r="AC5" t="n">
-        <v>3714.957732856294</v>
+        <v>4060.171397650931</v>
       </c>
       <c r="AD5" t="n">
-        <v>3001595.975800546</v>
+        <v>3280520.265537283</v>
       </c>
       <c r="AE5" t="n">
-        <v>4106916.035159184</v>
+        <v>4488552.553648211</v>
       </c>
       <c r="AF5" t="n">
         <v>3.253583062508109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.70000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>3714957.732856294</v>
+        <v>4060171.397650931</v>
       </c>
     </row>
     <row r="6">
@@ -55683,28 +55683,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2836.478866926981</v>
+        <v>3105.782721471501</v>
       </c>
       <c r="AB6" t="n">
-        <v>3880.995522345626</v>
+        <v>4249.468936981014</v>
       </c>
       <c r="AC6" t="n">
-        <v>3510.598756704239</v>
+        <v>3843.905585802497</v>
       </c>
       <c r="AD6" t="n">
-        <v>2836478.866926981</v>
+        <v>3105782.721471501</v>
       </c>
       <c r="AE6" t="n">
-        <v>3880995.522345626</v>
+        <v>4249468.936981014</v>
       </c>
       <c r="AF6" t="n">
         <v>3.357106159951549e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.98749999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>3510598.756704239</v>
+        <v>3843905.585802497</v>
       </c>
     </row>
     <row r="7">
@@ -55789,28 +55789,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2726.793183632816</v>
+        <v>2996.062872758555</v>
       </c>
       <c r="AB7" t="n">
-        <v>3730.918731471713</v>
+        <v>4099.345399473854</v>
       </c>
       <c r="AC7" t="n">
-        <v>3374.84508411724</v>
+        <v>3708.109628015317</v>
       </c>
       <c r="AD7" t="n">
-        <v>2726793.183632816</v>
+        <v>2996062.872758555</v>
       </c>
       <c r="AE7" t="n">
-        <v>3730918.731471713</v>
+        <v>4099345.399473853</v>
       </c>
       <c r="AF7" t="n">
         <v>3.428876374565698e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.85833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3374845.08411724</v>
+        <v>3708109.628015317</v>
       </c>
     </row>
     <row r="8">
@@ -55895,28 +55895,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2649.736521896536</v>
+        <v>2899.800517086478</v>
       </c>
       <c r="AB8" t="n">
-        <v>3625.486407384137</v>
+        <v>3967.634997647901</v>
       </c>
       <c r="AC8" t="n">
-        <v>3279.475073065389</v>
+        <v>3588.96948208293</v>
       </c>
       <c r="AD8" t="n">
-        <v>2649736.521896536</v>
+        <v>2899800.517086477</v>
       </c>
       <c r="AE8" t="n">
-        <v>3625486.407384137</v>
+        <v>3967634.997647902</v>
       </c>
       <c r="AF8" t="n">
         <v>3.480637923287418e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.07083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3279475.073065389</v>
+        <v>3588969.482082929</v>
       </c>
     </row>
     <row r="9">
@@ -56001,28 +56001,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2579.973345778645</v>
+        <v>2830.003175549808</v>
       </c>
       <c r="AB9" t="n">
-        <v>3530.033352085519</v>
+        <v>3872.135195716036</v>
       </c>
       <c r="AC9" t="n">
-        <v>3193.131923395271</v>
+        <v>3502.584047212632</v>
       </c>
       <c r="AD9" t="n">
-        <v>2579973.345778645</v>
+        <v>2830003.175549807</v>
       </c>
       <c r="AE9" t="n">
-        <v>3530033.352085519</v>
+        <v>3872135.195716036</v>
       </c>
       <c r="AF9" t="n">
         <v>3.520655255072277e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>52</v>
+        <v>51.47916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3193131.923395271</v>
+        <v>3502584.047212631</v>
       </c>
     </row>
     <row r="10">
@@ -56107,28 +56107,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2529.433495111791</v>
+        <v>2779.463324882953</v>
       </c>
       <c r="AB10" t="n">
-        <v>3460.882498742276</v>
+        <v>3802.984342372793</v>
       </c>
       <c r="AC10" t="n">
-        <v>3130.580730441277</v>
+        <v>3440.032854258638</v>
       </c>
       <c r="AD10" t="n">
-        <v>2529433.495111791</v>
+        <v>2779463.324882953</v>
       </c>
       <c r="AE10" t="n">
-        <v>3460882.498742276</v>
+        <v>3802984.342372792</v>
       </c>
       <c r="AF10" t="n">
         <v>3.550668253910922e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>52</v>
+        <v>51.04166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3130580.730441277</v>
+        <v>3440032.854258637</v>
       </c>
     </row>
     <row r="11">
@@ -56213,28 +56213,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2475.920768645489</v>
+        <v>2726.017918224355</v>
       </c>
       <c r="AB11" t="n">
-        <v>3387.664025576204</v>
+        <v>3729.857979137561</v>
       </c>
       <c r="AC11" t="n">
-        <v>3064.350125591404</v>
+        <v>3373.885568497084</v>
       </c>
       <c r="AD11" t="n">
-        <v>2475920.768645489</v>
+        <v>2726017.918224355</v>
       </c>
       <c r="AE11" t="n">
-        <v>3387664.025576204</v>
+        <v>3729857.979137561</v>
       </c>
       <c r="AF11" t="n">
         <v>3.574591658782304e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.70000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>3064350.125591404</v>
+        <v>3373885.568497084</v>
       </c>
     </row>
     <row r="12">
@@ -56319,28 +56319,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2430.277460070258</v>
+        <v>2680.27312442264</v>
       </c>
       <c r="AB12" t="n">
-        <v>3325.212837142912</v>
+        <v>3667.26793414018</v>
       </c>
       <c r="AC12" t="n">
-        <v>3007.859190931395</v>
+        <v>3317.269029548575</v>
       </c>
       <c r="AD12" t="n">
-        <v>2430277.460070258</v>
+        <v>2680273.12442264</v>
       </c>
       <c r="AE12" t="n">
-        <v>3325212.837142912</v>
+        <v>3667267.93414018</v>
       </c>
       <c r="AF12" t="n">
         <v>3.597210150660703e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>51</v>
+        <v>50.38333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3007859.190931395</v>
+        <v>3317269.029548575</v>
       </c>
     </row>
     <row r="13">
@@ -56425,28 +56425,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2389.850104453282</v>
+        <v>2630.293664451009</v>
       </c>
       <c r="AB13" t="n">
-        <v>3269.898345658708</v>
+        <v>3598.883832068833</v>
       </c>
       <c r="AC13" t="n">
-        <v>2957.823836880068</v>
+        <v>3255.411410201229</v>
       </c>
       <c r="AD13" t="n">
-        <v>2389850.104453282</v>
+        <v>2630293.664451009</v>
       </c>
       <c r="AE13" t="n">
-        <v>3269898.345658707</v>
+        <v>3598883.832068833</v>
       </c>
       <c r="AF13" t="n">
         <v>3.615913903560149e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.12083333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2957823.836880068</v>
+        <v>3255411.410201229</v>
       </c>
     </row>
     <row r="14">
@@ -56531,28 +56531,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2345.577299101346</v>
+        <v>2595.640283261432</v>
       </c>
       <c r="AB14" t="n">
-        <v>3209.32234019786</v>
+        <v>3551.46954712597</v>
       </c>
       <c r="AC14" t="n">
-        <v>2903.029120361449</v>
+        <v>3212.522278066949</v>
       </c>
       <c r="AD14" t="n">
-        <v>2345577.299101346</v>
+        <v>2595640.283261432</v>
       </c>
       <c r="AE14" t="n">
-        <v>3209322.34019786</v>
+        <v>3551469.54712597</v>
       </c>
       <c r="AF14" t="n">
         <v>3.62809309149467e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>50</v>
+        <v>49.95</v>
       </c>
       <c r="AH14" t="n">
-        <v>2903029.120361449</v>
+        <v>3212522.278066949</v>
       </c>
     </row>
     <row r="15">
@@ -56637,28 +56637,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2312.526619708633</v>
+        <v>2562.589603868718</v>
       </c>
       <c r="AB15" t="n">
-        <v>3164.100942559679</v>
+        <v>3506.24814948779</v>
       </c>
       <c r="AC15" t="n">
-        <v>2862.123589445228</v>
+        <v>3171.616747150727</v>
       </c>
       <c r="AD15" t="n">
-        <v>2312526.619708633</v>
+        <v>2562589.603868718</v>
       </c>
       <c r="AE15" t="n">
-        <v>3164100.942559679</v>
+        <v>3506248.14948779</v>
       </c>
       <c r="AF15" t="n">
         <v>3.63940233743387e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="AH15" t="n">
-        <v>2862123.589445228</v>
+        <v>3171616.747150727</v>
       </c>
     </row>
     <row r="16">
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2306.172975791312</v>
+        <v>2556.235959951397</v>
       </c>
       <c r="AB16" t="n">
-        <v>3155.407606649014</v>
+        <v>3497.554813577124</v>
       </c>
       <c r="AC16" t="n">
-        <v>2854.259933312703</v>
+        <v>3163.753091018202</v>
       </c>
       <c r="AD16" t="n">
-        <v>2306172.975791312</v>
+        <v>2556235.959951397</v>
       </c>
       <c r="AE16" t="n">
-        <v>3155407.606649014</v>
+        <v>3497554.813577124</v>
       </c>
       <c r="AF16" t="n">
         <v>3.642012163419839e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>50</v>
+        <v>49.76250000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>2854259.933312703</v>
+        <v>3163753.091018202</v>
       </c>
     </row>
     <row r="17">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2310.198640066254</v>
+        <v>2560.261624226339</v>
       </c>
       <c r="AB17" t="n">
-        <v>3160.915698109762</v>
+        <v>3503.062905037872</v>
       </c>
       <c r="AC17" t="n">
-        <v>2859.242340255093</v>
+        <v>3168.735497960593</v>
       </c>
       <c r="AD17" t="n">
-        <v>2310198.640066253</v>
+        <v>2560261.624226339</v>
       </c>
       <c r="AE17" t="n">
-        <v>3160915.698109762</v>
+        <v>3503062.905037872</v>
       </c>
       <c r="AF17" t="n">
         <v>3.644187018408147e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>49.73333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2859242.340255093</v>
+        <v>3168735.497960593</v>
       </c>
     </row>
     <row r="18">
@@ -56955,28 +56955,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2318.521632114852</v>
+        <v>2568.584616274938</v>
       </c>
       <c r="AB18" t="n">
-        <v>3172.30358301515</v>
+        <v>3514.450789943261</v>
       </c>
       <c r="AC18" t="n">
-        <v>2869.543381408107</v>
+        <v>3179.036539113607</v>
       </c>
       <c r="AD18" t="n">
-        <v>2318521.632114852</v>
+        <v>2568584.616274938</v>
       </c>
       <c r="AE18" t="n">
-        <v>3172303.58301515</v>
+        <v>3514450.789943261</v>
       </c>
       <c r="AF18" t="n">
         <v>3.64505696040347e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>50</v>
+        <v>49.725</v>
       </c>
       <c r="AH18" t="n">
-        <v>2869543.381408107</v>
+        <v>3179036.539113606</v>
       </c>
     </row>
   </sheetData>
@@ -57252,28 +57252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12633.49001647607</v>
+        <v>13256.51256296916</v>
       </c>
       <c r="AB2" t="n">
-        <v>17285.69839078726</v>
+        <v>18138.14532471406</v>
       </c>
       <c r="AC2" t="n">
-        <v>15635.97559699993</v>
+        <v>16407.06619196951</v>
       </c>
       <c r="AD2" t="n">
-        <v>12633490.01647606</v>
+        <v>13256512.56296916</v>
       </c>
       <c r="AE2" t="n">
-        <v>17285698.39078726</v>
+        <v>18138145.32471406</v>
       </c>
       <c r="AF2" t="n">
         <v>1.313534121134819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>125</v>
+        <v>124.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>15635975.59699993</v>
+        <v>16407066.19196951</v>
       </c>
     </row>
     <row r="3">
@@ -57358,28 +57358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5012.849791481754</v>
+        <v>5373.02562598371</v>
       </c>
       <c r="AB3" t="n">
-        <v>6858.802236030451</v>
+        <v>7351.610702632426</v>
       </c>
       <c r="AC3" t="n">
-        <v>6204.207777012844</v>
+        <v>6649.983295223334</v>
       </c>
       <c r="AD3" t="n">
-        <v>5012849.791481755</v>
+        <v>5373025.625983709</v>
       </c>
       <c r="AE3" t="n">
-        <v>6858802.236030451</v>
+        <v>7351610.702632426</v>
       </c>
       <c r="AF3" t="n">
         <v>2.280408429331006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>6204207.777012844</v>
+        <v>6649983.295223334</v>
       </c>
     </row>
     <row r="4">
@@ -57464,28 +57464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3992.077971485386</v>
+        <v>4303.504842214837</v>
       </c>
       <c r="AB4" t="n">
-        <v>5462.137198636931</v>
+        <v>5888.245182352865</v>
       </c>
       <c r="AC4" t="n">
-        <v>4940.838490556522</v>
+        <v>5326.279326352903</v>
       </c>
       <c r="AD4" t="n">
-        <v>3992077.971485386</v>
+        <v>4303504.842214838</v>
       </c>
       <c r="AE4" t="n">
-        <v>5462137.198636931</v>
+        <v>5888245.182352865</v>
       </c>
       <c r="AF4" t="n">
         <v>2.63178470230962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.22083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>4940838.490556521</v>
+        <v>5326279.326352903</v>
       </c>
     </row>
     <row r="5">
@@ -57570,28 +57570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3580.783926718671</v>
+        <v>3872.738139862203</v>
       </c>
       <c r="AB5" t="n">
-        <v>4899.386541574435</v>
+        <v>5298.851176108291</v>
       </c>
       <c r="AC5" t="n">
-        <v>4431.795966378585</v>
+        <v>4793.136256844649</v>
       </c>
       <c r="AD5" t="n">
-        <v>3580783.926718671</v>
+        <v>3872738.139862204</v>
       </c>
       <c r="AE5" t="n">
-        <v>4899386.541574435</v>
+        <v>5298851.176108291</v>
       </c>
       <c r="AF5" t="n">
         <v>2.817298797215555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.125</v>
       </c>
       <c r="AH5" t="n">
-        <v>4431795.966378585</v>
+        <v>4793136.256844649</v>
       </c>
     </row>
     <row r="6">
@@ -57676,28 +57676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3346.812725107401</v>
+        <v>3629.097929265677</v>
       </c>
       <c r="AB6" t="n">
-        <v>4579.256821448957</v>
+        <v>4965.491891322614</v>
       </c>
       <c r="AC6" t="n">
-        <v>4142.218977437011</v>
+        <v>4491.592314326236</v>
       </c>
       <c r="AD6" t="n">
-        <v>3346812.725107401</v>
+        <v>3629097.929265677</v>
       </c>
       <c r="AE6" t="n">
-        <v>4579256.821448958</v>
+        <v>4965491.891322614</v>
       </c>
       <c r="AF6" t="n">
         <v>2.932065991521769e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.84999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>4142218.977437011</v>
+        <v>4491592.314326236</v>
       </c>
     </row>
     <row r="7">
@@ -57782,28 +57782,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3203.863405754477</v>
+        <v>3476.344961312089</v>
       </c>
       <c r="AB7" t="n">
-        <v>4383.667256231394</v>
+        <v>4756.48854158317</v>
       </c>
       <c r="AC7" t="n">
-        <v>3965.296205812141</v>
+        <v>4302.535950947889</v>
       </c>
       <c r="AD7" t="n">
-        <v>3203863.405754477</v>
+        <v>3476344.961312089</v>
       </c>
       <c r="AE7" t="n">
-        <v>4383667.256231395</v>
+        <v>4756488.54158317</v>
       </c>
       <c r="AF7" t="n">
         <v>3.011459735528122e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.38333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3965296.205812141</v>
+        <v>4302535.950947889</v>
       </c>
     </row>
     <row r="8">
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3101.167247749765</v>
+        <v>3363.946639933198</v>
       </c>
       <c r="AB8" t="n">
-        <v>4243.153842214605</v>
+        <v>4602.700199608588</v>
       </c>
       <c r="AC8" t="n">
-        <v>3838.193194817304</v>
+        <v>4163.424952488073</v>
       </c>
       <c r="AD8" t="n">
-        <v>3101167.247749765</v>
+        <v>3363946.639933198</v>
       </c>
       <c r="AE8" t="n">
-        <v>4243153.842214605</v>
+        <v>4602700.199608589</v>
       </c>
       <c r="AF8" t="n">
         <v>3.067271179334569e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.39583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3838193.194817304</v>
+        <v>4163424.952488073</v>
       </c>
     </row>
     <row r="9">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3020.35212692605</v>
+        <v>3283.198838917187</v>
       </c>
       <c r="AB9" t="n">
-        <v>4132.579028592088</v>
+        <v>4492.217495916913</v>
       </c>
       <c r="AC9" t="n">
-        <v>3738.171486214198</v>
+        <v>4063.486562973288</v>
       </c>
       <c r="AD9" t="n">
-        <v>3020352.12692605</v>
+        <v>3283198.838917187</v>
       </c>
       <c r="AE9" t="n">
-        <v>4132579.028592088</v>
+        <v>4492217.495916913</v>
       </c>
       <c r="AF9" t="n">
         <v>3.110112358031066e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.65416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3738171.486214199</v>
+        <v>4063486.562973287</v>
       </c>
     </row>
     <row r="10">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2962.202906944307</v>
+        <v>3215.280135753561</v>
       </c>
       <c r="AB10" t="n">
-        <v>4053.016700450532</v>
+        <v>4399.288129886723</v>
       </c>
       <c r="AC10" t="n">
-        <v>3666.202475004046</v>
+        <v>3979.426245209838</v>
       </c>
       <c r="AD10" t="n">
-        <v>2962202.906944307</v>
+        <v>3215280.135753561</v>
       </c>
       <c r="AE10" t="n">
-        <v>4053016.700450532</v>
+        <v>4399288.129886723</v>
       </c>
       <c r="AF10" t="n">
         <v>3.142341501637606e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.11666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3666202.475004046</v>
+        <v>3979426.245209838</v>
       </c>
     </row>
     <row r="11">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2902.087282537906</v>
+        <v>3164.899829110262</v>
       </c>
       <c r="AB11" t="n">
-        <v>3970.763851023517</v>
+        <v>4330.355571715093</v>
       </c>
       <c r="AC11" t="n">
-        <v>3591.799722083749</v>
+        <v>3917.072513642658</v>
       </c>
       <c r="AD11" t="n">
-        <v>2902087.282537905</v>
+        <v>3164899.829110262</v>
       </c>
       <c r="AE11" t="n">
-        <v>3970763.851023517</v>
+        <v>4330355.571715093</v>
       </c>
       <c r="AF11" t="n">
         <v>3.169854185204164e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>52</v>
+        <v>51.66249999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>3591799.722083749</v>
+        <v>3917072.513642658</v>
       </c>
     </row>
     <row r="12">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2859.529334911337</v>
+        <v>3112.57239830181</v>
       </c>
       <c r="AB12" t="n">
-        <v>3912.534189556702</v>
+        <v>4258.758872359645</v>
       </c>
       <c r="AC12" t="n">
-        <v>3539.127417781486</v>
+        <v>3852.308902787098</v>
       </c>
       <c r="AD12" t="n">
-        <v>2859529.334911337</v>
+        <v>3112572.39830181</v>
       </c>
       <c r="AE12" t="n">
-        <v>3912534.189556702</v>
+        <v>4258758.872359645</v>
       </c>
       <c r="AF12" t="n">
         <v>3.193829523740736e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>52</v>
+        <v>51.27916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>3539127.417781486</v>
+        <v>3852308.902787098</v>
       </c>
     </row>
     <row r="13">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2813.888050194737</v>
+        <v>3076.666431348313</v>
       </c>
       <c r="AB13" t="n">
-        <v>3850.085770256075</v>
+        <v>4209.630744314404</v>
       </c>
       <c r="AC13" t="n">
-        <v>3482.638987972006</v>
+        <v>3807.869494330735</v>
       </c>
       <c r="AD13" t="n">
-        <v>2813888.050194738</v>
+        <v>3076666.431348313</v>
       </c>
       <c r="AE13" t="n">
-        <v>3850085.770256075</v>
+        <v>4209630.744314404</v>
       </c>
       <c r="AF13" t="n">
         <v>3.212695363900662e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>51</v>
+        <v>50.975</v>
       </c>
       <c r="AH13" t="n">
-        <v>3482638.987972006</v>
+        <v>3807869.494330735</v>
       </c>
     </row>
     <row r="14">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2782.261429519649</v>
+        <v>3035.371812717826</v>
       </c>
       <c r="AB14" t="n">
-        <v>3806.812832580385</v>
+        <v>4153.12962531417</v>
       </c>
       <c r="AC14" t="n">
-        <v>3443.495958734137</v>
+        <v>3756.760762828067</v>
       </c>
       <c r="AD14" t="n">
-        <v>2782261.429519649</v>
+        <v>3035371.812717826</v>
       </c>
       <c r="AE14" t="n">
-        <v>3806812.832580385</v>
+        <v>4153129.62531417</v>
       </c>
       <c r="AF14" t="n">
         <v>3.226451705683941e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>50.75416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>3443495.958734137</v>
+        <v>3756760.762828067</v>
       </c>
     </row>
     <row r="15">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2748.92988623038</v>
+        <v>3002.040269428558</v>
       </c>
       <c r="AB15" t="n">
-        <v>3761.207144568096</v>
+        <v>4107.52393730188</v>
       </c>
       <c r="AC15" t="n">
-        <v>3402.242813577757</v>
+        <v>3715.507617671688</v>
       </c>
       <c r="AD15" t="n">
-        <v>2748929.88623038</v>
+        <v>3002040.269428558</v>
       </c>
       <c r="AE15" t="n">
-        <v>3761207.144568096</v>
+        <v>4107523.937301881</v>
       </c>
       <c r="AF15" t="n">
         <v>3.241387162477215e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>51</v>
+        <v>50.52083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>3402242.813577757</v>
+        <v>3715507.617671688</v>
       </c>
     </row>
     <row r="16">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2719.761214922173</v>
+        <v>2972.770112893866</v>
       </c>
       <c r="AB16" t="n">
-        <v>3721.297281653246</v>
+        <v>4067.475217822942</v>
       </c>
       <c r="AC16" t="n">
-        <v>3366.141891965658</v>
+        <v>3679.281091771089</v>
       </c>
       <c r="AD16" t="n">
-        <v>2719761.214922173</v>
+        <v>2972770.112893865</v>
       </c>
       <c r="AE16" t="n">
-        <v>3721297.281653246</v>
+        <v>4067475.217822942</v>
       </c>
       <c r="AF16" t="n">
         <v>3.253571350913834e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>50.33333333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>3366141.891965657</v>
+        <v>3679281.091771089</v>
       </c>
     </row>
     <row r="17">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2691.251054177259</v>
+        <v>2944.259952148951</v>
       </c>
       <c r="AB17" t="n">
-        <v>3682.288421942531</v>
+        <v>4028.466358112227</v>
       </c>
       <c r="AC17" t="n">
-        <v>3330.855983076456</v>
+        <v>3643.995182881888</v>
       </c>
       <c r="AD17" t="n">
-        <v>2691251.05417726</v>
+        <v>2944259.952148952</v>
       </c>
       <c r="AE17" t="n">
-        <v>3682288.421942531</v>
+        <v>4028466.358112227</v>
       </c>
       <c r="AF17" t="n">
         <v>3.264183386003792e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>51</v>
+        <v>50.17083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>3330855.983076456</v>
+        <v>3643995.182881888</v>
       </c>
     </row>
     <row r="18">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2665.829066529997</v>
+        <v>2909.169966546291</v>
       </c>
       <c r="AB18" t="n">
-        <v>3647.504936904604</v>
+        <v>3980.454691749756</v>
       </c>
       <c r="AC18" t="n">
-        <v>3299.392185031622</v>
+        <v>3600.565682572256</v>
       </c>
       <c r="AD18" t="n">
-        <v>2665829.066529997</v>
+        <v>2909169.966546291</v>
       </c>
       <c r="AE18" t="n">
-        <v>3647504.936904604</v>
+        <v>3980454.691749756</v>
       </c>
       <c r="AF18" t="n">
         <v>3.27243719107376e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50.04583333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>3299392.185031622</v>
+        <v>3600565.682572256</v>
       </c>
     </row>
     <row r="19">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2629.023858232425</v>
+        <v>2882.100076011822</v>
       </c>
       <c r="AB19" t="n">
-        <v>3597.14642718067</v>
+        <v>3943.416473281207</v>
       </c>
       <c r="AC19" t="n">
-        <v>3253.83982079713</v>
+        <v>3567.062339690881</v>
       </c>
       <c r="AD19" t="n">
-        <v>2629023.858232425</v>
+        <v>2882100.076011822</v>
       </c>
       <c r="AE19" t="n">
-        <v>3597146.42718067</v>
+        <v>3943416.473281207</v>
       </c>
       <c r="AF19" t="n">
         <v>3.282656187827053e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>50</v>
+        <v>49.8875</v>
       </c>
       <c r="AH19" t="n">
-        <v>3253839.82079713</v>
+        <v>3567062.339690881</v>
       </c>
     </row>
     <row r="20">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2605.70004472218</v>
+        <v>2858.776262501577</v>
       </c>
       <c r="AB20" t="n">
-        <v>3565.233756561921</v>
+        <v>3911.503802662457</v>
       </c>
       <c r="AC20" t="n">
-        <v>3224.972850672521</v>
+        <v>3538.195369566271</v>
       </c>
       <c r="AD20" t="n">
-        <v>2605700.04472218</v>
+        <v>2858776.262501577</v>
       </c>
       <c r="AE20" t="n">
-        <v>3565233.756561921</v>
+        <v>3911503.802662457</v>
       </c>
       <c r="AF20" t="n">
         <v>3.288944801213694e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>3224972.850672521</v>
+        <v>3538195.369566271</v>
       </c>
     </row>
     <row r="21">
@@ -59266,28 +59266,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2583.230558090763</v>
+        <v>2836.306775870161</v>
       </c>
       <c r="AB21" t="n">
-        <v>3534.490013669026</v>
+        <v>3880.760059769562</v>
       </c>
       <c r="AC21" t="n">
-        <v>3197.163247452211</v>
+        <v>3510.385766345962</v>
       </c>
       <c r="AD21" t="n">
-        <v>2583230.558090763</v>
+        <v>2836306.775870161</v>
       </c>
       <c r="AE21" t="n">
-        <v>3534490.013669026</v>
+        <v>3880760.059769562</v>
       </c>
       <c r="AF21" t="n">
         <v>3.295233414600336e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>50</v>
+        <v>49.69583333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>3197163.247452211</v>
+        <v>3510385.766345961</v>
       </c>
     </row>
     <row r="22">
@@ -59372,28 +59372,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2565.320299469893</v>
+        <v>2818.39651724929</v>
       </c>
       <c r="AB22" t="n">
-        <v>3509.984407679105</v>
+        <v>3856.254453779642</v>
       </c>
       <c r="AC22" t="n">
-        <v>3174.996422104135</v>
+        <v>3488.218940997886</v>
       </c>
       <c r="AD22" t="n">
-        <v>2565320.299469893</v>
+        <v>2818396.51724929</v>
       </c>
       <c r="AE22" t="n">
-        <v>3509984.407679105</v>
+        <v>3856254.453779642</v>
       </c>
       <c r="AF22" t="n">
         <v>3.299163797966988e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>50</v>
+        <v>49.6375</v>
       </c>
       <c r="AH22" t="n">
-        <v>3174996.422104135</v>
+        <v>3488218.940997886</v>
       </c>
     </row>
     <row r="23">
@@ -59478,28 +59478,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2554.83925637771</v>
+        <v>2807.915474157107</v>
       </c>
       <c r="AB23" t="n">
-        <v>3495.643782129392</v>
+        <v>3841.913828229929</v>
       </c>
       <c r="AC23" t="n">
-        <v>3162.024445729693</v>
+        <v>3475.246964623443</v>
       </c>
       <c r="AD23" t="n">
-        <v>2554839.25637771</v>
+        <v>2807915.474157107</v>
       </c>
       <c r="AE23" t="n">
-        <v>3495643.782129392</v>
+        <v>3841913.828229929</v>
       </c>
       <c r="AF23" t="n">
         <v>3.303880258006969e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>50</v>
+        <v>49.56666666666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>3162024.445729693</v>
+        <v>3475246.964623443</v>
       </c>
     </row>
     <row r="24">
@@ -59584,28 +59584,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2555.153910056416</v>
+        <v>2808.230127835812</v>
       </c>
       <c r="AB24" t="n">
-        <v>3496.074305174137</v>
+        <v>3842.344351274675</v>
       </c>
       <c r="AC24" t="n">
-        <v>3162.41388025929</v>
+        <v>3475.636399153041</v>
       </c>
       <c r="AD24" t="n">
-        <v>2555153.910056416</v>
+        <v>2808230.127835812</v>
       </c>
       <c r="AE24" t="n">
-        <v>3496074.305174137</v>
+        <v>3842344.351274675</v>
       </c>
       <c r="AF24" t="n">
         <v>3.303487219670304e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>50</v>
+        <v>49.57083333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>3162413.88025929</v>
+        <v>3475636.399153041</v>
       </c>
     </row>
     <row r="25">
@@ -59690,28 +59690,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2557.943044165741</v>
+        <v>2811.019261945138</v>
       </c>
       <c r="AB25" t="n">
-        <v>3499.89052151043</v>
+        <v>3846.160567610967</v>
       </c>
       <c r="AC25" t="n">
-        <v>3165.865882264541</v>
+        <v>3479.088401158291</v>
       </c>
       <c r="AD25" t="n">
-        <v>2557943.044165741</v>
+        <v>2811019.261945138</v>
       </c>
       <c r="AE25" t="n">
-        <v>3499890.52151043</v>
+        <v>3846160.567610967</v>
       </c>
       <c r="AF25" t="n">
         <v>3.305845449690294e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>50</v>
+        <v>49.5375</v>
       </c>
       <c r="AH25" t="n">
-        <v>3165865.882264541</v>
+        <v>3479088.401158291</v>
       </c>
     </row>
     <row r="26">
@@ -59796,28 +59796,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2566.959705037116</v>
+        <v>2820.035922816513</v>
       </c>
       <c r="AB26" t="n">
-        <v>3512.227514701649</v>
+        <v>3858.497560802187</v>
       </c>
       <c r="AC26" t="n">
-        <v>3177.025450140668</v>
+        <v>3490.247969034419</v>
       </c>
       <c r="AD26" t="n">
-        <v>2566959.705037116</v>
+        <v>2820035.922816514</v>
       </c>
       <c r="AE26" t="n">
-        <v>3512227.51470165</v>
+        <v>3858497.560802187</v>
       </c>
       <c r="AF26" t="n">
         <v>3.305845449690294e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>50</v>
+        <v>49.5375</v>
       </c>
       <c r="AH26" t="n">
-        <v>3177025.450140668</v>
+        <v>3490247.969034419</v>
       </c>
     </row>
   </sheetData>
@@ -60093,28 +60093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1386.278024340008</v>
+        <v>1648.104270295604</v>
       </c>
       <c r="AB2" t="n">
-        <v>1896.766751172098</v>
+        <v>2255.008971847291</v>
       </c>
       <c r="AC2" t="n">
-        <v>1715.741994569088</v>
+        <v>2039.794080499155</v>
       </c>
       <c r="AD2" t="n">
-        <v>1386278.024340008</v>
+        <v>1648104.270295604</v>
       </c>
       <c r="AE2" t="n">
-        <v>1896766.751172098</v>
+        <v>2255008.971847291</v>
       </c>
       <c r="AF2" t="n">
         <v>7.029608561254156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.51666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1715741.994569088</v>
+        <v>2039794.080499155</v>
       </c>
     </row>
     <row r="3">
@@ -60199,28 +60199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1403.390972441946</v>
+        <v>1665.217218397543</v>
       </c>
       <c r="AB3" t="n">
-        <v>1920.181441735158</v>
+        <v>2278.423662410351</v>
       </c>
       <c r="AC3" t="n">
-        <v>1736.922019927534</v>
+        <v>2060.974105857601</v>
       </c>
       <c r="AD3" t="n">
-        <v>1403390.972441946</v>
+        <v>1665217.218397543</v>
       </c>
       <c r="AE3" t="n">
-        <v>1920181.441735158</v>
+        <v>2278423.662410351</v>
       </c>
       <c r="AF3" t="n">
         <v>7.028655006104773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.525</v>
       </c>
       <c r="AH3" t="n">
-        <v>1736922.019927534</v>
+        <v>2060974.105857601</v>
       </c>
     </row>
   </sheetData>
@@ -60496,28 +60496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4498.291185326432</v>
+        <v>4875.879849101746</v>
       </c>
       <c r="AB2" t="n">
-        <v>6154.760450365132</v>
+        <v>6671.393918178729</v>
       </c>
       <c r="AC2" t="n">
-        <v>5567.358751242597</v>
+        <v>6034.685445987671</v>
       </c>
       <c r="AD2" t="n">
-        <v>4498291.185326432</v>
+        <v>4875879.849101746</v>
       </c>
       <c r="AE2" t="n">
-        <v>6154760.450365132</v>
+        <v>6671393.918178729</v>
       </c>
       <c r="AF2" t="n">
         <v>2.766011889603441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5567358.751242597</v>
+        <v>6034685.445987672</v>
       </c>
     </row>
     <row r="3">
@@ -60602,28 +60602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2832.055939765144</v>
+        <v>3124.723952603533</v>
       </c>
       <c r="AB3" t="n">
-        <v>3874.943878277026</v>
+        <v>4275.385165044004</v>
       </c>
       <c r="AC3" t="n">
-        <v>3505.124673052011</v>
+        <v>3867.34840543281</v>
       </c>
       <c r="AD3" t="n">
-        <v>2832055.939765144</v>
+        <v>3124723.952603533</v>
       </c>
       <c r="AE3" t="n">
-        <v>3874943.878277026</v>
+        <v>4275385.165044004</v>
       </c>
       <c r="AF3" t="n">
         <v>3.638285513124315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.53333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3505124.673052011</v>
+        <v>3867348.40543281</v>
       </c>
     </row>
     <row r="4">
@@ -60708,28 +60708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2457.546848929378</v>
+        <v>2731.294480627958</v>
       </c>
       <c r="AB4" t="n">
-        <v>3362.524018020492</v>
+        <v>3737.077604603676</v>
       </c>
       <c r="AC4" t="n">
-        <v>3041.609445072589</v>
+        <v>3380.41616304152</v>
       </c>
       <c r="AD4" t="n">
-        <v>2457546.848929378</v>
+        <v>2731294.480627958</v>
       </c>
       <c r="AE4" t="n">
-        <v>3362524.018020492</v>
+        <v>3737077.604603676</v>
       </c>
       <c r="AF4" t="n">
         <v>3.939266697879135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.98333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3041609.445072589</v>
+        <v>3380416.16304152</v>
       </c>
     </row>
     <row r="5">
@@ -60814,28 +60814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2282.024074361105</v>
+        <v>2546.32859819917</v>
       </c>
       <c r="AB5" t="n">
-        <v>3122.366014337863</v>
+        <v>3483.999124145773</v>
       </c>
       <c r="AC5" t="n">
-        <v>2824.371784197564</v>
+        <v>3151.49113756065</v>
       </c>
       <c r="AD5" t="n">
-        <v>2282024.074361105</v>
+        <v>2546328.59819917</v>
       </c>
       <c r="AE5" t="n">
-        <v>3122366.014337863</v>
+        <v>3483999.124145773</v>
       </c>
       <c r="AF5" t="n">
         <v>4.092616351597047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.925</v>
       </c>
       <c r="AH5" t="n">
-        <v>2824371.784197564</v>
+        <v>3151491.13756065</v>
       </c>
     </row>
     <row r="6">
@@ -60920,28 +60920,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2166.243194534179</v>
+        <v>2421.138775930513</v>
       </c>
       <c r="AB6" t="n">
-        <v>2963.949506666563</v>
+        <v>3312.70888633262</v>
       </c>
       <c r="AC6" t="n">
-        <v>2681.074325679564</v>
+        <v>2996.548599637033</v>
       </c>
       <c r="AD6" t="n">
-        <v>2166243.194534179</v>
+        <v>2421138.775930513</v>
       </c>
       <c r="AE6" t="n">
-        <v>2963949.506666563</v>
+        <v>3312708.88633262</v>
       </c>
       <c r="AF6" t="n">
         <v>4.188264949170254e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.71666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2681074.325679564</v>
+        <v>2996548.599637032</v>
       </c>
     </row>
     <row r="7">
@@ -61026,28 +61026,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2075.573855165139</v>
+        <v>2330.435271142692</v>
       </c>
       <c r="AB7" t="n">
-        <v>2839.891716492898</v>
+        <v>3188.604349525702</v>
       </c>
       <c r="AC7" t="n">
-        <v>2568.856436883873</v>
+        <v>2884.28842564116</v>
       </c>
       <c r="AD7" t="n">
-        <v>2075573.85516514</v>
+        <v>2330435.271142692</v>
       </c>
       <c r="AE7" t="n">
-        <v>2839891.716492898</v>
+        <v>3188604.349525702</v>
       </c>
       <c r="AF7" t="n">
         <v>4.250644469326694e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.95416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2568856.436883873</v>
+        <v>2884288.42564116</v>
       </c>
     </row>
     <row r="8">
@@ -61132,28 +61132,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2012.051559992532</v>
+        <v>2257.436713720646</v>
       </c>
       <c r="AB8" t="n">
-        <v>2752.977709831858</v>
+        <v>3088.724502791788</v>
       </c>
       <c r="AC8" t="n">
-        <v>2490.237381033987</v>
+        <v>2793.94097129729</v>
       </c>
       <c r="AD8" t="n">
-        <v>2012051.559992532</v>
+        <v>2257436.713720646</v>
       </c>
       <c r="AE8" t="n">
-        <v>2752977.709831858</v>
+        <v>3088724.502791788</v>
       </c>
       <c r="AF8" t="n">
         <v>4.295869621440112e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2490237.381033987</v>
+        <v>2793940.97129729</v>
       </c>
     </row>
     <row r="9">
@@ -61238,28 +61238,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1993.278428002666</v>
+        <v>2238.66358173078</v>
       </c>
       <c r="AB9" t="n">
-        <v>2727.291482431192</v>
+        <v>3063.038275391122</v>
       </c>
       <c r="AC9" t="n">
-        <v>2467.002611125595</v>
+        <v>2770.706201388897</v>
       </c>
       <c r="AD9" t="n">
-        <v>1993278.428002666</v>
+        <v>2238663.58173078</v>
       </c>
       <c r="AE9" t="n">
-        <v>2727291.482431192</v>
+        <v>3063038.275391122</v>
       </c>
       <c r="AF9" t="n">
         <v>4.310424842809948e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.24583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2467002.611125595</v>
+        <v>2770706.201388897</v>
       </c>
     </row>
     <row r="10">
@@ -61344,28 +61344,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1997.829881796253</v>
+        <v>2243.215035524368</v>
       </c>
       <c r="AB10" t="n">
-        <v>2733.518982307548</v>
+        <v>3069.265775267478</v>
       </c>
       <c r="AC10" t="n">
-        <v>2472.635767154102</v>
+        <v>2776.339357417405</v>
       </c>
       <c r="AD10" t="n">
-        <v>1997829.881796253</v>
+        <v>2243215.035524368</v>
       </c>
       <c r="AE10" t="n">
-        <v>2733518.982307548</v>
+        <v>3069265.775267478</v>
       </c>
       <c r="AF10" t="n">
         <v>4.312504160148496e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.22916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2472635.767154102</v>
+        <v>2776339.357417405</v>
       </c>
     </row>
   </sheetData>
@@ -61641,28 +61641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6362.143674595459</v>
+        <v>6811.123731947858</v>
       </c>
       <c r="AB2" t="n">
-        <v>8704.96565355167</v>
+        <v>9319.27997562344</v>
       </c>
       <c r="AC2" t="n">
-        <v>7874.175949072398</v>
+        <v>8429.860974441182</v>
       </c>
       <c r="AD2" t="n">
-        <v>6362143.674595458</v>
+        <v>6811123.731947858</v>
       </c>
       <c r="AE2" t="n">
-        <v>8704965.65355167</v>
+        <v>9319279.97562344</v>
       </c>
       <c r="AF2" t="n">
         <v>2.131080273348916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.50833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7874175.949072398</v>
+        <v>8429860.974441182</v>
       </c>
     </row>
     <row r="3">
@@ -61747,28 +61747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3504.067056614406</v>
+        <v>3809.723905759831</v>
       </c>
       <c r="AB3" t="n">
-        <v>4794.419135388332</v>
+        <v>5212.632321017612</v>
       </c>
       <c r="AC3" t="n">
-        <v>4336.846502116206</v>
+        <v>4715.146008274906</v>
       </c>
       <c r="AD3" t="n">
-        <v>3504067.056614406</v>
+        <v>3809723.905759831</v>
       </c>
       <c r="AE3" t="n">
-        <v>4794419.135388331</v>
+        <v>5212632.321017613</v>
       </c>
       <c r="AF3" t="n">
         <v>3.046185768659691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.31666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4336846.502116206</v>
+        <v>4715146.008274906</v>
       </c>
     </row>
     <row r="4">
@@ -61853,28 +61853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2968.478614802157</v>
+        <v>3245.470620100216</v>
       </c>
       <c r="AB4" t="n">
-        <v>4061.603400806333</v>
+        <v>4440.596082479987</v>
       </c>
       <c r="AC4" t="n">
-        <v>3673.969672729399</v>
+        <v>4016.791824783675</v>
       </c>
       <c r="AD4" t="n">
-        <v>2968478.614802157</v>
+        <v>3245470.620100216</v>
       </c>
       <c r="AE4" t="n">
-        <v>4061603.400806333</v>
+        <v>4440596.082479986</v>
       </c>
       <c r="AF4" t="n">
         <v>3.364644332531119e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.32083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3673969.672729399</v>
+        <v>4016791.824783674</v>
       </c>
     </row>
     <row r="5">
@@ -61959,28 +61959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2724.712213707761</v>
+        <v>2992.216590864403</v>
       </c>
       <c r="AB5" t="n">
-        <v>3728.071456614341</v>
+        <v>4094.082746900292</v>
       </c>
       <c r="AC5" t="n">
-        <v>3372.269549176079</v>
+        <v>3703.349235617198</v>
       </c>
       <c r="AD5" t="n">
-        <v>2724712.213707761</v>
+        <v>2992216.590864403</v>
       </c>
       <c r="AE5" t="n">
-        <v>3728071.456614341</v>
+        <v>4094082.746900293</v>
       </c>
       <c r="AF5" t="n">
         <v>3.531279627580122e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.61249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>3372269.549176079</v>
+        <v>3703349.235617198</v>
       </c>
     </row>
     <row r="6">
@@ -62065,28 +62065,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2587.360156649641</v>
+        <v>2845.242266049454</v>
       </c>
       <c r="AB6" t="n">
-        <v>3540.140312602312</v>
+        <v>3892.98599163888</v>
       </c>
       <c r="AC6" t="n">
-        <v>3202.274289785549</v>
+        <v>3521.444872436874</v>
       </c>
       <c r="AD6" t="n">
-        <v>2587360.156649641</v>
+        <v>2845242.266049454</v>
       </c>
       <c r="AE6" t="n">
-        <v>3540140.312602312</v>
+        <v>3892985.99163888</v>
       </c>
       <c r="AF6" t="n">
         <v>3.633112307887846e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.0875</v>
       </c>
       <c r="AH6" t="n">
-        <v>3202274.289785549</v>
+        <v>3521444.872436874</v>
       </c>
     </row>
     <row r="7">
@@ -62171,28 +62171,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2488.393611174321</v>
+        <v>2736.754938043794</v>
       </c>
       <c r="AB7" t="n">
-        <v>3404.729918987129</v>
+        <v>3744.548843338402</v>
       </c>
       <c r="AC7" t="n">
-        <v>3079.787274087322</v>
+        <v>3387.174357237352</v>
       </c>
       <c r="AD7" t="n">
-        <v>2488393.611174321</v>
+        <v>2736754.938043794</v>
       </c>
       <c r="AE7" t="n">
-        <v>3404729.918987129</v>
+        <v>3744548.843338402</v>
       </c>
       <c r="AF7" t="n">
         <v>3.70208080500535e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.09583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3079787.274087322</v>
+        <v>3387174.357237352</v>
       </c>
     </row>
     <row r="8">
@@ -62277,28 +62277,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2409.25112924673</v>
+        <v>2657.578290697422</v>
       </c>
       <c r="AB8" t="n">
-        <v>3296.44368369391</v>
+        <v>3636.215861411935</v>
       </c>
       <c r="AC8" t="n">
-        <v>2981.835725109806</v>
+        <v>3289.180523059656</v>
       </c>
       <c r="AD8" t="n">
-        <v>2409251.12924673</v>
+        <v>2657578.290697422</v>
       </c>
       <c r="AE8" t="n">
-        <v>3296443.68369391</v>
+        <v>3636215.861411935</v>
       </c>
       <c r="AF8" t="n">
         <v>3.75160851770047e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>52</v>
+        <v>51.40833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2981835.725109806</v>
+        <v>3289180.523059656</v>
       </c>
     </row>
     <row r="9">
@@ -62383,28 +62383,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2338.34040165753</v>
+        <v>2596.221500027487</v>
       </c>
       <c r="AB9" t="n">
-        <v>3199.420497845848</v>
+        <v>3552.264793546761</v>
       </c>
       <c r="AC9" t="n">
-        <v>2894.072295946191</v>
+        <v>3213.241627285475</v>
       </c>
       <c r="AD9" t="n">
-        <v>2338340.40165753</v>
+        <v>2596221.500027487</v>
       </c>
       <c r="AE9" t="n">
-        <v>3199420.497845848</v>
+        <v>3552264.793546761</v>
       </c>
       <c r="AF9" t="n">
         <v>3.790027210725657e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>50.8875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2894072.295946191</v>
+        <v>3213241.627285475</v>
       </c>
     </row>
     <row r="10">
@@ -62489,28 +62489,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2289.834172741016</v>
+        <v>2538.228653999412</v>
       </c>
       <c r="AB10" t="n">
-        <v>3133.05213549848</v>
+        <v>3472.916423147346</v>
       </c>
       <c r="AC10" t="n">
-        <v>2834.038036952676</v>
+        <v>3141.466153990846</v>
       </c>
       <c r="AD10" t="n">
-        <v>2289834.172741016</v>
+        <v>2538228.653999412</v>
       </c>
       <c r="AE10" t="n">
-        <v>3133052.13549848</v>
+        <v>3472916.423147346</v>
       </c>
       <c r="AF10" t="n">
         <v>3.818262635720071e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>51</v>
+        <v>50.5125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2834038.036952676</v>
+        <v>3141466.153990846</v>
       </c>
     </row>
     <row r="11">
@@ -62595,28 +62595,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2237.533367381051</v>
+        <v>2485.826363412963</v>
       </c>
       <c r="AB11" t="n">
-        <v>3061.491866256285</v>
+        <v>3401.217297341061</v>
       </c>
       <c r="AC11" t="n">
-        <v>2769.30737937149</v>
+        <v>3076.609892121161</v>
       </c>
       <c r="AD11" t="n">
-        <v>2237533.367381051</v>
+        <v>2485826.363412963</v>
       </c>
       <c r="AE11" t="n">
-        <v>3061491.866256285</v>
+        <v>3401217.297341061</v>
       </c>
       <c r="AF11" t="n">
         <v>3.844183681616583e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>50.17083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2769307.37937149</v>
+        <v>3076609.89212116</v>
       </c>
     </row>
     <row r="12">
@@ -62701,28 +62701,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2191.324296090016</v>
+        <v>2439.684611929631</v>
       </c>
       <c r="AB12" t="n">
-        <v>2998.266576315536</v>
+        <v>3338.084117331155</v>
       </c>
       <c r="AC12" t="n">
-        <v>2712.116222365438</v>
+        <v>3019.502054203427</v>
       </c>
       <c r="AD12" t="n">
-        <v>2191324.296090016</v>
+        <v>2439684.611929631</v>
       </c>
       <c r="AE12" t="n">
-        <v>2998266.576315536</v>
+        <v>3338084.117331155</v>
       </c>
       <c r="AF12" t="n">
         <v>3.860384335301903e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>49.95833333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2712116.222365438</v>
+        <v>3019502.054203427</v>
       </c>
     </row>
     <row r="13">
@@ -62807,28 +62807,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2179.041899274059</v>
+        <v>2427.402215113677</v>
       </c>
       <c r="AB13" t="n">
-        <v>2981.461259130668</v>
+        <v>3321.278800146461</v>
       </c>
       <c r="AC13" t="n">
-        <v>2696.914781066395</v>
+        <v>3004.30061290443</v>
       </c>
       <c r="AD13" t="n">
-        <v>2179041.899274059</v>
+        <v>2427402.215113677</v>
       </c>
       <c r="AE13" t="n">
-        <v>2981461.259130668</v>
+        <v>3321278.800146461</v>
       </c>
       <c r="AF13" t="n">
         <v>3.866864596776031e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>50</v>
+        <v>49.875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2696914.781066395</v>
+        <v>3004300.61290443</v>
       </c>
     </row>
     <row r="14">
@@ -62913,28 +62913,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2183.960269652296</v>
+        <v>2432.320585491914</v>
       </c>
       <c r="AB14" t="n">
-        <v>2988.190790465359</v>
+        <v>3328.008331481153</v>
       </c>
       <c r="AC14" t="n">
-        <v>2703.002055375461</v>
+        <v>3010.387887213496</v>
       </c>
       <c r="AD14" t="n">
-        <v>2183960.269652296</v>
+        <v>2432320.585491914</v>
       </c>
       <c r="AE14" t="n">
-        <v>2988190.79046536</v>
+        <v>3328008.331481153</v>
       </c>
       <c r="AF14" t="n">
         <v>3.86640172095645e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>50</v>
+        <v>49.88333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2703002.055375461</v>
+        <v>3010387.887213496</v>
       </c>
     </row>
     <row r="15">
@@ -63019,28 +63019,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2189.995870278795</v>
+        <v>2438.356186118413</v>
       </c>
       <c r="AB15" t="n">
-        <v>2996.448965514442</v>
+        <v>3336.266506530235</v>
       </c>
       <c r="AC15" t="n">
-        <v>2710.47208178828</v>
+        <v>3017.857913626315</v>
       </c>
       <c r="AD15" t="n">
-        <v>2189995.870278795</v>
+        <v>2438356.186118413</v>
       </c>
       <c r="AE15" t="n">
-        <v>2996448.965514442</v>
+        <v>3336266.506530236</v>
       </c>
       <c r="AF15" t="n">
         <v>3.869178975873934e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>50</v>
+        <v>49.85</v>
       </c>
       <c r="AH15" t="n">
-        <v>2710472.08178828</v>
+        <v>3017857.913626315</v>
       </c>
     </row>
   </sheetData>
